--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R265"/>
+  <dimension ref="A1:R267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E113" t="n">
         <v>10</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K113" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L113" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="M113" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="Q113" t="n">
         <v>10</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E114" t="n">
         <v>10</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K114" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L114" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="M114" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>433</v>
+        <v>967</v>
       </c>
       <c r="Q114" t="n">
         <v>15</v>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8637,32 +8637,32 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="K115" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L115" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M115" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>467</v>
+        <v>650</v>
       </c>
       <c r="Q115" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E116" t="n">
         <v>10</v>
@@ -8705,24 +8705,24 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K116" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L116" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M116" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8731,10 +8731,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="Q116" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44273</v>
+        <v>44176</v>
       </c>
       <c r="E117" t="n">
         <v>10</v>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8781,32 +8781,32 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K117" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L117" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M117" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1100</v>
+        <v>467</v>
       </c>
       <c r="Q117" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44273</v>
+        <v>44222</v>
       </c>
       <c r="E118" t="n">
         <v>10</v>
@@ -8849,24 +8849,24 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K118" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L118" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M118" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8875,10 +8875,10 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>733</v>
+        <v>389</v>
       </c>
       <c r="Q118" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E119" t="n">
         <v>10</v>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8925,7 +8925,7 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="K119" t="n">
         <v>11000</v>
@@ -8938,19 +8938,19 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q119" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44400</v>
+        <v>44273</v>
       </c>
       <c r="E120" t="n">
         <v>10</v>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8997,7 +8997,7 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K120" t="n">
         <v>11000</v>
@@ -9010,19 +9010,19 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q120" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E121" t="n">
         <v>10</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K121" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L121" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M121" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q121" t="n">
         <v>15</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9141,20 +9141,20 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="K122" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L122" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M122" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9163,10 +9163,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="Q122" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E123" t="n">
         <v>10</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K123" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L123" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M123" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q123" t="n">
         <v>15</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E124" t="n">
         <v>10</v>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9285,20 +9285,20 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K124" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L124" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M124" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="Q124" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E125" t="n">
         <v>10</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K125" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L125" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M125" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="Q125" t="n">
         <v>15</v>
@@ -9420,41 +9420,41 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J126" t="n">
         <v>100</v>
       </c>
       <c r="K126" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L126" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="M126" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>528</v>
+        <v>1100</v>
       </c>
       <c r="Q126" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E127" t="n">
         <v>10</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K127" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L127" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M127" t="n">
-        <v>6750</v>
+        <v>11000</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>450</v>
+        <v>733</v>
       </c>
       <c r="Q127" t="n">
         <v>15</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44390</v>
+        <v>44295</v>
       </c>
       <c r="E128" t="n">
         <v>10</v>
@@ -9564,41 +9564,41 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K128" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L128" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="M128" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>1100</v>
+        <v>528</v>
       </c>
       <c r="Q128" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E129" t="n">
         <v>10</v>
@@ -9636,41 +9636,41 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K129" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L129" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M129" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>667</v>
+        <v>450</v>
       </c>
       <c r="Q129" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9717,32 +9717,32 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="K130" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L130" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M130" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q130" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9789,7 +9789,7 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K131" t="n">
         <v>8000</v>
@@ -9802,7 +9802,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9811,10 +9811,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q131" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E132" t="n">
         <v>10</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K132" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L132" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M132" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q132" t="n">
         <v>15</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44298</v>
+        <v>44390</v>
       </c>
       <c r="E133" t="n">
         <v>10</v>
@@ -9924,29 +9924,29 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="K133" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L133" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M133" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9955,10 +9955,10 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>1100</v>
+        <v>444</v>
       </c>
       <c r="Q133" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E134" t="n">
         <v>10</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K134" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L134" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M134" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="Q134" t="n">
         <v>15</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E135" t="n">
         <v>10</v>
@@ -10077,7 +10077,7 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K135" t="n">
         <v>11000</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E136" t="n">
         <v>10</v>
@@ -10140,41 +10140,41 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K136" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L136" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M136" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>625</v>
+        <v>733</v>
       </c>
       <c r="Q136" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -10221,32 +10221,32 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K137" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L137" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M137" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q137" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10293,20 +10293,20 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K138" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L138" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M138" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>444</v>
+        <v>625</v>
       </c>
       <c r="Q138" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E139" t="n">
         <v>10</v>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10365,32 +10365,32 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>35</v>
+        <v>400</v>
       </c>
       <c r="K139" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L139" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M139" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q139" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E140" t="n">
         <v>10</v>
@@ -10428,41 +10428,41 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K140" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L140" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M140" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>867</v>
+        <v>444</v>
       </c>
       <c r="Q140" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E141" t="n">
         <v>10</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="K141" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L141" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M141" t="n">
-        <v>6767</v>
+        <v>10000</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>677</v>
+        <v>1000</v>
       </c>
       <c r="Q141" t="n">
         <v>10</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E142" t="n">
         <v>10</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K142" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L142" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M142" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>400</v>
+        <v>867</v>
       </c>
       <c r="Q142" t="n">
         <v>15</v>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10653,32 +10653,32 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K143" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L143" t="n">
         <v>7000</v>
       </c>
       <c r="M143" t="n">
-        <v>7000</v>
+        <v>6767</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>467</v>
+        <v>677</v>
       </c>
       <c r="Q143" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E144" t="n">
         <v>10</v>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K144" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L144" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M144" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>733</v>
+        <v>400</v>
       </c>
       <c r="Q144" t="n">
         <v>15</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E145" t="n">
         <v>10</v>
@@ -10800,13 +10800,13 @@
         <v>200</v>
       </c>
       <c r="K145" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L145" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M145" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="Q145" t="n">
         <v>15</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44336</v>
+        <v>44410</v>
       </c>
       <c r="E146" t="n">
         <v>10</v>
@@ -10860,7 +10860,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="K146" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L146" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="M146" t="n">
-        <v>12250</v>
+        <v>11000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10887,11 +10887,11 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>817</v>
+        <v>733</v>
       </c>
       <c r="Q146" t="n">
         <v>15</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44172</v>
+        <v>44410</v>
       </c>
       <c r="E147" t="n">
         <v>10</v>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10941,32 +10941,32 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="K147" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L147" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M147" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q147" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44172</v>
+        <v>44336</v>
       </c>
       <c r="E148" t="n">
         <v>10</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K148" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L148" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="M148" t="n">
-        <v>7000</v>
+        <v>12250</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>467</v>
+        <v>817</v>
       </c>
       <c r="Q148" t="n">
         <v>15</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E149" t="n">
         <v>10</v>
@@ -11076,41 +11076,41 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="K149" t="n">
         <v>6500</v>
       </c>
       <c r="L149" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M149" t="n">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>372</v>
+        <v>650</v>
       </c>
       <c r="Q149" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44371</v>
+        <v>44172</v>
       </c>
       <c r="E150" t="n">
         <v>10</v>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11157,32 +11157,32 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K150" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L150" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M150" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>1200</v>
+        <v>467</v>
       </c>
       <c r="Q150" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E151" t="n">
         <v>10</v>
@@ -11225,24 +11225,24 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K151" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L151" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M151" t="n">
-        <v>13000</v>
+        <v>6700</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11251,10 +11251,10 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>867</v>
+        <v>372</v>
       </c>
       <c r="Q151" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11292,29 +11292,29 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K152" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L152" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M152" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>444</v>
+        <v>1200</v>
       </c>
       <c r="Q152" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E153" t="n">
         <v>10</v>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11373,32 +11373,32 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K153" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L153" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M153" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>850</v>
+        <v>867</v>
       </c>
       <c r="Q153" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E154" t="n">
         <v>10</v>
@@ -11436,41 +11436,41 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K154" t="n">
         <v>8000</v>
       </c>
       <c r="L154" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M154" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>567</v>
+        <v>444</v>
       </c>
       <c r="Q154" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44274</v>
+        <v>44238</v>
       </c>
       <c r="E155" t="n">
         <v>10</v>
@@ -11508,7 +11508,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11517,32 +11517,32 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K155" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L155" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M155" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>733</v>
+        <v>850</v>
       </c>
       <c r="Q155" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44320</v>
+        <v>44238</v>
       </c>
       <c r="E156" t="n">
         <v>10</v>
@@ -11580,41 +11580,41 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K156" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L156" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M156" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>625</v>
+        <v>567</v>
       </c>
       <c r="Q156" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E157" t="n">
         <v>10</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K157" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L157" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M157" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="Q157" t="n">
         <v>15</v>
@@ -11724,29 +11724,29 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="K158" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L158" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M158" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -11755,10 +11755,10 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="Q158" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E159" t="n">
         <v>10</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K159" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L159" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M159" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="Q159" t="n">
         <v>15</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E160" t="n">
         <v>10</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11877,20 +11877,20 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K160" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L160" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M160" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11899,10 +11899,10 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="Q160" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E161" t="n">
         <v>10</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K161" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L161" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M161" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q161" t="n">
         <v>15</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E162" t="n">
         <v>10</v>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -12021,32 +12021,32 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K162" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L162" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M162" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>867</v>
+        <v>1100</v>
       </c>
       <c r="Q162" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E163" t="n">
         <v>10</v>
@@ -12084,7 +12084,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -12093,32 +12093,32 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="K163" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L163" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M163" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P163" t="n">
         <v>800</v>
       </c>
       <c r="Q163" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -12161,24 +12161,24 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K164" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L164" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M164" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -12187,10 +12187,10 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>389</v>
+        <v>867</v>
       </c>
       <c r="Q164" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E165" t="n">
         <v>10</v>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12237,32 +12237,32 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="K165" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L165" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M165" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P165" t="n">
         <v>800</v>
       </c>
       <c r="Q165" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44327</v>
+        <v>44224</v>
       </c>
       <c r="E166" t="n">
         <v>10</v>
@@ -12300,41 +12300,41 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="K166" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L166" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M166" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>1100</v>
+        <v>389</v>
       </c>
       <c r="Q166" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E167" t="n">
         <v>10</v>
@@ -12381,7 +12381,7 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K167" t="n">
         <v>12000</v>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12453,20 +12453,20 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K168" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L168" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M168" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -12475,10 +12475,10 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="Q168" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E169" t="n">
         <v>10</v>
@@ -12521,24 +12521,24 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K169" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L169" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M169" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>361</v>
+        <v>800</v>
       </c>
       <c r="Q169" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E170" t="n">
         <v>10</v>
@@ -12588,7 +12588,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12597,20 +12597,20 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K170" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L170" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M170" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -12619,10 +12619,10 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q170" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E171" t="n">
         <v>10</v>
@@ -12665,24 +12665,24 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K171" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L171" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M171" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12691,10 +12691,10 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>733</v>
+        <v>361</v>
       </c>
       <c r="Q171" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12741,32 +12741,32 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K172" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L172" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M172" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>567</v>
+        <v>800</v>
       </c>
       <c r="Q172" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E173" t="n">
         <v>10</v>
@@ -12804,41 +12804,41 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K173" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L173" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M173" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>625</v>
+        <v>733</v>
       </c>
       <c r="Q173" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K174" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="L174" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M174" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12903,11 +12903,11 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="Q174" t="n">
         <v>15</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E175" t="n">
         <v>10</v>
@@ -12953,24 +12953,24 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K175" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L175" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M175" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12979,10 +12979,10 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="Q175" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -13032,13 +13032,13 @@
         <v>300</v>
       </c>
       <c r="K176" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L176" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M176" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q176" t="n">
         <v>15</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -13092,7 +13092,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -13101,32 +13101,32 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K177" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L177" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M177" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q177" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44193</v>
+        <v>44330</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K178" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L178" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M178" t="n">
-        <v>6750</v>
+        <v>12000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="Q178" t="n">
         <v>15</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -13236,7 +13236,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13245,32 +13245,32 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K179" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L179" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M179" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q179" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E180" t="n">
         <v>10</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K180" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L180" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M180" t="n">
-        <v>13000</v>
+        <v>6750</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>867</v>
+        <v>450</v>
       </c>
       <c r="Q180" t="n">
         <v>15</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -13389,7 +13389,7 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K181" t="n">
         <v>10000</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K182" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L182" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M182" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="Q182" t="n">
         <v>15</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13533,32 +13533,32 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="K183" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L183" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M183" t="n">
-        <v>8250</v>
+        <v>10000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q183" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K184" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L184" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M184" t="n">
-        <v>8750</v>
+        <v>12000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>583</v>
+        <v>800</v>
       </c>
       <c r="Q184" t="n">
         <v>15</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44278</v>
+        <v>44196</v>
       </c>
       <c r="E185" t="n">
         <v>10</v>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13677,32 +13677,32 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K185" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L185" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M185" t="n">
-        <v>11000</v>
+        <v>8250</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="Q185" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K186" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L186" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M186" t="n">
-        <v>11000</v>
+        <v>8750</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>733</v>
+        <v>583</v>
       </c>
       <c r="Q186" t="n">
         <v>15</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E187" t="n">
         <v>10</v>
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K187" t="n">
         <v>11000</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -13896,13 +13896,13 @@
         <v>300</v>
       </c>
       <c r="K188" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L188" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M188" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q188" t="n">
         <v>15</v>
@@ -13956,29 +13956,29 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K189" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L189" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M189" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -13987,10 +13987,10 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>444</v>
+        <v>1100</v>
       </c>
       <c r="Q189" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -14037,32 +14037,32 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="K190" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L190" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M190" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q190" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -14100,41 +14100,41 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J191" t="n">
         <v>150</v>
       </c>
       <c r="K191" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L191" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M191" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="Q191" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E192" t="n">
         <v>10</v>
@@ -14181,7 +14181,7 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="K192" t="n">
         <v>11000</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E193" t="n">
         <v>10</v>
@@ -14253,7 +14253,7 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K193" t="n">
         <v>12000</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E194" t="n">
         <v>10</v>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -14325,32 +14325,32 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K194" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L194" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M194" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>667</v>
+        <v>1100</v>
       </c>
       <c r="Q194" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44250</v>
+        <v>44399</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K195" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L195" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M195" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q195" t="n">
         <v>15</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44292</v>
+        <v>44251</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K196" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="L196" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M196" t="n">
-        <v>10750</v>
+        <v>10000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>717</v>
+        <v>667</v>
       </c>
       <c r="Q196" t="n">
         <v>15</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44305</v>
+        <v>44250</v>
       </c>
       <c r="E197" t="n">
         <v>10</v>
@@ -14541,7 +14541,7 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K197" t="n">
         <v>10000</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14613,32 +14613,32 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="K198" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="L198" t="n">
         <v>11000</v>
       </c>
       <c r="M198" t="n">
-        <v>11000</v>
+        <v>10750</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>1100</v>
+        <v>717</v>
       </c>
       <c r="Q198" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K199" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L199" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M199" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="Q199" t="n">
         <v>15</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K200" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L200" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M200" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q200" t="n">
         <v>10</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K201" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L201" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M201" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="Q201" t="n">
         <v>15</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -14892,41 +14892,41 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="K202" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L202" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M202" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>389</v>
+        <v>800</v>
       </c>
       <c r="Q202" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44181</v>
+        <v>44245</v>
       </c>
       <c r="E203" t="n">
         <v>10</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K203" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L203" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M203" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="Q203" t="n">
         <v>15</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44369</v>
+        <v>44202</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -15036,41 +15036,41 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K204" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L204" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M204" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>1100</v>
+        <v>389</v>
       </c>
       <c r="Q204" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -15117,29 +15117,29 @@
         </is>
       </c>
       <c r="J205" t="n">
+        <v>60</v>
+      </c>
+      <c r="K205" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L205" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M205" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P205" t="n">
         <v>400</v>
-      </c>
-      <c r="K205" t="n">
-        <v>12000</v>
-      </c>
-      <c r="L205" t="n">
-        <v>12000</v>
-      </c>
-      <c r="M205" t="n">
-        <v>12000</v>
-      </c>
-      <c r="N205" t="inlineStr">
-        <is>
-          <t>$/caja 15 unidades</t>
-        </is>
-      </c>
-      <c r="O205" t="inlineStr">
-        <is>
-          <t>Región de Coquimbo</t>
-        </is>
-      </c>
-      <c r="P205" t="n">
-        <v>800</v>
       </c>
       <c r="Q205" t="n">
         <v>15</v>
@@ -15180,29 +15180,29 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K206" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L206" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M206" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -15211,10 +15211,10 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>444</v>
+        <v>1100</v>
       </c>
       <c r="Q206" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -15252,7 +15252,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -15261,32 +15261,32 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="K207" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L207" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M207" t="n">
-        <v>7556</v>
+        <v>12000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>756</v>
+        <v>800</v>
       </c>
       <c r="Q207" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -15324,41 +15324,41 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K208" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L208" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M208" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="Q208" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15405,32 +15405,32 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K209" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L209" t="n">
         <v>8000</v>
       </c>
-      <c r="L209" t="n">
-        <v>9000</v>
-      </c>
       <c r="M209" t="n">
-        <v>8500</v>
+        <v>7556</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>567</v>
+        <v>756</v>
       </c>
       <c r="Q209" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44265</v>
+        <v>44161</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>27</v>
+        <v>300</v>
       </c>
       <c r="K210" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L210" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M210" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>733</v>
+        <v>433</v>
       </c>
       <c r="Q210" t="n">
         <v>15</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15549,32 +15549,32 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K211" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L211" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M211" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>700</v>
+        <v>567</v>
       </c>
       <c r="Q211" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>400</v>
+        <v>27</v>
       </c>
       <c r="K212" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L212" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M212" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>400</v>
+        <v>733</v>
       </c>
       <c r="Q212" t="n">
         <v>15</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="K213" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L213" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M213" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="Q213" t="n">
         <v>10</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K214" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L214" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M214" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q214" t="n">
         <v>15</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="K215" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L215" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M215" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="Q215" t="n">
         <v>10</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -15912,13 +15912,13 @@
         <v>150</v>
       </c>
       <c r="K216" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L216" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M216" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>567</v>
+        <v>800</v>
       </c>
       <c r="Q216" t="n">
         <v>15</v>
@@ -15972,41 +15972,41 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="K217" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L217" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M217" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>389</v>
+        <v>750</v>
       </c>
       <c r="Q217" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K218" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L218" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M218" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="Q218" t="n">
         <v>15</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44309</v>
+        <v>44201</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -16121,24 +16121,24 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K219" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L219" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M219" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -16147,10 +16147,10 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>633</v>
+        <v>389</v>
       </c>
       <c r="Q219" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44344</v>
+        <v>44277</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K220" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L220" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M220" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q220" t="n">
         <v>15</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -16260,41 +16260,41 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K221" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L221" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M221" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>444</v>
+        <v>633</v>
       </c>
       <c r="Q221" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -16332,41 +16332,41 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="K222" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L222" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M222" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>625</v>
+        <v>800</v>
       </c>
       <c r="Q222" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -16404,41 +16404,41 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K223" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L223" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M223" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q223" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -16485,7 +16485,7 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K224" t="n">
         <v>7500</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -16557,7 +16557,7 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K225" t="n">
         <v>10000</v>
@@ -16620,29 +16620,29 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K226" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L226" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M226" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -16651,10 +16651,10 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="Q226" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E227" t="n">
         <v>10</v>
@@ -16707,10 +16707,10 @@
         <v>10000</v>
       </c>
       <c r="L227" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M227" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="Q227" t="n">
         <v>15</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44281</v>
+        <v>44316</v>
       </c>
       <c r="E228" t="n">
         <v>10</v>
@@ -16764,7 +16764,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K228" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L228" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M228" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16791,11 +16791,11 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="Q228" t="n">
         <v>15</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44160</v>
+        <v>44253</v>
       </c>
       <c r="E229" t="n">
         <v>10</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="K229" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L229" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M229" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q229" t="n">
         <v>15</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44186</v>
+        <v>44281</v>
       </c>
       <c r="E230" t="n">
         <v>10</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K230" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L230" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M230" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16935,11 +16935,11 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>433</v>
+        <v>733</v>
       </c>
       <c r="Q230" t="n">
         <v>15</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K231" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L231" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M231" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="Q231" t="n">
         <v>15</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -17057,36 +17057,36 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K232" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L232" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M232" t="n">
         <v>6500</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>361</v>
+        <v>433</v>
       </c>
       <c r="Q232" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17133,32 +17133,32 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K233" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L233" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M233" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1100</v>
+        <v>533</v>
       </c>
       <c r="Q233" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -17201,24 +17201,24 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K234" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L234" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M234" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -17227,10 +17227,10 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>733</v>
+        <v>361</v>
       </c>
       <c r="Q234" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -17268,7 +17268,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -17277,7 +17277,7 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="K235" t="n">
         <v>11000</v>
@@ -17290,19 +17290,19 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q235" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K236" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L236" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M236" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q236" t="n">
         <v>15</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K237" t="n">
         <v>11000</v>
@@ -17434,19 +17434,19 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q237" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K238" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L238" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M238" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q238" t="n">
         <v>15</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -17565,7 +17565,7 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K239" t="n">
         <v>11000</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K240" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L240" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M240" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q240" t="n">
         <v>15</v>
@@ -17700,29 +17700,29 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K241" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L241" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M241" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -17731,10 +17731,10 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>472</v>
+        <v>1100</v>
       </c>
       <c r="Q241" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K242" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L242" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M242" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q242" t="n">
         <v>15</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -17844,16 +17844,16 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="K243" t="n">
         <v>8500</v>
@@ -17866,19 +17866,19 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>567</v>
+        <v>472</v>
       </c>
       <c r="Q243" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K244" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L244" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M244" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="Q244" t="n">
         <v>15</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44270</v>
+        <v>44232</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K245" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L245" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M245" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18015,11 +18015,11 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="Q245" t="n">
         <v>15</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E246" t="n">
         <v>10</v>
@@ -18069,7 +18069,7 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K246" t="n">
         <v>12000</v>
@@ -18087,7 +18087,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P246" t="n">
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -18132,41 +18132,41 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K247" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L247" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M247" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>444</v>
+        <v>733</v>
       </c>
       <c r="Q247" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="K248" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L248" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M248" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q248" t="n">
         <v>15</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -18276,29 +18276,29 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K249" t="n">
         <v>8000</v>
       </c>
       <c r="L249" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M249" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>850</v>
+        <v>444</v>
       </c>
       <c r="Q249" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E250" t="n">
         <v>10</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K250" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L250" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M250" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="Q250" t="n">
         <v>15</v>
@@ -18420,41 +18420,41 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K251" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L251" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M251" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>389</v>
+        <v>850</v>
       </c>
       <c r="Q251" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K252" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L252" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M252" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="Q252" t="n">
         <v>15</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -18569,24 +18569,24 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K253" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L253" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M253" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>800</v>
+        <v>389</v>
       </c>
       <c r="Q253" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44223</v>
+        <v>44244</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -18641,24 +18641,24 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J254" t="n">
         <v>50</v>
       </c>
       <c r="K254" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L254" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M254" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -18667,10 +18667,10 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q254" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E255" t="n">
         <v>10</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K255" t="n">
         <v>12000</v>
       </c>
       <c r="L255" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M255" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="Q255" t="n">
         <v>15</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K256" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L256" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M256" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18807,11 +18807,11 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>472</v>
+        <v>389</v>
       </c>
       <c r="Q256" t="n">
         <v>18</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E257" t="n">
         <v>10</v>
@@ -18857,24 +18857,24 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K257" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L257" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M257" t="n">
-        <v>6750</v>
+        <v>12500</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>375</v>
+        <v>833</v>
       </c>
       <c r="Q257" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44179</v>
+        <v>44376</v>
       </c>
       <c r="E258" t="n">
         <v>10</v>
@@ -18924,41 +18924,41 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J258" t="n">
         <v>200</v>
       </c>
       <c r="K258" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L258" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M258" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="Q258" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44284</v>
+        <v>44208</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -19001,24 +19001,24 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K259" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L259" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M259" t="n">
-        <v>11000</v>
+        <v>6750</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>733</v>
+        <v>375</v>
       </c>
       <c r="Q259" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E260" t="n">
         <v>10</v>
@@ -19068,41 +19068,41 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K260" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L260" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M260" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>625</v>
+        <v>467</v>
       </c>
       <c r="Q260" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K261" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L261" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M261" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q261" t="n">
         <v>15</v>
@@ -19212,7 +19212,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -19221,32 +19221,32 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K262" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L262" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M262" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="Q262" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K263" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L263" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M263" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19311,11 +19311,11 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q263" t="n">
         <v>15</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
@@ -19356,41 +19356,41 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K264" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L264" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M264" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>700</v>
+        <v>556</v>
       </c>
       <c r="Q264" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E265" t="n">
         <v>10</v>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19440,13 +19440,13 @@
         <v>250</v>
       </c>
       <c r="K265" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L265" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M265" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,16 +19455,160 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="Q265" t="n">
         <v>15</v>
       </c>
       <c r="R265" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>4</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E266" t="n">
+        <v>10</v>
+      </c>
+      <c r="F266" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J266" t="n">
+        <v>70</v>
+      </c>
+      <c r="K266" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L266" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M266" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P266" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>10</v>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>4</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E267" t="n">
+        <v>10</v>
+      </c>
+      <c r="F267" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J267" t="n">
+        <v>250</v>
+      </c>
+      <c r="K267" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L267" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M267" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P267" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>15</v>
+      </c>
+      <c r="R267" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R267"/>
+  <dimension ref="A1:R269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44215</v>
+        <v>44414</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5256,13 +5256,13 @@
         <v>120</v>
       </c>
       <c r="K68" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L68" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M68" t="n">
-        <v>8250</v>
+        <v>11000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>825</v>
+        <v>1100</v>
       </c>
       <c r="Q68" t="n">
         <v>10</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44215</v>
+        <v>44414</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K69" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L69" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M69" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>533</v>
+        <v>967</v>
       </c>
       <c r="Q69" t="n">
         <v>15</v>
@@ -5388,41 +5388,41 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K70" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L70" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M70" t="n">
-        <v>7000</v>
+        <v>8250</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>389</v>
+        <v>825</v>
       </c>
       <c r="Q70" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44308</v>
+        <v>44215</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K71" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L71" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M71" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="Q71" t="n">
         <v>15</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44403</v>
+        <v>44215</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -5537,24 +5537,24 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K72" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L72" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M72" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>800</v>
+        <v>389</v>
       </c>
       <c r="Q72" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44239</v>
+        <v>44308</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K73" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L73" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M73" t="n">
-        <v>8750</v>
+        <v>10500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>583</v>
+        <v>700</v>
       </c>
       <c r="Q73" t="n">
         <v>15</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44379</v>
+        <v>44403</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,32 +5685,32 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="K74" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L74" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M74" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q74" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44379</v>
+        <v>44239</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K75" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L75" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M75" t="n">
-        <v>12000</v>
+        <v>8750</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>800</v>
+        <v>583</v>
       </c>
       <c r="Q75" t="n">
         <v>15</v>
@@ -5820,29 +5820,29 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="K76" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L76" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M76" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>472</v>
+        <v>1100</v>
       </c>
       <c r="Q76" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K77" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L77" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M77" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q77" t="n">
         <v>15</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44356</v>
+        <v>44379</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -5964,41 +5964,41 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K78" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L78" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M78" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>800</v>
+        <v>472</v>
       </c>
       <c r="Q78" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44396</v>
+        <v>44306</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K79" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L79" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M79" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q79" t="n">
         <v>15</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44340</v>
+        <v>44356</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K80" t="n">
         <v>12000</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44174</v>
+        <v>44396</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="K81" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L81" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M81" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="Q81" t="n">
         <v>15</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44221</v>
+        <v>44340</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K82" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L82" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M82" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="Q82" t="n">
         <v>15</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44271</v>
+        <v>44174</v>
       </c>
       <c r="E83" t="n">
         <v>10</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,32 +6333,32 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="K83" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L83" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M83" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1100</v>
+        <v>467</v>
       </c>
       <c r="Q83" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44271</v>
+        <v>44221</v>
       </c>
       <c r="E84" t="n">
         <v>10</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K84" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L84" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M84" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>733</v>
+        <v>467</v>
       </c>
       <c r="Q84" t="n">
         <v>15</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E85" t="n">
         <v>10</v>
@@ -6477,7 +6477,7 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K85" t="n">
         <v>11000</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E86" t="n">
         <v>10</v>
@@ -6549,7 +6549,7 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K86" t="n">
         <v>11000</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E87" t="n">
         <v>10</v>
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K87" t="n">
         <v>11000</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E88" t="n">
         <v>10</v>
@@ -6693,7 +6693,7 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K88" t="n">
         <v>11000</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44162</v>
+        <v>44299</v>
       </c>
       <c r="E89" t="n">
         <v>10</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K89" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L89" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M89" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="Q89" t="n">
         <v>10</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44162</v>
+        <v>44299</v>
       </c>
       <c r="E90" t="n">
         <v>10</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K90" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L90" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M90" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>400</v>
+        <v>733</v>
       </c>
       <c r="Q90" t="n">
         <v>15</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44342</v>
+        <v>44162</v>
       </c>
       <c r="E91" t="n">
         <v>10</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,32 +6909,32 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K91" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L91" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M91" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q91" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44362</v>
+        <v>44162</v>
       </c>
       <c r="E92" t="n">
         <v>10</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,32 +6981,32 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K92" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L92" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M92" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="Q92" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E93" t="n">
         <v>10</v>
@@ -7053,7 +7053,7 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K93" t="n">
         <v>12000</v>
@@ -7116,29 +7116,29 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K94" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L94" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M94" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>444</v>
+        <v>1100</v>
       </c>
       <c r="Q94" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44175</v>
+        <v>44362</v>
       </c>
       <c r="E95" t="n">
         <v>10</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,32 +7197,32 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>60</v>
+        <v>450</v>
       </c>
       <c r="K95" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L95" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M95" t="n">
-        <v>6750</v>
+        <v>12000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>675</v>
+        <v>800</v>
       </c>
       <c r="Q95" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44175</v>
+        <v>44362</v>
       </c>
       <c r="E96" t="n">
         <v>10</v>
@@ -7260,41 +7260,41 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K96" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L96" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M96" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="Q96" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,32 +7341,32 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K97" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L97" t="n">
         <v>7000</v>
       </c>
       <c r="M97" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>467</v>
+        <v>675</v>
       </c>
       <c r="Q97" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44384</v>
+        <v>44175</v>
       </c>
       <c r="E98" t="n">
         <v>10</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="K98" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L98" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M98" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q98" t="n">
         <v>15</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44242</v>
+        <v>44175</v>
       </c>
       <c r="E99" t="n">
         <v>10</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K99" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L99" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M99" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7503,11 +7503,11 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>567</v>
+        <v>467</v>
       </c>
       <c r="Q99" t="n">
         <v>15</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44204</v>
+        <v>44384</v>
       </c>
       <c r="E100" t="n">
         <v>10</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="K100" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L100" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M100" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>567</v>
+        <v>800</v>
       </c>
       <c r="Q100" t="n">
         <v>15</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44204</v>
+        <v>44242</v>
       </c>
       <c r="E101" t="n">
         <v>10</v>
@@ -7625,24 +7625,24 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K101" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L101" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M101" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>389</v>
+        <v>567</v>
       </c>
       <c r="Q101" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44323</v>
+        <v>44204</v>
       </c>
       <c r="E102" t="n">
         <v>10</v>
@@ -7692,41 +7692,41 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K102" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L102" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="M102" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>625</v>
+        <v>567</v>
       </c>
       <c r="Q102" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44323</v>
+        <v>44204</v>
       </c>
       <c r="E103" t="n">
         <v>10</v>
@@ -7769,24 +7769,24 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K103" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L103" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M103" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>733</v>
+        <v>389</v>
       </c>
       <c r="Q103" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,32 +7845,32 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K104" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L104" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M104" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="Q104" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K105" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L105" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M105" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7935,11 +7935,11 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="Q105" t="n">
         <v>15</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44200</v>
+        <v>44323</v>
       </c>
       <c r="E106" t="n">
         <v>10</v>
@@ -7985,36 +7985,36 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K106" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L106" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M106" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q106" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44363</v>
+        <v>44323</v>
       </c>
       <c r="E107" t="n">
         <v>10</v>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K107" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L107" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M107" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8079,11 +8079,11 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q107" t="n">
         <v>15</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44216</v>
+        <v>44200</v>
       </c>
       <c r="E108" t="n">
         <v>10</v>
@@ -8129,36 +8129,36 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K108" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L108" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M108" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q108" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E109" t="n">
         <v>10</v>
@@ -8205,7 +8205,7 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K109" t="n">
         <v>12000</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44385</v>
+        <v>44216</v>
       </c>
       <c r="E110" t="n">
         <v>10</v>
@@ -8268,41 +8268,41 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K110" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L110" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M110" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1100</v>
+        <v>389</v>
       </c>
       <c r="Q110" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E111" t="n">
         <v>10</v>
@@ -8349,7 +8349,7 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K111" t="n">
         <v>12000</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44243</v>
+        <v>44385</v>
       </c>
       <c r="E112" t="n">
         <v>10</v>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8421,32 +8421,32 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K112" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L112" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M112" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>667</v>
+        <v>1100</v>
       </c>
       <c r="Q112" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E113" t="n">
         <v>10</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8493,32 +8493,32 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K113" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L113" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M113" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q113" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44413</v>
+        <v>44243</v>
       </c>
       <c r="E114" t="n">
         <v>10</v>
@@ -8568,13 +8568,13 @@
         <v>300</v>
       </c>
       <c r="K114" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L114" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M114" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="Q114" t="n">
         <v>15</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E115" t="n">
         <v>10</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K115" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L115" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="M115" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="Q115" t="n">
         <v>10</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E116" t="n">
         <v>10</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K116" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L116" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="M116" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>433</v>
+        <v>967</v>
       </c>
       <c r="Q116" t="n">
         <v>15</v>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8781,32 +8781,32 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="K117" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L117" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M117" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>467</v>
+        <v>650</v>
       </c>
       <c r="Q117" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E118" t="n">
         <v>10</v>
@@ -8849,24 +8849,24 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K118" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L118" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M118" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8875,10 +8875,10 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="Q118" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44273</v>
+        <v>44176</v>
       </c>
       <c r="E119" t="n">
         <v>10</v>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8925,32 +8925,32 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K119" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L119" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M119" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>1100</v>
+        <v>467</v>
       </c>
       <c r="Q119" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44273</v>
+        <v>44222</v>
       </c>
       <c r="E120" t="n">
         <v>10</v>
@@ -8993,24 +8993,24 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K120" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L120" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M120" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -9019,10 +9019,10 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>733</v>
+        <v>389</v>
       </c>
       <c r="Q120" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E121" t="n">
         <v>10</v>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9069,7 +9069,7 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="K121" t="n">
         <v>11000</v>
@@ -9082,19 +9082,19 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q121" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44400</v>
+        <v>44273</v>
       </c>
       <c r="E122" t="n">
         <v>10</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9141,7 +9141,7 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K122" t="n">
         <v>11000</v>
@@ -9154,19 +9154,19 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q122" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E123" t="n">
         <v>10</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K123" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L123" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M123" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q123" t="n">
         <v>15</v>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9285,20 +9285,20 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="K124" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L124" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M124" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="Q124" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E125" t="n">
         <v>10</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K125" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L125" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M125" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q125" t="n">
         <v>15</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E126" t="n">
         <v>10</v>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9429,20 +9429,20 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K126" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L126" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M126" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="Q126" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E127" t="n">
         <v>10</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K127" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L127" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M127" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="Q127" t="n">
         <v>15</v>
@@ -9564,41 +9564,41 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J128" t="n">
         <v>100</v>
       </c>
       <c r="K128" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L128" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="M128" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>528</v>
+        <v>1100</v>
       </c>
       <c r="Q128" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E129" t="n">
         <v>10</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K129" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L129" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M129" t="n">
-        <v>6750</v>
+        <v>11000</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>450</v>
+        <v>733</v>
       </c>
       <c r="Q129" t="n">
         <v>15</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44390</v>
+        <v>44295</v>
       </c>
       <c r="E130" t="n">
         <v>10</v>
@@ -9708,41 +9708,41 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K130" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L130" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="M130" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>1100</v>
+        <v>528</v>
       </c>
       <c r="Q130" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E131" t="n">
         <v>10</v>
@@ -9780,41 +9780,41 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K131" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L131" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M131" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>667</v>
+        <v>450</v>
       </c>
       <c r="Q131" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9861,32 +9861,32 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="K132" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L132" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M132" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q132" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9933,7 +9933,7 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K133" t="n">
         <v>8000</v>
@@ -9946,7 +9946,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9955,10 +9955,10 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q133" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E134" t="n">
         <v>10</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K134" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L134" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M134" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q134" t="n">
         <v>15</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44298</v>
+        <v>44390</v>
       </c>
       <c r="E135" t="n">
         <v>10</v>
@@ -10068,29 +10068,29 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="K135" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L135" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M135" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>1100</v>
+        <v>444</v>
       </c>
       <c r="Q135" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E136" t="n">
         <v>10</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K136" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L136" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M136" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="Q136" t="n">
         <v>15</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E137" t="n">
         <v>10</v>
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K137" t="n">
         <v>11000</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E138" t="n">
         <v>10</v>
@@ -10284,41 +10284,41 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K138" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L138" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M138" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>625</v>
+        <v>733</v>
       </c>
       <c r="Q138" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10365,32 +10365,32 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K139" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L139" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M139" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q139" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10437,20 +10437,20 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K140" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L140" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M140" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>444</v>
+        <v>625</v>
       </c>
       <c r="Q140" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E141" t="n">
         <v>10</v>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10509,32 +10509,32 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>35</v>
+        <v>400</v>
       </c>
       <c r="K141" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L141" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M141" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q141" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E142" t="n">
         <v>10</v>
@@ -10572,41 +10572,41 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K142" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L142" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M142" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>867</v>
+        <v>444</v>
       </c>
       <c r="Q142" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E143" t="n">
         <v>10</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="K143" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L143" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M143" t="n">
-        <v>6767</v>
+        <v>10000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>677</v>
+        <v>1000</v>
       </c>
       <c r="Q143" t="n">
         <v>10</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E144" t="n">
         <v>10</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K144" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L144" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M144" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>400</v>
+        <v>867</v>
       </c>
       <c r="Q144" t="n">
         <v>15</v>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10797,32 +10797,32 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K145" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L145" t="n">
         <v>7000</v>
       </c>
       <c r="M145" t="n">
-        <v>7000</v>
+        <v>6767</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>467</v>
+        <v>677</v>
       </c>
       <c r="Q145" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E146" t="n">
         <v>10</v>
@@ -10860,7 +10860,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K146" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L146" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M146" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10887,11 +10887,11 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>733</v>
+        <v>400</v>
       </c>
       <c r="Q146" t="n">
         <v>15</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E147" t="n">
         <v>10</v>
@@ -10944,13 +10944,13 @@
         <v>200</v>
       </c>
       <c r="K147" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L147" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M147" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="Q147" t="n">
         <v>15</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44336</v>
+        <v>44410</v>
       </c>
       <c r="E148" t="n">
         <v>10</v>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="K148" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L148" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="M148" t="n">
-        <v>12250</v>
+        <v>11000</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>817</v>
+        <v>733</v>
       </c>
       <c r="Q148" t="n">
         <v>15</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44172</v>
+        <v>44410</v>
       </c>
       <c r="E149" t="n">
         <v>10</v>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11085,32 +11085,32 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="K149" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L149" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M149" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q149" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44172</v>
+        <v>44336</v>
       </c>
       <c r="E150" t="n">
         <v>10</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K150" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L150" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="M150" t="n">
-        <v>7000</v>
+        <v>12250</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11175,11 +11175,11 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>467</v>
+        <v>817</v>
       </c>
       <c r="Q150" t="n">
         <v>15</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E151" t="n">
         <v>10</v>
@@ -11220,41 +11220,41 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="K151" t="n">
         <v>6500</v>
       </c>
       <c r="L151" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M151" t="n">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>372</v>
+        <v>650</v>
       </c>
       <c r="Q151" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44371</v>
+        <v>44172</v>
       </c>
       <c r="E152" t="n">
         <v>10</v>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11301,32 +11301,32 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K152" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L152" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M152" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>1200</v>
+        <v>467</v>
       </c>
       <c r="Q152" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E153" t="n">
         <v>10</v>
@@ -11369,24 +11369,24 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K153" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L153" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M153" t="n">
-        <v>13000</v>
+        <v>6700</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -11395,10 +11395,10 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>867</v>
+        <v>372</v>
       </c>
       <c r="Q153" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11436,29 +11436,29 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K154" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L154" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M154" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -11467,10 +11467,10 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>444</v>
+        <v>1200</v>
       </c>
       <c r="Q154" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E155" t="n">
         <v>10</v>
@@ -11508,7 +11508,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11517,32 +11517,32 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K155" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L155" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M155" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>850</v>
+        <v>867</v>
       </c>
       <c r="Q155" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E156" t="n">
         <v>10</v>
@@ -11580,41 +11580,41 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K156" t="n">
         <v>8000</v>
       </c>
       <c r="L156" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M156" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>567</v>
+        <v>444</v>
       </c>
       <c r="Q156" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44274</v>
+        <v>44238</v>
       </c>
       <c r="E157" t="n">
         <v>10</v>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11661,32 +11661,32 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K157" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L157" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M157" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>733</v>
+        <v>850</v>
       </c>
       <c r="Q157" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44320</v>
+        <v>44238</v>
       </c>
       <c r="E158" t="n">
         <v>10</v>
@@ -11724,41 +11724,41 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K158" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L158" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M158" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>625</v>
+        <v>567</v>
       </c>
       <c r="Q158" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E159" t="n">
         <v>10</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K159" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L159" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M159" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="Q159" t="n">
         <v>15</v>
@@ -11868,29 +11868,29 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="K160" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L160" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M160" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11899,10 +11899,10 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="Q160" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E161" t="n">
         <v>10</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K161" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L161" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M161" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="Q161" t="n">
         <v>15</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E162" t="n">
         <v>10</v>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -12021,20 +12021,20 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K162" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L162" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M162" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -12043,10 +12043,10 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="Q162" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E163" t="n">
         <v>10</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K163" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L163" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M163" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q163" t="n">
         <v>15</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12165,32 +12165,32 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K164" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L164" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M164" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>867</v>
+        <v>1100</v>
       </c>
       <c r="Q164" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E165" t="n">
         <v>10</v>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12237,32 +12237,32 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="K165" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L165" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M165" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P165" t="n">
         <v>800</v>
       </c>
       <c r="Q165" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E166" t="n">
         <v>10</v>
@@ -12305,24 +12305,24 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K166" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L166" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M166" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -12331,10 +12331,10 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>389</v>
+        <v>867</v>
       </c>
       <c r="Q166" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E167" t="n">
         <v>10</v>
@@ -12372,7 +12372,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -12381,32 +12381,32 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="K167" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L167" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M167" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P167" t="n">
         <v>800</v>
       </c>
       <c r="Q167" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44327</v>
+        <v>44224</v>
       </c>
       <c r="E168" t="n">
         <v>10</v>
@@ -12444,41 +12444,41 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="K168" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L168" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M168" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>1100</v>
+        <v>389</v>
       </c>
       <c r="Q168" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E169" t="n">
         <v>10</v>
@@ -12525,7 +12525,7 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K169" t="n">
         <v>12000</v>
@@ -12588,7 +12588,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12597,20 +12597,20 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K170" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L170" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M170" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -12619,10 +12619,10 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="Q170" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E171" t="n">
         <v>10</v>
@@ -12665,24 +12665,24 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K171" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L171" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M171" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12691,10 +12691,10 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>361</v>
+        <v>800</v>
       </c>
       <c r="Q171" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E172" t="n">
         <v>10</v>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12741,20 +12741,20 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K172" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L172" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M172" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -12763,10 +12763,10 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q172" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E173" t="n">
         <v>10</v>
@@ -12809,24 +12809,24 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K173" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L173" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M173" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>733</v>
+        <v>361</v>
       </c>
       <c r="Q173" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12885,32 +12885,32 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K174" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L174" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M174" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>567</v>
+        <v>800</v>
       </c>
       <c r="Q174" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E175" t="n">
         <v>10</v>
@@ -12948,41 +12948,41 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K175" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L175" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M175" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>625</v>
+        <v>733</v>
       </c>
       <c r="Q175" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K176" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="L176" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M176" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13047,11 +13047,11 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="Q176" t="n">
         <v>15</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -13097,24 +13097,24 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K177" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L177" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M177" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -13123,10 +13123,10 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="Q177" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -13176,13 +13176,13 @@
         <v>300</v>
       </c>
       <c r="K178" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L178" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M178" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q178" t="n">
         <v>15</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -13236,7 +13236,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13245,32 +13245,32 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K179" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L179" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M179" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q179" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44193</v>
+        <v>44330</v>
       </c>
       <c r="E180" t="n">
         <v>10</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K180" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L180" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M180" t="n">
-        <v>6750</v>
+        <v>12000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="Q180" t="n">
         <v>15</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13389,32 +13389,32 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K181" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L181" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M181" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q181" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K182" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L182" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M182" t="n">
-        <v>13000</v>
+        <v>6750</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>867</v>
+        <v>450</v>
       </c>
       <c r="Q182" t="n">
         <v>15</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
@@ -13533,7 +13533,7 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K183" t="n">
         <v>10000</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K184" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L184" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M184" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="Q184" t="n">
         <v>15</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E185" t="n">
         <v>10</v>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13677,32 +13677,32 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="K185" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L185" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M185" t="n">
-        <v>8250</v>
+        <v>10000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q185" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K186" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L186" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M186" t="n">
-        <v>8750</v>
+        <v>12000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>583</v>
+        <v>800</v>
       </c>
       <c r="Q186" t="n">
         <v>15</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44278</v>
+        <v>44196</v>
       </c>
       <c r="E187" t="n">
         <v>10</v>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13821,32 +13821,32 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K187" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L187" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M187" t="n">
-        <v>11000</v>
+        <v>8250</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="Q187" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K188" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L188" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M188" t="n">
-        <v>11000</v>
+        <v>8750</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>733</v>
+        <v>583</v>
       </c>
       <c r="Q188" t="n">
         <v>15</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E189" t="n">
         <v>10</v>
@@ -13965,7 +13965,7 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K189" t="n">
         <v>11000</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -14040,13 +14040,13 @@
         <v>300</v>
       </c>
       <c r="K190" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L190" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M190" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q190" t="n">
         <v>15</v>
@@ -14100,29 +14100,29 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K191" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L191" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M191" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -14131,10 +14131,10 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>444</v>
+        <v>1100</v>
       </c>
       <c r="Q191" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E192" t="n">
         <v>10</v>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -14181,32 +14181,32 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="K192" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L192" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M192" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q192" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E193" t="n">
         <v>10</v>
@@ -14244,41 +14244,41 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J193" t="n">
         <v>150</v>
       </c>
       <c r="K193" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L193" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M193" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="Q193" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E194" t="n">
         <v>10</v>
@@ -14325,7 +14325,7 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="K194" t="n">
         <v>11000</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -14397,7 +14397,7 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K195" t="n">
         <v>12000</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14469,32 +14469,32 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K196" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L196" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M196" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>667</v>
+        <v>1100</v>
       </c>
       <c r="Q196" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44250</v>
+        <v>44399</v>
       </c>
       <c r="E197" t="n">
         <v>10</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K197" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L197" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M197" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q197" t="n">
         <v>15</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44292</v>
+        <v>44251</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K198" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="L198" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M198" t="n">
-        <v>10750</v>
+        <v>10000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>717</v>
+        <v>667</v>
       </c>
       <c r="Q198" t="n">
         <v>15</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44305</v>
+        <v>44250</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -14685,7 +14685,7 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K199" t="n">
         <v>10000</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -14748,7 +14748,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14757,32 +14757,32 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="K200" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="L200" t="n">
         <v>11000</v>
       </c>
       <c r="M200" t="n">
-        <v>11000</v>
+        <v>10750</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>1100</v>
+        <v>717</v>
       </c>
       <c r="Q200" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K201" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L201" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M201" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="Q201" t="n">
         <v>15</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K202" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L202" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M202" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q202" t="n">
         <v>10</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E203" t="n">
         <v>10</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K203" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L203" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M203" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="Q203" t="n">
         <v>15</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -15036,41 +15036,41 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="K204" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L204" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M204" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>389</v>
+        <v>800</v>
       </c>
       <c r="Q204" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44181</v>
+        <v>44245</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K205" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L205" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M205" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="Q205" t="n">
         <v>15</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44369</v>
+        <v>44202</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -15180,41 +15180,41 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K206" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L206" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M206" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>1100</v>
+        <v>389</v>
       </c>
       <c r="Q206" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -15261,29 +15261,29 @@
         </is>
       </c>
       <c r="J207" t="n">
+        <v>60</v>
+      </c>
+      <c r="K207" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L207" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M207" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P207" t="n">
         <v>400</v>
-      </c>
-      <c r="K207" t="n">
-        <v>12000</v>
-      </c>
-      <c r="L207" t="n">
-        <v>12000</v>
-      </c>
-      <c r="M207" t="n">
-        <v>12000</v>
-      </c>
-      <c r="N207" t="inlineStr">
-        <is>
-          <t>$/caja 15 unidades</t>
-        </is>
-      </c>
-      <c r="O207" t="inlineStr">
-        <is>
-          <t>Región de Coquimbo</t>
-        </is>
-      </c>
-      <c r="P207" t="n">
-        <v>800</v>
       </c>
       <c r="Q207" t="n">
         <v>15</v>
@@ -15324,29 +15324,29 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K208" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L208" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M208" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -15355,10 +15355,10 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>444</v>
+        <v>1100</v>
       </c>
       <c r="Q208" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15405,32 +15405,32 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="K209" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L209" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M209" t="n">
-        <v>7556</v>
+        <v>12000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>756</v>
+        <v>800</v>
       </c>
       <c r="Q209" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -15468,41 +15468,41 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K210" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L210" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M210" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="Q210" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15549,32 +15549,32 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K211" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L211" t="n">
         <v>8000</v>
       </c>
-      <c r="L211" t="n">
-        <v>9000</v>
-      </c>
       <c r="M211" t="n">
-        <v>8500</v>
+        <v>7556</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>567</v>
+        <v>756</v>
       </c>
       <c r="Q211" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44265</v>
+        <v>44161</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>27</v>
+        <v>300</v>
       </c>
       <c r="K212" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L212" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M212" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>733</v>
+        <v>433</v>
       </c>
       <c r="Q212" t="n">
         <v>15</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -15684,7 +15684,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -15693,32 +15693,32 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K213" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L213" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M213" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>700</v>
+        <v>567</v>
       </c>
       <c r="Q213" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>400</v>
+        <v>27</v>
       </c>
       <c r="K214" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L214" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M214" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>400</v>
+        <v>733</v>
       </c>
       <c r="Q214" t="n">
         <v>15</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="K215" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L215" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M215" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="Q215" t="n">
         <v>10</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K216" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L216" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M216" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q216" t="n">
         <v>15</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="K217" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L217" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M217" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="Q217" t="n">
         <v>10</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -16056,13 +16056,13 @@
         <v>150</v>
       </c>
       <c r="K218" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L218" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M218" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>567</v>
+        <v>800</v>
       </c>
       <c r="Q218" t="n">
         <v>15</v>
@@ -16116,41 +16116,41 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="K219" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L219" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M219" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>389</v>
+        <v>750</v>
       </c>
       <c r="Q219" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K220" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L220" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M220" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="Q220" t="n">
         <v>15</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44309</v>
+        <v>44201</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -16265,24 +16265,24 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K221" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L221" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M221" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -16291,10 +16291,10 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>633</v>
+        <v>389</v>
       </c>
       <c r="Q221" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44344</v>
+        <v>44277</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K222" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L222" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M222" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q222" t="n">
         <v>15</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -16404,41 +16404,41 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K223" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L223" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M223" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>444</v>
+        <v>633</v>
       </c>
       <c r="Q223" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -16476,41 +16476,41 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="K224" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L224" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M224" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>625</v>
+        <v>800</v>
       </c>
       <c r="Q224" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -16548,41 +16548,41 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K225" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L225" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M225" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q225" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -16629,7 +16629,7 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K226" t="n">
         <v>7500</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E227" t="n">
         <v>10</v>
@@ -16701,7 +16701,7 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K227" t="n">
         <v>10000</v>
@@ -16764,29 +16764,29 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K228" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L228" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M228" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -16795,10 +16795,10 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="Q228" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E229" t="n">
         <v>10</v>
@@ -16851,10 +16851,10 @@
         <v>10000</v>
       </c>
       <c r="L229" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M229" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="Q229" t="n">
         <v>15</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44281</v>
+        <v>44316</v>
       </c>
       <c r="E230" t="n">
         <v>10</v>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K230" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L230" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M230" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16935,11 +16935,11 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="Q230" t="n">
         <v>15</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44160</v>
+        <v>44253</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="K231" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L231" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M231" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q231" t="n">
         <v>15</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44186</v>
+        <v>44281</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K232" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L232" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M232" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17079,11 +17079,11 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>433</v>
+        <v>733</v>
       </c>
       <c r="Q232" t="n">
         <v>15</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K233" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L233" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M233" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="Q233" t="n">
         <v>15</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -17201,36 +17201,36 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K234" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L234" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M234" t="n">
         <v>6500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>361</v>
+        <v>433</v>
       </c>
       <c r="Q234" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -17268,7 +17268,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -17277,32 +17277,32 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K235" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L235" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M235" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1100</v>
+        <v>533</v>
       </c>
       <c r="Q235" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -17345,24 +17345,24 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K236" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L236" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M236" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>733</v>
+        <v>361</v>
       </c>
       <c r="Q236" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="K237" t="n">
         <v>11000</v>
@@ -17434,19 +17434,19 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q237" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K238" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L238" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M238" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q238" t="n">
         <v>15</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17565,7 +17565,7 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K239" t="n">
         <v>11000</v>
@@ -17578,19 +17578,19 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q239" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K240" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L240" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M240" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q240" t="n">
         <v>15</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -17709,7 +17709,7 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K241" t="n">
         <v>11000</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K242" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L242" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M242" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q242" t="n">
         <v>15</v>
@@ -17844,29 +17844,29 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K243" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L243" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M243" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,10 +17875,10 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>472</v>
+        <v>1100</v>
       </c>
       <c r="Q243" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K244" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L244" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M244" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q244" t="n">
         <v>15</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -17988,16 +17988,16 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="K245" t="n">
         <v>8500</v>
@@ -18010,19 +18010,19 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>567</v>
+        <v>472</v>
       </c>
       <c r="Q245" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E246" t="n">
         <v>10</v>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K246" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L246" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M246" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18087,11 +18087,11 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="Q246" t="n">
         <v>15</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44270</v>
+        <v>44232</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K247" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L247" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M247" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18159,11 +18159,11 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="Q247" t="n">
         <v>15</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -18213,7 +18213,7 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K248" t="n">
         <v>12000</v>
@@ -18231,7 +18231,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P248" t="n">
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -18276,41 +18276,41 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K249" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L249" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M249" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>444</v>
+        <v>733</v>
       </c>
       <c r="Q249" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E250" t="n">
         <v>10</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="K250" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L250" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M250" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18375,11 +18375,11 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q250" t="n">
         <v>15</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -18420,29 +18420,29 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K251" t="n">
         <v>8000</v>
       </c>
       <c r="L251" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M251" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -18451,10 +18451,10 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>850</v>
+        <v>444</v>
       </c>
       <c r="Q251" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K252" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L252" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M252" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="Q252" t="n">
         <v>15</v>
@@ -18564,41 +18564,41 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K253" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L253" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M253" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>389</v>
+        <v>850</v>
       </c>
       <c r="Q253" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K254" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L254" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M254" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="Q254" t="n">
         <v>15</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E255" t="n">
         <v>10</v>
@@ -18713,24 +18713,24 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K255" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L255" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M255" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>800</v>
+        <v>389</v>
       </c>
       <c r="Q255" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44223</v>
+        <v>44244</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -18785,24 +18785,24 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J256" t="n">
         <v>50</v>
       </c>
       <c r="K256" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L256" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M256" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q256" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E257" t="n">
         <v>10</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K257" t="n">
         <v>12000</v>
       </c>
       <c r="L257" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M257" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="Q257" t="n">
         <v>15</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E258" t="n">
         <v>10</v>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K258" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L258" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M258" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18951,11 +18951,11 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>472</v>
+        <v>389</v>
       </c>
       <c r="Q258" t="n">
         <v>18</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -19001,24 +19001,24 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K259" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L259" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M259" t="n">
-        <v>6750</v>
+        <v>12500</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>375</v>
+        <v>833</v>
       </c>
       <c r="Q259" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44179</v>
+        <v>44376</v>
       </c>
       <c r="E260" t="n">
         <v>10</v>
@@ -19068,41 +19068,41 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J260" t="n">
         <v>200</v>
       </c>
       <c r="K260" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L260" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M260" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="Q260" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44284</v>
+        <v>44208</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
@@ -19145,24 +19145,24 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K261" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L261" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M261" t="n">
-        <v>11000</v>
+        <v>6750</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>733</v>
+        <v>375</v>
       </c>
       <c r="Q261" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E262" t="n">
         <v>10</v>
@@ -19212,41 +19212,41 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K262" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L262" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M262" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>625</v>
+        <v>467</v>
       </c>
       <c r="Q262" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E263" t="n">
         <v>10</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K263" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L263" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M263" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q263" t="n">
         <v>15</v>
@@ -19356,7 +19356,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19365,32 +19365,32 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K264" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L264" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M264" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="Q264" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K265" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L265" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M265" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,11 +19455,11 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q265" t="n">
         <v>15</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E266" t="n">
         <v>10</v>
@@ -19500,41 +19500,41 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K266" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L266" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M266" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>700</v>
+        <v>556</v>
       </c>
       <c r="Q266" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E267" t="n">
         <v>10</v>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19584,13 +19584,13 @@
         <v>250</v>
       </c>
       <c r="K267" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L267" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M267" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19599,16 +19599,160 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="Q267" t="n">
         <v>15</v>
       </c>
       <c r="R267" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>4</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E268" t="n">
+        <v>10</v>
+      </c>
+      <c r="F268" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J268" t="n">
+        <v>70</v>
+      </c>
+      <c r="K268" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L268" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M268" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P268" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>10</v>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>4</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E269" t="n">
+        <v>10</v>
+      </c>
+      <c r="F269" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J269" t="n">
+        <v>250</v>
+      </c>
+      <c r="K269" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L269" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M269" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P269" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>15</v>
+      </c>
+      <c r="R269" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R294"/>
+  <dimension ref="A1:R296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E185" t="n">
         <v>10</v>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13677,32 +13677,32 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K185" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L185" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M185" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q185" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44327</v>
+        <v>44438</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13749,32 +13749,32 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="K186" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L186" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M186" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1100</v>
+        <v>967</v>
       </c>
       <c r="Q186" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R186" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E187" t="n">
         <v>10</v>
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K187" t="n">
         <v>12000</v>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13893,20 +13893,20 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K188" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L188" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M188" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -13915,10 +13915,10 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="Q188" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E189" t="n">
         <v>10</v>
@@ -13961,24 +13961,24 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K189" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L189" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M189" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -13987,10 +13987,10 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>361</v>
+        <v>800</v>
       </c>
       <c r="Q189" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -14037,20 +14037,20 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K190" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L190" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M190" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -14059,10 +14059,10 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q190" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -14105,24 +14105,24 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K191" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L191" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M191" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -14131,10 +14131,10 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>733</v>
+        <v>361</v>
       </c>
       <c r="Q191" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -14181,32 +14181,32 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K192" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L192" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M192" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>567</v>
+        <v>800</v>
       </c>
       <c r="Q192" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E193" t="n">
         <v>10</v>
@@ -14244,41 +14244,41 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K193" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L193" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M193" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>625</v>
+        <v>733</v>
       </c>
       <c r="Q193" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E194" t="n">
         <v>10</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K194" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="L194" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M194" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="Q194" t="n">
         <v>15</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -14393,24 +14393,24 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K195" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L195" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M195" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -14419,10 +14419,10 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="Q195" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -14472,13 +14472,13 @@
         <v>300</v>
       </c>
       <c r="K196" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L196" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M196" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q196" t="n">
         <v>15</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E197" t="n">
         <v>10</v>
@@ -14532,7 +14532,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14541,32 +14541,32 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K197" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L197" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M197" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q197" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44193</v>
+        <v>44330</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K198" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L198" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M198" t="n">
-        <v>6750</v>
+        <v>12000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="Q198" t="n">
         <v>15</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14685,32 +14685,32 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K199" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L199" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M199" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q199" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K200" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L200" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M200" t="n">
-        <v>13000</v>
+        <v>6750</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>867</v>
+        <v>450</v>
       </c>
       <c r="Q200" t="n">
         <v>15</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -14829,7 +14829,7 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K201" t="n">
         <v>10000</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K202" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L202" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M202" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="Q202" t="n">
         <v>15</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E203" t="n">
         <v>10</v>
@@ -14964,7 +14964,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14973,32 +14973,32 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="K203" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L203" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M203" t="n">
-        <v>8250</v>
+        <v>10000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q203" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K204" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L204" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M204" t="n">
-        <v>8750</v>
+        <v>12000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>583</v>
+        <v>800</v>
       </c>
       <c r="Q204" t="n">
         <v>15</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44278</v>
+        <v>44196</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -15117,32 +15117,32 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K205" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L205" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M205" t="n">
-        <v>11000</v>
+        <v>8250</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="Q205" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K206" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L206" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M206" t="n">
-        <v>11000</v>
+        <v>8750</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>733</v>
+        <v>583</v>
       </c>
       <c r="Q206" t="n">
         <v>15</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -15261,7 +15261,7 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K207" t="n">
         <v>11000</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -15336,13 +15336,13 @@
         <v>300</v>
       </c>
       <c r="K208" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L208" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M208" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q208" t="n">
         <v>15</v>
@@ -15396,29 +15396,29 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K209" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L209" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M209" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -15427,10 +15427,10 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>444</v>
+        <v>1100</v>
       </c>
       <c r="Q209" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15477,32 +15477,32 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="K210" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L210" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M210" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q210" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -15540,41 +15540,41 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J211" t="n">
         <v>150</v>
       </c>
       <c r="K211" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L211" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M211" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="Q211" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="K212" t="n">
         <v>11000</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -15693,7 +15693,7 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K213" t="n">
         <v>12000</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -15756,7 +15756,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -15765,32 +15765,32 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K214" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L214" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M214" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>667</v>
+        <v>1100</v>
       </c>
       <c r="Q214" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44250</v>
+        <v>44399</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K215" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L215" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M215" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q215" t="n">
         <v>15</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44292</v>
+        <v>44251</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K216" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="L216" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M216" t="n">
-        <v>10750</v>
+        <v>10000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>717</v>
+        <v>667</v>
       </c>
       <c r="Q216" t="n">
         <v>15</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44305</v>
+        <v>44250</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -15981,7 +15981,7 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K217" t="n">
         <v>10000</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -16053,32 +16053,32 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="K218" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="L218" t="n">
         <v>11000</v>
       </c>
       <c r="M218" t="n">
-        <v>11000</v>
+        <v>10750</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>1100</v>
+        <v>717</v>
       </c>
       <c r="Q218" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K219" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L219" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M219" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="Q219" t="n">
         <v>15</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -16197,7 +16197,7 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K220" t="n">
         <v>11000</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K221" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L221" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M221" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="Q221" t="n">
         <v>15</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -16332,7 +16332,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16341,32 +16341,32 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K222" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L222" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M222" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Q222" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44245</v>
+        <v>44417</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -16404,7 +16404,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16413,32 +16413,32 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="K223" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L223" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M223" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q223" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44245</v>
+        <v>44419</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K224" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L224" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M224" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q224" t="n">
         <v>15</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -16548,41 +16548,41 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="K225" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L225" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M225" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>389</v>
+        <v>800</v>
       </c>
       <c r="Q225" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44181</v>
+        <v>44245</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K226" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L226" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M226" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="Q226" t="n">
         <v>15</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44369</v>
+        <v>44202</v>
       </c>
       <c r="E227" t="n">
         <v>10</v>
@@ -16692,41 +16692,41 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K227" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L227" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M227" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1100</v>
+        <v>389</v>
       </c>
       <c r="Q227" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E228" t="n">
         <v>10</v>
@@ -16773,29 +16773,29 @@
         </is>
       </c>
       <c r="J228" t="n">
+        <v>60</v>
+      </c>
+      <c r="K228" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L228" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M228" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P228" t="n">
         <v>400</v>
-      </c>
-      <c r="K228" t="n">
-        <v>12000</v>
-      </c>
-      <c r="L228" t="n">
-        <v>12000</v>
-      </c>
-      <c r="M228" t="n">
-        <v>12000</v>
-      </c>
-      <c r="N228" t="inlineStr">
-        <is>
-          <t>$/caja 15 unidades</t>
-        </is>
-      </c>
-      <c r="O228" t="inlineStr">
-        <is>
-          <t>Región de Coquimbo</t>
-        </is>
-      </c>
-      <c r="P228" t="n">
-        <v>800</v>
       </c>
       <c r="Q228" t="n">
         <v>15</v>
@@ -16836,29 +16836,29 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K229" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L229" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M229" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>444</v>
+        <v>1100</v>
       </c>
       <c r="Q229" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E230" t="n">
         <v>10</v>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16917,32 +16917,32 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="K230" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L230" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M230" t="n">
-        <v>7556</v>
+        <v>12000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>756</v>
+        <v>800</v>
       </c>
       <c r="Q230" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -16980,41 +16980,41 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K231" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L231" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M231" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="Q231" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -17061,32 +17061,32 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K232" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L232" t="n">
         <v>8000</v>
       </c>
-      <c r="L232" t="n">
-        <v>9000</v>
-      </c>
       <c r="M232" t="n">
-        <v>8500</v>
+        <v>7556</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>567</v>
+        <v>756</v>
       </c>
       <c r="Q232" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44265</v>
+        <v>44161</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>27</v>
+        <v>300</v>
       </c>
       <c r="K233" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L233" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M233" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>733</v>
+        <v>433</v>
       </c>
       <c r="Q233" t="n">
         <v>15</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -17196,7 +17196,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -17205,32 +17205,32 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K234" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L234" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M234" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>700</v>
+        <v>567</v>
       </c>
       <c r="Q234" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>400</v>
+        <v>27</v>
       </c>
       <c r="K235" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L235" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M235" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>400</v>
+        <v>733</v>
       </c>
       <c r="Q235" t="n">
         <v>15</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="K236" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L236" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M236" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="Q236" t="n">
         <v>10</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K237" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L237" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M237" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q237" t="n">
         <v>15</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="K238" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L238" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M238" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="Q238" t="n">
         <v>10</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -17568,13 +17568,13 @@
         <v>150</v>
       </c>
       <c r="K239" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L239" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M239" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>567</v>
+        <v>800</v>
       </c>
       <c r="Q239" t="n">
         <v>15</v>
@@ -17628,41 +17628,41 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="K240" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L240" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M240" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>389</v>
+        <v>750</v>
       </c>
       <c r="Q240" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K241" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L241" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M241" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="Q241" t="n">
         <v>15</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44433</v>
+        <v>44201</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -17777,24 +17777,24 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K242" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L242" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M242" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -17803,10 +17803,10 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>1000</v>
+        <v>389</v>
       </c>
       <c r="Q242" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K243" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L243" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M243" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>633</v>
+        <v>733</v>
       </c>
       <c r="Q243" t="n">
         <v>15</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44344</v>
+        <v>44433</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K244" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L244" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M244" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q244" t="n">
         <v>15</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -17988,41 +17988,41 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K245" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L245" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M245" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>444</v>
+        <v>633</v>
       </c>
       <c r="Q245" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E246" t="n">
         <v>10</v>
@@ -18060,41 +18060,41 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="K246" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L246" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M246" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>625</v>
+        <v>800</v>
       </c>
       <c r="Q246" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -18132,41 +18132,41 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K247" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L247" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M247" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q247" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -18213,7 +18213,7 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K248" t="n">
         <v>7500</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -18285,7 +18285,7 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K249" t="n">
         <v>10000</v>
@@ -18348,29 +18348,29 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K250" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L250" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M250" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="Q250" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -18435,10 +18435,10 @@
         <v>10000</v>
       </c>
       <c r="L251" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M251" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="Q251" t="n">
         <v>15</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44281</v>
+        <v>44316</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K252" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L252" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M252" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18519,11 +18519,11 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="Q252" t="n">
         <v>15</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44160</v>
+        <v>44253</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="K253" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L253" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M253" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q253" t="n">
         <v>15</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44186</v>
+        <v>44281</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K254" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L254" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M254" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18663,11 +18663,11 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>433</v>
+        <v>733</v>
       </c>
       <c r="Q254" t="n">
         <v>15</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E255" t="n">
         <v>10</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K255" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L255" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M255" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="Q255" t="n">
         <v>15</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -18785,36 +18785,36 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K256" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L256" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M256" t="n">
         <v>6500</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>361</v>
+        <v>433</v>
       </c>
       <c r="Q256" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E257" t="n">
         <v>10</v>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18861,32 +18861,32 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K257" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L257" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M257" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>1100</v>
+        <v>533</v>
       </c>
       <c r="Q257" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E258" t="n">
         <v>10</v>
@@ -18929,24 +18929,24 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K258" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L258" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M258" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>733</v>
+        <v>361</v>
       </c>
       <c r="Q258" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -19005,7 +19005,7 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="K259" t="n">
         <v>11000</v>
@@ -19018,19 +19018,19 @@
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q259" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E260" t="n">
         <v>10</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K260" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L260" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M260" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q260" t="n">
         <v>15</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -19149,7 +19149,7 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K261" t="n">
         <v>11000</v>
@@ -19162,19 +19162,19 @@
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q261" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E262" t="n">
         <v>10</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K262" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L262" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M262" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q262" t="n">
         <v>15</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E263" t="n">
         <v>10</v>
@@ -19293,7 +19293,7 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K263" t="n">
         <v>11000</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K264" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L264" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M264" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q264" t="n">
         <v>15</v>
@@ -19428,29 +19428,29 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K265" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L265" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M265" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>472</v>
+        <v>1100</v>
       </c>
       <c r="Q265" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E266" t="n">
         <v>10</v>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K266" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L266" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M266" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q266" t="n">
         <v>15</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E267" t="n">
         <v>10</v>
@@ -19572,16 +19572,16 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="K267" t="n">
         <v>8500</v>
@@ -19594,19 +19594,19 @@
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>567</v>
+        <v>472</v>
       </c>
       <c r="Q267" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E268" t="n">
         <v>10</v>
@@ -19644,7 +19644,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K268" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L268" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M268" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="Q268" t="n">
         <v>15</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44270</v>
+        <v>44232</v>
       </c>
       <c r="E269" t="n">
         <v>10</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K269" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L269" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M269" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,11 +19743,11 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="Q269" t="n">
         <v>15</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E270" t="n">
         <v>10</v>
@@ -19797,7 +19797,7 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K270" t="n">
         <v>12000</v>
@@ -19815,7 +19815,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P270" t="n">
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E271" t="n">
         <v>10</v>
@@ -19860,41 +19860,41 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K271" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L271" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M271" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>444</v>
+        <v>733</v>
       </c>
       <c r="Q271" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E272" t="n">
         <v>10</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="K272" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L272" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M272" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q272" t="n">
         <v>15</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E273" t="n">
         <v>10</v>
@@ -20004,29 +20004,29 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K273" t="n">
         <v>8000</v>
       </c>
       <c r="L273" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M273" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>850</v>
+        <v>444</v>
       </c>
       <c r="Q273" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E274" t="n">
         <v>10</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K274" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L274" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M274" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="Q274" t="n">
         <v>15</v>
@@ -20148,41 +20148,41 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K275" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L275" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M275" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>389</v>
+        <v>850</v>
       </c>
       <c r="Q275" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E276" t="n">
         <v>10</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K276" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L276" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M276" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="Q276" t="n">
         <v>15</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E277" t="n">
         <v>10</v>
@@ -20297,24 +20297,24 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K277" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L277" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M277" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>800</v>
+        <v>389</v>
       </c>
       <c r="Q277" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44223</v>
+        <v>44244</v>
       </c>
       <c r="E278" t="n">
         <v>10</v>
@@ -20369,24 +20369,24 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J278" t="n">
         <v>50</v>
       </c>
       <c r="K278" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L278" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M278" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -20395,10 +20395,10 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q278" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E279" t="n">
         <v>10</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K279" t="n">
         <v>12000</v>
       </c>
       <c r="L279" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M279" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="Q279" t="n">
         <v>15</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E280" t="n">
         <v>10</v>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K280" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L280" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M280" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20535,11 +20535,11 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>472</v>
+        <v>389</v>
       </c>
       <c r="Q280" t="n">
         <v>18</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E281" t="n">
         <v>10</v>
@@ -20585,24 +20585,24 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K281" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L281" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M281" t="n">
-        <v>6750</v>
+        <v>12500</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>375</v>
+        <v>833</v>
       </c>
       <c r="Q281" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44179</v>
+        <v>44376</v>
       </c>
       <c r="E282" t="n">
         <v>10</v>
@@ -20652,41 +20652,41 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J282" t="n">
         <v>200</v>
       </c>
       <c r="K282" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L282" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M282" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="Q282" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44284</v>
+        <v>44208</v>
       </c>
       <c r="E283" t="n">
         <v>10</v>
@@ -20729,24 +20729,24 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K283" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L283" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M283" t="n">
-        <v>11000</v>
+        <v>6750</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -20755,10 +20755,10 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>733</v>
+        <v>375</v>
       </c>
       <c r="Q283" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E284" t="n">
         <v>10</v>
@@ -20796,41 +20796,41 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K284" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L284" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M284" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>625</v>
+        <v>467</v>
       </c>
       <c r="Q284" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E285" t="n">
         <v>10</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K285" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L285" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M285" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q285" t="n">
         <v>15</v>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20949,32 +20949,32 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K286" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L286" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M286" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="Q286" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K287" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L287" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M287" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21039,11 +21039,11 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q287" t="n">
         <v>15</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E288" t="n">
         <v>10</v>
@@ -21084,41 +21084,41 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K288" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L288" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M288" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>700</v>
+        <v>556</v>
       </c>
       <c r="Q288" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E289" t="n">
         <v>10</v>
@@ -21156,7 +21156,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -21168,13 +21168,13 @@
         <v>250</v>
       </c>
       <c r="K289" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L289" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M289" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21183,11 +21183,11 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="Q289" t="n">
         <v>15</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E290" t="n">
         <v>10</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K290" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L290" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M290" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>1050</v>
+        <v>700</v>
       </c>
       <c r="Q290" t="n">
         <v>10</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E291" t="n">
         <v>10</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K291" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="L291" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M291" t="n">
-        <v>14250</v>
+        <v>7000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21327,11 +21327,11 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>950</v>
+        <v>467</v>
       </c>
       <c r="Q291" t="n">
         <v>15</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E292" t="n">
         <v>10</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E293" t="n">
         <v>10</v>
@@ -21456,13 +21456,13 @@
         <v>400</v>
       </c>
       <c r="K293" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="L293" t="n">
         <v>15000</v>
       </c>
       <c r="M293" t="n">
-        <v>14750</v>
+        <v>14250</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21471,11 +21471,11 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>983</v>
+        <v>950</v>
       </c>
       <c r="Q293" t="n">
         <v>15</v>
@@ -21516,43 +21516,187 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J294" t="n">
+        <v>160</v>
+      </c>
+      <c r="K294" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L294" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M294" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P294" t="n">
+        <v>1050</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>10</v>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>4</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D295" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E295" t="n">
+        <v>10</v>
+      </c>
+      <c r="F295" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J295" t="n">
+        <v>400</v>
+      </c>
+      <c r="K295" t="n">
+        <v>14500</v>
+      </c>
+      <c r="L295" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M295" t="n">
+        <v>14750</v>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P295" t="n">
+        <v>983</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>15</v>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>4</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D296" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E296" t="n">
+        <v>10</v>
+      </c>
+      <c r="F296" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
           <t>Marina</t>
         </is>
       </c>
-      <c r="I294" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J294" t="n">
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J296" t="n">
         <v>250</v>
       </c>
-      <c r="K294" t="n">
-        <v>11000</v>
-      </c>
-      <c r="L294" t="n">
-        <v>11000</v>
-      </c>
-      <c r="M294" t="n">
-        <v>11000</v>
-      </c>
-      <c r="N294" t="inlineStr">
+      <c r="K296" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L296" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M296" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N296" t="inlineStr">
         <is>
           <t>$/caja 15 unidades</t>
         </is>
       </c>
-      <c r="O294" t="inlineStr">
+      <c r="O296" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P294" t="n">
+      <c r="P296" t="n">
         <v>733</v>
       </c>
-      <c r="Q294" t="n">
+      <c r="Q296" t="n">
         <v>15</v>
       </c>
-      <c r="R294" t="inlineStr">
+      <c r="R296" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R304"/>
+  <dimension ref="A1:R305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K164" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L164" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M164" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="Q164" t="n">
         <v>15</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E165" t="n">
         <v>10</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K165" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="L165" t="n">
         <v>11000</v>
       </c>
       <c r="M165" t="n">
-        <v>10750</v>
+        <v>11000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="Q165" t="n">
         <v>15</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44259</v>
+        <v>44292</v>
       </c>
       <c r="E166" t="n">
         <v>10</v>
@@ -12300,7 +12300,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -12309,32 +12309,32 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K166" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="L166" t="n">
         <v>11000</v>
       </c>
       <c r="M166" t="n">
-        <v>11000</v>
+        <v>10750</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>1100</v>
+        <v>717</v>
       </c>
       <c r="Q166" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -12381,7 +12381,7 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K167" t="n">
         <v>11000</v>
@@ -12394,19 +12394,19 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q167" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44277</v>
+        <v>44259</v>
       </c>
       <c r="E168" t="n">
         <v>10</v>
@@ -12453,7 +12453,7 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K168" t="n">
         <v>11000</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E169" t="n">
         <v>10</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K169" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L169" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M169" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q169" t="n">
         <v>15</v>
@@ -12588,41 +12588,41 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K170" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L170" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M170" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q170" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E171" t="n">
         <v>10</v>
@@ -12660,29 +12660,29 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="K171" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L171" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M171" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12691,10 +12691,10 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q171" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12732,41 +12732,41 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="K172" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L172" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M172" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>389</v>
+        <v>800</v>
       </c>
       <c r="Q172" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E173" t="n">
         <v>10</v>
@@ -12804,41 +12804,41 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K173" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L173" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M173" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>850</v>
+        <v>389</v>
       </c>
       <c r="Q173" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12885,32 +12885,32 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K174" t="n">
         <v>8000</v>
       </c>
       <c r="L174" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M174" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>533</v>
+        <v>850</v>
       </c>
       <c r="Q174" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12953,24 +12953,24 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K175" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L175" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M175" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12979,10 +12979,10 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>389</v>
+        <v>533</v>
       </c>
       <c r="Q175" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44295</v>
+        <v>44217</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -13020,41 +13020,41 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J176" t="n">
         <v>100</v>
       </c>
       <c r="K176" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L176" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M176" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>1100</v>
+        <v>389</v>
       </c>
       <c r="Q176" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -13101,7 +13101,7 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K177" t="n">
         <v>11000</v>
@@ -13114,19 +13114,19 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q177" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
@@ -13169,24 +13169,24 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K178" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L178" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="M178" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -13195,10 +13195,10 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>528</v>
+        <v>733</v>
       </c>
       <c r="Q178" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44179</v>
+        <v>44295</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -13241,36 +13241,36 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K179" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L179" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M179" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>467</v>
+        <v>528</v>
       </c>
       <c r="Q179" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E180" t="n">
         <v>10</v>
@@ -13308,7 +13308,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13317,32 +13317,32 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K180" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L180" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M180" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>1100</v>
+        <v>467</v>
       </c>
       <c r="Q180" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13389,32 +13389,32 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K181" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L181" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M181" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q181" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
@@ -13452,41 +13452,41 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="K182" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L182" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M182" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="Q182" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
@@ -13524,41 +13524,41 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K183" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L183" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M183" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q183" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K184" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L184" t="n">
         <v>10000</v>
       </c>
       <c r="M184" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>633</v>
+        <v>667</v>
       </c>
       <c r="Q184" t="n">
         <v>15</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E185" t="n">
         <v>10</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="K185" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L185" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M185" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>800</v>
+        <v>633</v>
       </c>
       <c r="Q185" t="n">
         <v>15</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13749,32 +13749,32 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K186" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L186" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M186" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q186" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R186" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K187" t="n">
         <v>7000</v>
@@ -13834,19 +13834,19 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q187" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13893,32 +13893,32 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K188" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L188" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M188" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>1000</v>
+        <v>467</v>
       </c>
       <c r="Q188" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13965,7 +13965,7 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K189" t="n">
         <v>10000</v>
@@ -13978,19 +13978,19 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q189" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="K190" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L190" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M190" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="Q190" t="n">
         <v>15</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="K191" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L191" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M191" t="n">
-        <v>8250</v>
+        <v>11000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>550</v>
+        <v>733</v>
       </c>
       <c r="Q191" t="n">
         <v>15</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E192" t="n">
         <v>10</v>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -14181,32 +14181,32 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K192" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L192" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M192" t="n">
-        <v>11000</v>
+        <v>8250</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="Q192" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14253,32 +14253,32 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K193" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L193" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M193" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q193" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14316,41 +14316,41 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K194" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L194" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M194" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>472</v>
+        <v>800</v>
       </c>
       <c r="Q194" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -14388,41 +14388,41 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K195" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="L195" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M195" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>600</v>
+        <v>472</v>
       </c>
       <c r="Q195" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14469,32 +14469,32 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K196" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L196" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M196" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="Q196" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14541,32 +14541,32 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K197" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L197" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M197" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q197" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14604,41 +14604,41 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K198" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L198" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M198" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="Q198" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -14676,16 +14676,16 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K199" t="n">
         <v>8000</v>
@@ -14698,19 +14698,19 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="Q199" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14753,24 +14753,24 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J200" t="n">
         <v>250</v>
       </c>
       <c r="K200" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L200" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M200" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -14779,10 +14779,10 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>361</v>
+        <v>533</v>
       </c>
       <c r="Q200" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -14825,24 +14825,24 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K201" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="L201" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M201" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -14851,10 +14851,10 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>1000</v>
+        <v>361</v>
       </c>
       <c r="Q201" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K202" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L202" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M202" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q202" t="n">
         <v>15</v>
@@ -14964,7 +14964,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K203" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L203" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M203" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14991,11 +14991,11 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q203" t="n">
         <v>15</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -15048,13 +15048,13 @@
         <v>250</v>
       </c>
       <c r="K204" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L204" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M204" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="Q204" t="n">
         <v>15</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K205" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L205" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M205" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="Q205" t="n">
         <v>15</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K206" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L206" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M206" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="Q206" t="n">
         <v>15</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K207" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L207" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M207" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q207" t="n">
         <v>15</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -15336,13 +15336,13 @@
         <v>100</v>
       </c>
       <c r="K208" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L208" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M208" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q208" t="n">
         <v>15</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15405,32 +15405,32 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K209" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L209" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M209" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q209" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15477,32 +15477,32 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K210" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L210" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M210" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="Q210" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15540,41 +15540,41 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K211" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L211" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M211" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>500</v>
+        <v>967</v>
       </c>
       <c r="Q211" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -15612,29 +15612,29 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K212" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L212" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M212" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -15643,10 +15643,10 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="Q212" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -15693,32 +15693,32 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K213" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L213" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M213" t="n">
-        <v>15600</v>
+        <v>11000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1040</v>
+        <v>1100</v>
       </c>
       <c r="Q213" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -15756,7 +15756,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -15765,32 +15765,32 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K214" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L214" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="M214" t="n">
-        <v>8250</v>
+        <v>15600</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>825</v>
+        <v>1040</v>
       </c>
       <c r="Q214" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15837,32 +15837,32 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K215" t="n">
         <v>8000</v>
       </c>
       <c r="L215" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M215" t="n">
-        <v>8000</v>
+        <v>8250</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>533</v>
+        <v>825</v>
       </c>
       <c r="Q215" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15905,24 +15905,24 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K216" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L216" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M216" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -15931,10 +15931,10 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>389</v>
+        <v>533</v>
       </c>
       <c r="Q216" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -15977,24 +15977,24 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K217" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L217" t="n">
         <v>7000</v>
       </c>
       <c r="M217" t="n">
-        <v>6750</v>
+        <v>7000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -16003,10 +16003,10 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>450</v>
+        <v>389</v>
       </c>
       <c r="Q217" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -16049,24 +16049,24 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K218" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L218" t="n">
         <v>7000</v>
       </c>
       <c r="M218" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -16075,10 +16075,10 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>389</v>
+        <v>450</v>
       </c>
       <c r="Q218" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -16121,24 +16121,24 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K219" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L219" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M219" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -16147,10 +16147,10 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>800</v>
+        <v>389</v>
       </c>
       <c r="Q219" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44264</v>
+        <v>44398</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K220" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L220" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M220" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q220" t="n">
         <v>15</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -16260,41 +16260,41 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K221" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L221" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M221" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>625</v>
+        <v>733</v>
       </c>
       <c r="Q221" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16332,41 +16332,41 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K222" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L222" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M222" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="Q222" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16404,41 +16404,41 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K223" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L223" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M223" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="Q223" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -16476,41 +16476,41 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K224" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L224" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M224" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="Q224" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -16548,41 +16548,41 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K225" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L225" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M225" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>625</v>
+        <v>800</v>
       </c>
       <c r="Q225" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16620,41 +16620,41 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K226" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L226" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M226" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="Q226" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K227" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L227" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M227" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16719,11 +16719,11 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>567</v>
+        <v>667</v>
       </c>
       <c r="Q227" t="n">
         <v>15</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E228" t="n">
         <v>10</v>
@@ -16764,7 +16764,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16773,20 +16773,20 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K228" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L228" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M228" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -16795,10 +16795,10 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>800</v>
+        <v>567</v>
       </c>
       <c r="Q228" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16845,32 +16845,32 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K229" t="n">
         <v>8000</v>
       </c>
       <c r="L229" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M229" t="n">
-        <v>8267</v>
+        <v>8000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>551</v>
+        <v>800</v>
       </c>
       <c r="Q229" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16913,24 +16913,24 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J230" t="n">
         <v>150</v>
       </c>
       <c r="K230" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L230" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M230" t="n">
-        <v>6733</v>
+        <v>8267</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>374</v>
+        <v>551</v>
       </c>
       <c r="Q230" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -16985,24 +16985,24 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K231" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L231" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M231" t="n">
-        <v>10500</v>
+        <v>6733</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -17011,10 +17011,10 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>700</v>
+        <v>374</v>
       </c>
       <c r="Q231" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -17061,7 +17061,7 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K232" t="n">
         <v>10000</v>
@@ -17074,19 +17074,19 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>1050</v>
+        <v>700</v>
       </c>
       <c r="Q232" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17133,32 +17133,32 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K233" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L233" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M233" t="n">
-        <v>14400</v>
+        <v>10500</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>960</v>
+        <v>1050</v>
       </c>
       <c r="Q233" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -17196,41 +17196,41 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="K234" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L234" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M234" t="n">
-        <v>7500</v>
+        <v>14400</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>625</v>
+        <v>960</v>
       </c>
       <c r="Q234" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17268,41 +17268,41 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="K235" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L235" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M235" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="Q235" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17340,41 +17340,41 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K236" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L236" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M236" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>472</v>
+        <v>800</v>
       </c>
       <c r="Q236" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -17412,29 +17412,29 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K237" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L237" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M237" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -17443,10 +17443,10 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>1100</v>
+        <v>472</v>
       </c>
       <c r="Q237" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17493,32 +17493,32 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K238" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L238" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M238" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="Q238" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17565,32 +17565,32 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K239" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L239" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M239" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>1100</v>
+        <v>967</v>
       </c>
       <c r="Q239" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17637,7 +17637,7 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K240" t="n">
         <v>11000</v>
@@ -17650,19 +17650,19 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q240" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K241" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L241" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M241" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="Q241" t="n">
         <v>15</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17781,32 +17781,32 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K242" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L242" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M242" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="Q242" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17853,7 +17853,7 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K243" t="n">
         <v>6500</v>
@@ -17866,19 +17866,19 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>433</v>
+        <v>650</v>
       </c>
       <c r="Q243" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K244" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L244" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M244" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="Q244" t="n">
         <v>15</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -17997,32 +17997,32 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K245" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L245" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M245" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>1100</v>
+        <v>467</v>
       </c>
       <c r="Q245" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18069,32 +18069,32 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K246" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L246" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M246" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Q246" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44432</v>
+        <v>44417</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18141,32 +18141,32 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K247" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L247" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M247" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="Q247" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18213,32 +18213,32 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K248" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="L248" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M248" t="n">
-        <v>14750</v>
+        <v>10500</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>983</v>
+        <v>1050</v>
       </c>
       <c r="Q248" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K249" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="L249" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M249" t="n">
-        <v>11000</v>
+        <v>14750</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18303,11 +18303,11 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>733</v>
+        <v>983</v>
       </c>
       <c r="Q249" t="n">
         <v>15</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E250" t="n">
         <v>10</v>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18357,20 +18357,20 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="K250" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L250" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M250" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="Q250" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18429,32 +18429,32 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="K251" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L251" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M251" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="Q251" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18501,32 +18501,32 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K252" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L252" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M252" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>1100</v>
+        <v>867</v>
       </c>
       <c r="Q252" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18573,32 +18573,32 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K253" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L253" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M253" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q253" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18636,41 +18636,41 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K254" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L254" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M254" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="Q254" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E255" t="n">
         <v>10</v>
@@ -18708,41 +18708,41 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K255" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L255" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M255" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>733</v>
+        <v>444</v>
       </c>
       <c r="Q255" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18789,7 +18789,7 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K256" t="n">
         <v>11000</v>
@@ -18802,19 +18802,19 @@
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q256" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18861,7 +18861,7 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K257" t="n">
         <v>11000</v>
@@ -18874,19 +18874,19 @@
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q257" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E258" t="n">
         <v>10</v>
@@ -18936,13 +18936,13 @@
         <v>100</v>
       </c>
       <c r="K258" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L258" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M258" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q258" t="n">
         <v>15</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -19005,32 +19005,32 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K259" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L259" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M259" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q259" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K260" t="n">
         <v>11000</v>
@@ -19090,19 +19090,19 @@
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q260" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -19149,7 +19149,7 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="K261" t="n">
         <v>11000</v>
@@ -19162,19 +19162,19 @@
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q261" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -19221,32 +19221,32 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="K262" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L262" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M262" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q262" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19284,41 +19284,41 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K263" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L263" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M263" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>472</v>
+        <v>800</v>
       </c>
       <c r="Q263" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
@@ -19356,41 +19356,41 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K264" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L264" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M264" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>667</v>
+        <v>472</v>
       </c>
       <c r="Q264" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E265" t="n">
         <v>10</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K265" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L265" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M265" t="n">
-        <v>8750</v>
+        <v>10000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>583</v>
+        <v>667</v>
       </c>
       <c r="Q265" t="n">
         <v>15</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E266" t="n">
         <v>10</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K266" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L266" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M266" t="n">
-        <v>12000</v>
+        <v>8750</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>800</v>
+        <v>583</v>
       </c>
       <c r="Q266" t="n">
         <v>15</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E267" t="n">
         <v>10</v>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19584,29 +19584,29 @@
         <v>100</v>
       </c>
       <c r="K267" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L267" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M267" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q267" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19649,24 +19649,24 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K268" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L268" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M268" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -19675,10 +19675,10 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="Q268" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19716,41 +19716,41 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K269" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L269" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M269" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>933</v>
+        <v>750</v>
       </c>
       <c r="Q269" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19800,17 +19800,17 @@
         <v>200</v>
       </c>
       <c r="K270" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L270" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M270" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -19819,10 +19819,10 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="Q270" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19869,32 +19869,32 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K271" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L271" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M271" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="Q271" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E272" t="n">
         <v>10</v>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K272" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L272" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M272" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="Q272" t="n">
         <v>15</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E273" t="n">
         <v>10</v>
@@ -20004,41 +20004,41 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K273" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L273" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="M273" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>625</v>
+        <v>933</v>
       </c>
       <c r="Q273" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20076,41 +20076,41 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K274" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L274" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M274" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="Q274" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E275" t="n">
         <v>10</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K275" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L275" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M275" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q275" t="n">
         <v>15</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E276" t="n">
         <v>10</v>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20229,32 +20229,32 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K276" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L276" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M276" t="n">
-        <v>7556</v>
+        <v>12000</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>756</v>
+        <v>800</v>
       </c>
       <c r="Q276" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -20301,32 +20301,32 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K277" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L277" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M277" t="n">
-        <v>6500</v>
+        <v>7556</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>433</v>
+        <v>756</v>
       </c>
       <c r="Q277" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E278" t="n">
         <v>10</v>
@@ -20364,7 +20364,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20373,32 +20373,32 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="K278" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L278" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M278" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>1100</v>
+        <v>433</v>
       </c>
       <c r="Q278" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20445,32 +20445,32 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="K279" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L279" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M279" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="Q279" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E280" t="n">
         <v>10</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K280" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L280" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M280" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="Q280" t="n">
         <v>15</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E281" t="n">
         <v>10</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="K281" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L281" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M281" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="Q281" t="n">
         <v>15</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E282" t="n">
         <v>10</v>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20661,32 +20661,32 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K282" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L282" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M282" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="Q282" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20733,32 +20733,32 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K283" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="L283" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M283" t="n">
-        <v>13250</v>
+        <v>10000</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>883</v>
+        <v>1000</v>
       </c>
       <c r="Q283" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K284" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="L284" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M284" t="n">
-        <v>10000</v>
+        <v>13250</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20823,11 +20823,11 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>667</v>
+        <v>883</v>
       </c>
       <c r="Q284" t="n">
         <v>15</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E285" t="n">
         <v>10</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20877,20 +20877,20 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="K285" t="n">
         <v>10000</v>
       </c>
       <c r="L285" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M285" t="n">
-        <v>10810</v>
+        <v>10000</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -20899,10 +20899,10 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>1081</v>
+        <v>667</v>
       </c>
       <c r="Q285" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20949,32 +20949,32 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>1150</v>
+        <v>420</v>
       </c>
       <c r="K286" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="L286" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M286" t="n">
-        <v>15043</v>
+        <v>10810</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>1003</v>
+        <v>1081</v>
       </c>
       <c r="Q286" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>500</v>
+        <v>1150</v>
       </c>
       <c r="K287" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="L287" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M287" t="n">
-        <v>10500</v>
+        <v>15043</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21039,11 +21039,11 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>700</v>
+        <v>1003</v>
       </c>
       <c r="Q287" t="n">
         <v>15</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E288" t="n">
         <v>10</v>
@@ -21084,29 +21084,29 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="K288" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L288" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M288" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="Q288" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21156,41 +21156,41 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="K289" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L289" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M289" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="Q289" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E290" t="n">
         <v>10</v>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21237,32 +21237,32 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K290" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L290" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M290" t="n">
-        <v>6750</v>
+        <v>10000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P290" t="n">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="Q290" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21309,32 +21309,32 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K291" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L291" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M291" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="Q291" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K292" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L292" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M292" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21399,11 +21399,11 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="Q292" t="n">
         <v>15</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E293" t="n">
         <v>10</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K293" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L293" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M293" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21471,11 +21471,11 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>833</v>
+        <v>467</v>
       </c>
       <c r="Q293" t="n">
         <v>15</v>
@@ -21516,41 +21516,41 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K294" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L294" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="M294" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>472</v>
+        <v>833</v>
       </c>
       <c r="Q294" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44223</v>
+        <v>44376</v>
       </c>
       <c r="E295" t="n">
         <v>10</v>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K295" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L295" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M295" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21615,11 +21615,11 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>389</v>
+        <v>472</v>
       </c>
       <c r="Q295" t="n">
         <v>18</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E296" t="n">
         <v>10</v>
@@ -21665,24 +21665,24 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J296" t="n">
         <v>50</v>
       </c>
       <c r="K296" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L296" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M296" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>600</v>
+        <v>389</v>
       </c>
       <c r="Q296" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E297" t="n">
         <v>10</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K297" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L297" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M297" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21759,11 +21759,11 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="Q297" t="n">
         <v>15</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E298" t="n">
         <v>10</v>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21813,32 +21813,32 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="K298" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L298" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M298" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>850</v>
+        <v>467</v>
       </c>
       <c r="Q298" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21885,7 +21885,7 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K299" t="n">
         <v>8000</v>
@@ -21898,19 +21898,19 @@
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>567</v>
+        <v>850</v>
       </c>
       <c r="Q299" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E300" t="n">
         <v>10</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21957,32 +21957,32 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K300" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L300" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M300" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>1100</v>
+        <v>567</v>
       </c>
       <c r="Q300" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -22029,32 +22029,32 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K301" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L301" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M301" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q301" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E302" t="n">
         <v>10</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22101,32 +22101,32 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K302" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L302" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M302" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q302" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22173,32 +22173,32 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K303" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L303" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M303" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P303" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q303" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="K304" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L304" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M304" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22263,16 +22263,88 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P304" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q304" t="n">
         <v>15</v>
       </c>
       <c r="R304" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>4</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D305" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E305" t="n">
+        <v>10</v>
+      </c>
+      <c r="F305" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J305" t="n">
+        <v>220</v>
+      </c>
+      <c r="K305" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L305" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M305" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P305" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>15</v>
+      </c>
+      <c r="R305" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R305"/>
+  <dimension ref="A1:R307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E298" t="n">
         <v>10</v>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21813,32 +21813,32 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="K298" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L298" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M298" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>467</v>
+        <v>1100</v>
       </c>
       <c r="Q298" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E299" t="n">
         <v>10</v>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21885,32 +21885,32 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K299" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L299" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="M299" t="n">
-        <v>8500</v>
+        <v>13300</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>850</v>
+        <v>887</v>
       </c>
       <c r="Q299" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E300" t="n">
         <v>10</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="K300" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L300" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M300" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21975,11 +21975,11 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>567</v>
+        <v>467</v>
       </c>
       <c r="Q300" t="n">
         <v>15</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E301" t="n">
         <v>10</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K301" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L301" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M301" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>1100</v>
+        <v>850</v>
       </c>
       <c r="Q301" t="n">
         <v>10</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E302" t="n">
         <v>10</v>
@@ -22104,13 +22104,13 @@
         <v>200</v>
       </c>
       <c r="K302" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L302" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M302" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>800</v>
+        <v>567</v>
       </c>
       <c r="Q302" t="n">
         <v>15</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E303" t="n">
         <v>10</v>
@@ -22173,7 +22173,7 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K303" t="n">
         <v>11000</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E304" t="n">
         <v>10</v>
@@ -22245,7 +22245,7 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K304" t="n">
         <v>12000</v>
@@ -22308,43 +22308,187 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J305" t="n">
+        <v>90</v>
+      </c>
+      <c r="K305" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L305" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M305" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P305" t="n">
+        <v>1100</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>10</v>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>4</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D306" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E306" t="n">
+        <v>10</v>
+      </c>
+      <c r="F306" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J306" t="n">
+        <v>300</v>
+      </c>
+      <c r="K306" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L306" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M306" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P306" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>15</v>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>4</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D307" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E307" t="n">
+        <v>10</v>
+      </c>
+      <c r="F307" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
           <t>Marina</t>
         </is>
       </c>
-      <c r="I305" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J305" t="n">
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J307" t="n">
         <v>220</v>
       </c>
-      <c r="K305" t="n">
+      <c r="K307" t="n">
         <v>9000</v>
       </c>
-      <c r="L305" t="n">
+      <c r="L307" t="n">
         <v>9000</v>
       </c>
-      <c r="M305" t="n">
+      <c r="M307" t="n">
         <v>9000</v>
       </c>
-      <c r="N305" t="inlineStr">
+      <c r="N307" t="inlineStr">
         <is>
           <t>$/caja 15 unidades</t>
         </is>
       </c>
-      <c r="O305" t="inlineStr">
+      <c r="O307" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P305" t="n">
+      <c r="P307" t="n">
         <v>600</v>
       </c>
-      <c r="Q305" t="n">
+      <c r="Q307" t="n">
         <v>15</v>
       </c>
-      <c r="R305" t="inlineStr">
+      <c r="R307" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R307"/>
+  <dimension ref="A1:R309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E277" t="n">
         <v>10</v>
@@ -20292,7 +20292,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -20301,20 +20301,20 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K277" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L277" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M277" t="n">
-        <v>7556</v>
+        <v>14000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>756</v>
+        <v>933</v>
       </c>
       <c r="Q277" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E278" t="n">
         <v>10</v>
@@ -20369,24 +20369,24 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K278" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L278" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M278" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -20395,10 +20395,10 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>433</v>
+        <v>667</v>
       </c>
       <c r="Q278" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E279" t="n">
         <v>10</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K279" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L279" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M279" t="n">
-        <v>11000</v>
+        <v>7556</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>1100</v>
+        <v>756</v>
       </c>
       <c r="Q279" t="n">
         <v>10</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E280" t="n">
         <v>10</v>
@@ -20520,13 +20520,13 @@
         <v>300</v>
       </c>
       <c r="K280" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L280" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M280" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>967</v>
+        <v>433</v>
       </c>
       <c r="Q280" t="n">
         <v>15</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E281" t="n">
         <v>10</v>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20589,32 +20589,32 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K281" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L281" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M281" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>667</v>
+        <v>1100</v>
       </c>
       <c r="Q281" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E282" t="n">
         <v>10</v>
@@ -20661,7 +20661,7 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K282" t="n">
         <v>14000</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E283" t="n">
         <v>10</v>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20733,7 +20733,7 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K283" t="n">
         <v>10000</v>
@@ -20746,19 +20746,19 @@
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="Q283" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E284" t="n">
         <v>10</v>
@@ -20808,13 +20808,13 @@
         <v>400</v>
       </c>
       <c r="K284" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L284" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M284" t="n">
-        <v>13250</v>
+        <v>14500</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>883</v>
+        <v>967</v>
       </c>
       <c r="Q284" t="n">
         <v>15</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K285" t="n">
         <v>10000</v>
@@ -20890,7 +20890,7 @@
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -20899,10 +20899,10 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q285" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E286" t="n">
         <v>10</v>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20949,32 +20949,32 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="K286" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="L286" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M286" t="n">
-        <v>10810</v>
+        <v>13250</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>1081</v>
+        <v>883</v>
       </c>
       <c r="Q286" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E287" t="n">
         <v>10</v>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>1150</v>
+        <v>300</v>
       </c>
       <c r="K287" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="L287" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M287" t="n">
-        <v>15043</v>
+        <v>10000</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21039,11 +21039,11 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>1003</v>
+        <v>667</v>
       </c>
       <c r="Q287" t="n">
         <v>15</v>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -21093,7 +21093,7 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="K288" t="n">
         <v>10000</v>
@@ -21102,11 +21102,11 @@
         <v>11000</v>
       </c>
       <c r="M288" t="n">
-        <v>10500</v>
+        <v>10810</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>700</v>
+        <v>1081</v>
       </c>
       <c r="Q288" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E289" t="n">
         <v>10</v>
@@ -21156,41 +21156,41 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>70</v>
+        <v>1150</v>
       </c>
       <c r="K289" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="L289" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="M289" t="n">
-        <v>7500</v>
+        <v>15043</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>625</v>
+        <v>1003</v>
       </c>
       <c r="Q289" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E290" t="n">
         <v>10</v>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="K290" t="n">
         <v>10000</v>
       </c>
       <c r="L290" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M290" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21255,11 +21255,11 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P290" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="Q290" t="n">
         <v>15</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E291" t="n">
         <v>10</v>
@@ -21305,24 +21305,24 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K291" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L291" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M291" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q291" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E292" t="n">
         <v>10</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K292" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L292" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M292" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="Q292" t="n">
         <v>15</v>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21453,32 +21453,32 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K293" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L293" t="n">
         <v>7000</v>
       </c>
       <c r="M293" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>467</v>
+        <v>675</v>
       </c>
       <c r="Q293" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E294" t="n">
         <v>10</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K294" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L294" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M294" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>833</v>
+        <v>400</v>
       </c>
       <c r="Q294" t="n">
         <v>15</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E295" t="n">
         <v>10</v>
@@ -21588,41 +21588,41 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K295" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L295" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M295" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="Q295" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44223</v>
+        <v>44376</v>
       </c>
       <c r="E296" t="n">
         <v>10</v>
@@ -21665,24 +21665,24 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K296" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L296" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M296" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>389</v>
+        <v>833</v>
       </c>
       <c r="Q296" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44314</v>
+        <v>44376</v>
       </c>
       <c r="E297" t="n">
         <v>10</v>
@@ -21732,41 +21732,41 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K297" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="L297" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M297" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>600</v>
+        <v>472</v>
       </c>
       <c r="Q297" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E298" t="n">
         <v>10</v>
@@ -21804,41 +21804,41 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K298" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L298" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M298" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>1100</v>
+        <v>389</v>
       </c>
       <c r="Q298" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E299" t="n">
         <v>10</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K299" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L299" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="M299" t="n">
-        <v>13300</v>
+        <v>9000</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>887</v>
+        <v>600</v>
       </c>
       <c r="Q299" t="n">
         <v>15</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E300" t="n">
         <v>10</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21957,32 +21957,32 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="K300" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L300" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M300" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>467</v>
+        <v>1100</v>
       </c>
       <c r="Q300" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E301" t="n">
         <v>10</v>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -22029,32 +22029,32 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K301" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L301" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="M301" t="n">
-        <v>8500</v>
+        <v>13300</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>850</v>
+        <v>887</v>
       </c>
       <c r="Q301" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E302" t="n">
         <v>10</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="K302" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L302" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M302" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22119,11 +22119,11 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>567</v>
+        <v>467</v>
       </c>
       <c r="Q302" t="n">
         <v>15</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E303" t="n">
         <v>10</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K303" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L303" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M303" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>1100</v>
+        <v>850</v>
       </c>
       <c r="Q303" t="n">
         <v>10</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E304" t="n">
         <v>10</v>
@@ -22248,13 +22248,13 @@
         <v>200</v>
       </c>
       <c r="K304" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L304" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M304" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>800</v>
+        <v>567</v>
       </c>
       <c r="Q304" t="n">
         <v>15</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E305" t="n">
         <v>10</v>
@@ -22317,7 +22317,7 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K305" t="n">
         <v>11000</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E306" t="n">
         <v>10</v>
@@ -22389,7 +22389,7 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K306" t="n">
         <v>12000</v>
@@ -22452,43 +22452,187 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J307" t="n">
+        <v>90</v>
+      </c>
+      <c r="K307" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L307" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M307" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P307" t="n">
+        <v>1100</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>10</v>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>4</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D308" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E308" t="n">
+        <v>10</v>
+      </c>
+      <c r="F308" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J308" t="n">
+        <v>300</v>
+      </c>
+      <c r="K308" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L308" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M308" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P308" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>15</v>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>4</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D309" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E309" t="n">
+        <v>10</v>
+      </c>
+      <c r="F309" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
           <t>Marina</t>
         </is>
       </c>
-      <c r="I307" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J307" t="n">
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J309" t="n">
         <v>220</v>
       </c>
-      <c r="K307" t="n">
+      <c r="K309" t="n">
         <v>9000</v>
       </c>
-      <c r="L307" t="n">
+      <c r="L309" t="n">
         <v>9000</v>
       </c>
-      <c r="M307" t="n">
+      <c r="M309" t="n">
         <v>9000</v>
       </c>
-      <c r="N307" t="inlineStr">
+      <c r="N309" t="inlineStr">
         <is>
           <t>$/caja 15 unidades</t>
         </is>
       </c>
-      <c r="O307" t="inlineStr">
+      <c r="O309" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P307" t="n">
+      <c r="P309" t="n">
         <v>600</v>
       </c>
-      <c r="Q307" t="n">
+      <c r="Q309" t="n">
         <v>15</v>
       </c>
-      <c r="R307" t="inlineStr">
+      <c r="R309" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R309"/>
+  <dimension ref="A1:R310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E197" t="n">
         <v>10</v>
@@ -14532,7 +14532,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14541,32 +14541,32 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K197" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L197" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M197" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>1100</v>
+        <v>933</v>
       </c>
       <c r="Q197" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14613,32 +14613,32 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K198" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L198" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M198" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q198" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14676,41 +14676,41 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K199" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L199" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M199" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="Q199" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -14748,16 +14748,16 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K200" t="n">
         <v>8000</v>
@@ -14770,19 +14770,19 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="Q200" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14825,24 +14825,24 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J201" t="n">
         <v>250</v>
       </c>
       <c r="K201" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L201" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M201" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -14851,10 +14851,10 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>361</v>
+        <v>533</v>
       </c>
       <c r="Q201" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -14897,24 +14897,24 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K202" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="L202" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M202" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -14923,10 +14923,10 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>1000</v>
+        <v>361</v>
       </c>
       <c r="Q202" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E203" t="n">
         <v>10</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K203" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L203" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M203" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q203" t="n">
         <v>15</v>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K204" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L204" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M204" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q204" t="n">
         <v>15</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -15120,13 +15120,13 @@
         <v>250</v>
       </c>
       <c r="K205" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L205" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M205" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15135,11 +15135,11 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="Q205" t="n">
         <v>15</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K206" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L206" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M206" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="Q206" t="n">
         <v>15</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K207" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L207" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M207" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="Q207" t="n">
         <v>15</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K208" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L208" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M208" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q208" t="n">
         <v>15</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -15408,13 +15408,13 @@
         <v>100</v>
       </c>
       <c r="K209" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L209" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M209" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q209" t="n">
         <v>15</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15477,32 +15477,32 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K210" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L210" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M210" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q210" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15549,32 +15549,32 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K211" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L211" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M211" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="Q211" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15612,41 +15612,41 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K212" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L212" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M212" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>500</v>
+        <v>967</v>
       </c>
       <c r="Q212" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -15684,29 +15684,29 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K213" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L213" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M213" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -15715,10 +15715,10 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="Q213" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -15765,32 +15765,32 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K214" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L214" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M214" t="n">
-        <v>15600</v>
+        <v>11000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>1040</v>
+        <v>1100</v>
       </c>
       <c r="Q214" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15837,32 +15837,32 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K215" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L215" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="M215" t="n">
-        <v>8250</v>
+        <v>15600</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>825</v>
+        <v>1040</v>
       </c>
       <c r="Q215" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15909,32 +15909,32 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K216" t="n">
         <v>8000</v>
       </c>
       <c r="L216" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M216" t="n">
-        <v>8000</v>
+        <v>8250</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>533</v>
+        <v>825</v>
       </c>
       <c r="Q216" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15977,24 +15977,24 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K217" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L217" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M217" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -16003,10 +16003,10 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>389</v>
+        <v>533</v>
       </c>
       <c r="Q217" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -16049,24 +16049,24 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K218" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L218" t="n">
         <v>7000</v>
       </c>
       <c r="M218" t="n">
-        <v>6750</v>
+        <v>7000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -16075,10 +16075,10 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>450</v>
+        <v>389</v>
       </c>
       <c r="Q218" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -16121,24 +16121,24 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K219" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L219" t="n">
         <v>7000</v>
       </c>
       <c r="M219" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -16147,10 +16147,10 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>389</v>
+        <v>450</v>
       </c>
       <c r="Q219" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -16193,24 +16193,24 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K220" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L220" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M220" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -16219,10 +16219,10 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>800</v>
+        <v>389</v>
       </c>
       <c r="Q220" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44264</v>
+        <v>44398</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K221" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L221" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M221" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q221" t="n">
         <v>15</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -16332,41 +16332,41 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K222" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L222" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M222" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>625</v>
+        <v>733</v>
       </c>
       <c r="Q222" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16404,41 +16404,41 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K223" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L223" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M223" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="Q223" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16476,41 +16476,41 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K224" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L224" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M224" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="Q224" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -16548,41 +16548,41 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K225" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L225" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M225" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="Q225" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -16620,41 +16620,41 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K226" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L226" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M226" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>625</v>
+        <v>800</v>
       </c>
       <c r="Q226" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16692,41 +16692,41 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K227" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L227" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M227" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="Q227" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K228" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L228" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M228" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16791,11 +16791,11 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>567</v>
+        <v>667</v>
       </c>
       <c r="Q228" t="n">
         <v>15</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E229" t="n">
         <v>10</v>
@@ -16836,7 +16836,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16845,20 +16845,20 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K229" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L229" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M229" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>800</v>
+        <v>567</v>
       </c>
       <c r="Q229" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16917,32 +16917,32 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K230" t="n">
         <v>8000</v>
       </c>
       <c r="L230" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M230" t="n">
-        <v>8267</v>
+        <v>8000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>551</v>
+        <v>800</v>
       </c>
       <c r="Q230" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16985,24 +16985,24 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J231" t="n">
         <v>150</v>
       </c>
       <c r="K231" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L231" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M231" t="n">
-        <v>6733</v>
+        <v>8267</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -17011,10 +17011,10 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>374</v>
+        <v>551</v>
       </c>
       <c r="Q231" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -17057,24 +17057,24 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K232" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L232" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M232" t="n">
-        <v>10500</v>
+        <v>6733</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>700</v>
+        <v>374</v>
       </c>
       <c r="Q232" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17133,7 +17133,7 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K233" t="n">
         <v>10000</v>
@@ -17146,19 +17146,19 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1050</v>
+        <v>700</v>
       </c>
       <c r="Q233" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -17205,32 +17205,32 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K234" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L234" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M234" t="n">
-        <v>14400</v>
+        <v>10500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>960</v>
+        <v>1050</v>
       </c>
       <c r="Q234" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -17268,41 +17268,41 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="K235" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L235" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M235" t="n">
-        <v>7500</v>
+        <v>14400</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>625</v>
+        <v>960</v>
       </c>
       <c r="Q235" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17340,41 +17340,41 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="K236" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L236" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M236" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="Q236" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17412,41 +17412,41 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K237" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L237" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M237" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>472</v>
+        <v>800</v>
       </c>
       <c r="Q237" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -17484,29 +17484,29 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K238" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L238" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M238" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -17515,10 +17515,10 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>1100</v>
+        <v>472</v>
       </c>
       <c r="Q238" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17565,32 +17565,32 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K239" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L239" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M239" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="Q239" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17637,32 +17637,32 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K240" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L240" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M240" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>1100</v>
+        <v>967</v>
       </c>
       <c r="Q240" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17709,7 +17709,7 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K241" t="n">
         <v>11000</v>
@@ -17722,19 +17722,19 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q241" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K242" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L242" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M242" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="Q242" t="n">
         <v>15</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17853,32 +17853,32 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K243" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L243" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M243" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="Q243" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17925,7 +17925,7 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K244" t="n">
         <v>6500</v>
@@ -17938,19 +17938,19 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>433</v>
+        <v>650</v>
       </c>
       <c r="Q244" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K245" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L245" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M245" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18015,11 +18015,11 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="Q245" t="n">
         <v>15</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E246" t="n">
         <v>10</v>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18069,32 +18069,32 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K246" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L246" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M246" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1100</v>
+        <v>467</v>
       </c>
       <c r="Q246" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18141,32 +18141,32 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K247" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L247" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M247" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Q247" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44432</v>
+        <v>44417</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18213,32 +18213,32 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K248" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L248" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M248" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="Q248" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18285,32 +18285,32 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K249" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="L249" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M249" t="n">
-        <v>14750</v>
+        <v>10500</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>983</v>
+        <v>1050</v>
       </c>
       <c r="Q249" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K250" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="L250" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M250" t="n">
-        <v>11000</v>
+        <v>14750</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18375,11 +18375,11 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>733</v>
+        <v>983</v>
       </c>
       <c r="Q250" t="n">
         <v>15</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18429,20 +18429,20 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="K251" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L251" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M251" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -18451,10 +18451,10 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="Q251" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18501,32 +18501,32 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="K252" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L252" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M252" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="Q252" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -18564,7 +18564,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18573,32 +18573,32 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K253" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L253" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M253" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>1100</v>
+        <v>867</v>
       </c>
       <c r="Q253" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18645,32 +18645,32 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K254" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L254" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M254" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q254" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18708,41 +18708,41 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K255" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L255" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M255" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="Q255" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -18780,41 +18780,41 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K256" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L256" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M256" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>733</v>
+        <v>444</v>
       </c>
       <c r="Q256" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E257" t="n">
         <v>10</v>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18861,7 +18861,7 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K257" t="n">
         <v>11000</v>
@@ -18874,19 +18874,19 @@
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q257" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18933,7 +18933,7 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K258" t="n">
         <v>11000</v>
@@ -18946,19 +18946,19 @@
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q258" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -19008,13 +19008,13 @@
         <v>100</v>
       </c>
       <c r="K259" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L259" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M259" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q259" t="n">
         <v>15</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E260" t="n">
         <v>10</v>
@@ -19068,7 +19068,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -19077,32 +19077,32 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K260" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L260" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M260" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q260" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -19149,7 +19149,7 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K261" t="n">
         <v>11000</v>
@@ -19162,19 +19162,19 @@
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q261" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E262" t="n">
         <v>10</v>
@@ -19212,7 +19212,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="K262" t="n">
         <v>11000</v>
@@ -19234,19 +19234,19 @@
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q262" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -19293,32 +19293,32 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="K263" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L263" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M263" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q263" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19356,41 +19356,41 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K264" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L264" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M264" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>472</v>
+        <v>800</v>
       </c>
       <c r="Q264" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E265" t="n">
         <v>10</v>
@@ -19428,41 +19428,41 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K265" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L265" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M265" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>667</v>
+        <v>472</v>
       </c>
       <c r="Q265" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E266" t="n">
         <v>10</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K266" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L266" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M266" t="n">
-        <v>8750</v>
+        <v>10000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>583</v>
+        <v>667</v>
       </c>
       <c r="Q266" t="n">
         <v>15</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E267" t="n">
         <v>10</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K267" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L267" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M267" t="n">
-        <v>12000</v>
+        <v>8750</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>800</v>
+        <v>583</v>
       </c>
       <c r="Q267" t="n">
         <v>15</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E268" t="n">
         <v>10</v>
@@ -19644,7 +19644,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19656,29 +19656,29 @@
         <v>100</v>
       </c>
       <c r="K268" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L268" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M268" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q268" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19721,24 +19721,24 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K269" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L269" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M269" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="Q269" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19788,41 +19788,41 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K270" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L270" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M270" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>933</v>
+        <v>750</v>
       </c>
       <c r="Q270" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19872,17 +19872,17 @@
         <v>200</v>
       </c>
       <c r="K271" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L271" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M271" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -19891,10 +19891,10 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="Q271" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19941,32 +19941,32 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K272" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L272" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M272" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="Q272" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E273" t="n">
         <v>10</v>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K273" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L273" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M273" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20031,11 +20031,11 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="Q273" t="n">
         <v>15</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E274" t="n">
         <v>10</v>
@@ -20076,41 +20076,41 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K274" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L274" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="M274" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>625</v>
+        <v>933</v>
       </c>
       <c r="Q274" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20148,41 +20148,41 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K275" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L275" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M275" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="Q275" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E276" t="n">
         <v>10</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K276" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L276" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M276" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q276" t="n">
         <v>15</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E277" t="n">
         <v>10</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K277" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L277" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M277" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20319,11 +20319,11 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="Q277" t="n">
         <v>15</v>
@@ -20369,36 +20369,36 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J278" t="n">
         <v>200</v>
       </c>
       <c r="K278" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L278" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M278" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="Q278" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E279" t="n">
         <v>10</v>
@@ -20436,41 +20436,41 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K279" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L279" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M279" t="n">
-        <v>7556</v>
+        <v>12000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>756</v>
+        <v>667</v>
       </c>
       <c r="Q279" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20517,32 +20517,32 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K280" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L280" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M280" t="n">
-        <v>6500</v>
+        <v>7556</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>433</v>
+        <v>756</v>
       </c>
       <c r="Q280" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E281" t="n">
         <v>10</v>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20589,32 +20589,32 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="K281" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L281" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M281" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>1100</v>
+        <v>433</v>
       </c>
       <c r="Q281" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20661,32 +20661,32 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="K282" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L282" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M282" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="Q282" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E283" t="n">
         <v>10</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K283" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L283" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M283" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="Q283" t="n">
         <v>15</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E284" t="n">
         <v>10</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="K284" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L284" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M284" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="Q284" t="n">
         <v>15</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E285" t="n">
         <v>10</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20877,32 +20877,32 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K285" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L285" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M285" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="Q285" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20949,32 +20949,32 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K286" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="L286" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M286" t="n">
-        <v>13250</v>
+        <v>10000</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>883</v>
+        <v>1000</v>
       </c>
       <c r="Q286" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K287" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="L287" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M287" t="n">
-        <v>10000</v>
+        <v>13250</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21039,11 +21039,11 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>667</v>
+        <v>883</v>
       </c>
       <c r="Q287" t="n">
         <v>15</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E288" t="n">
         <v>10</v>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -21093,20 +21093,20 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="K288" t="n">
         <v>10000</v>
       </c>
       <c r="L288" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M288" t="n">
-        <v>10810</v>
+        <v>10000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>1081</v>
+        <v>667</v>
       </c>
       <c r="Q288" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -21165,32 +21165,32 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>1150</v>
+        <v>420</v>
       </c>
       <c r="K289" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="L289" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M289" t="n">
-        <v>15043</v>
+        <v>10810</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>1003</v>
+        <v>1081</v>
       </c>
       <c r="Q289" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>500</v>
+        <v>1150</v>
       </c>
       <c r="K290" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="L290" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M290" t="n">
-        <v>10500</v>
+        <v>15043</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21255,11 +21255,11 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P290" t="n">
-        <v>700</v>
+        <v>1003</v>
       </c>
       <c r="Q290" t="n">
         <v>15</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E291" t="n">
         <v>10</v>
@@ -21300,29 +21300,29 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="K291" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L291" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M291" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="Q291" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21372,41 +21372,41 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="K292" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L292" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M292" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="Q292" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E293" t="n">
         <v>10</v>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21453,32 +21453,32 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K293" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L293" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M293" t="n">
-        <v>6750</v>
+        <v>10000</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="Q293" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21525,32 +21525,32 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K294" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L294" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M294" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="Q294" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K295" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L295" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M295" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21615,11 +21615,11 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="Q295" t="n">
         <v>15</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E296" t="n">
         <v>10</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K296" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L296" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M296" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21687,11 +21687,11 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P296" t="n">
-        <v>833</v>
+        <v>467</v>
       </c>
       <c r="Q296" t="n">
         <v>15</v>
@@ -21732,41 +21732,41 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K297" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L297" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="M297" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>472</v>
+        <v>833</v>
       </c>
       <c r="Q297" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44223</v>
+        <v>44376</v>
       </c>
       <c r="E298" t="n">
         <v>10</v>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K298" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L298" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M298" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21831,11 +21831,11 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>389</v>
+        <v>472</v>
       </c>
       <c r="Q298" t="n">
         <v>18</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E299" t="n">
         <v>10</v>
@@ -21881,24 +21881,24 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J299" t="n">
         <v>50</v>
       </c>
       <c r="K299" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L299" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M299" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -21907,10 +21907,10 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>600</v>
+        <v>389</v>
       </c>
       <c r="Q299" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E300" t="n">
         <v>10</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21957,32 +21957,32 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K300" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L300" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M300" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="Q300" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -22029,32 +22029,32 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="K301" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L301" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="M301" t="n">
-        <v>13300</v>
+        <v>11000</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>887</v>
+        <v>1100</v>
       </c>
       <c r="Q301" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E302" t="n">
         <v>10</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="K302" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L302" t="n">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="M302" t="n">
-        <v>7000</v>
+        <v>13300</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22119,11 +22119,11 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>467</v>
+        <v>887</v>
       </c>
       <c r="Q302" t="n">
         <v>15</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E303" t="n">
         <v>10</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22173,32 +22173,32 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="K303" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L303" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M303" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P303" t="n">
-        <v>850</v>
+        <v>467</v>
       </c>
       <c r="Q303" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22245,7 +22245,7 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K304" t="n">
         <v>8000</v>
@@ -22258,19 +22258,19 @@
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P304" t="n">
-        <v>567</v>
+        <v>850</v>
       </c>
       <c r="Q304" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E305" t="n">
         <v>10</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22317,32 +22317,32 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K305" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L305" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M305" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>1100</v>
+        <v>567</v>
       </c>
       <c r="Q305" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22389,32 +22389,32 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K306" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L306" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M306" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P306" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q306" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E307" t="n">
         <v>10</v>
@@ -22452,7 +22452,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22461,32 +22461,32 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K307" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L307" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M307" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P307" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q307" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22533,32 +22533,32 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K308" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L308" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M308" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P308" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q308" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="K309" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L309" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M309" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22623,16 +22623,88 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q309" t="n">
         <v>15</v>
       </c>
       <c r="R309" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>4</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D310" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E310" t="n">
+        <v>10</v>
+      </c>
+      <c r="F310" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J310" t="n">
+        <v>220</v>
+      </c>
+      <c r="K310" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L310" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M310" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P310" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>15</v>
+      </c>
+      <c r="R310" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R310"/>
+  <dimension ref="A1:R311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14685,20 +14685,20 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K199" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L199" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M199" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -14707,10 +14707,10 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="Q199" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14757,32 +14757,32 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K200" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L200" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M200" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="Q200" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K201" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L201" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M201" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>433</v>
+        <v>967</v>
       </c>
       <c r="Q201" t="n">
         <v>15</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14901,32 +14901,32 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K202" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L202" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M202" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>1050</v>
+        <v>433</v>
       </c>
       <c r="Q202" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14973,32 +14973,32 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K203" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L203" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M203" t="n">
-        <v>14400</v>
+        <v>10500</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>960</v>
+        <v>1050</v>
       </c>
       <c r="Q203" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -15045,32 +15045,32 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="K204" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L204" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="M204" t="n">
-        <v>6500</v>
+        <v>14400</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>650</v>
+        <v>960</v>
       </c>
       <c r="Q204" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -15117,32 +15117,32 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K205" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L205" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M205" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>467</v>
+        <v>650</v>
       </c>
       <c r="Q205" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -15189,32 +15189,32 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="K206" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L206" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M206" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>1100</v>
+        <v>467</v>
       </c>
       <c r="Q206" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -15261,32 +15261,32 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="K207" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L207" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M207" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q207" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K208" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L208" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M208" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q208" t="n">
         <v>15</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="K209" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L209" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M209" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="Q209" t="n">
         <v>15</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="K210" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L210" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M210" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q210" t="n">
         <v>15</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15549,32 +15549,32 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K211" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L211" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M211" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="Q211" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15621,32 +15621,32 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="K212" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L212" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M212" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>567</v>
+        <v>750</v>
       </c>
       <c r="Q212" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15689,24 +15689,24 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J213" t="n">
         <v>150</v>
       </c>
       <c r="K213" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L213" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M213" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -15715,10 +15715,10 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>389</v>
+        <v>567</v>
       </c>
       <c r="Q213" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -15756,41 +15756,41 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K214" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L214" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M214" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>1100</v>
+        <v>389</v>
       </c>
       <c r="Q214" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15837,7 +15837,7 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K215" t="n">
         <v>11000</v>
@@ -15850,19 +15850,19 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q215" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K216" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L216" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M216" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="Q216" t="n">
         <v>15</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -15984,13 +15984,13 @@
         <v>100</v>
       </c>
       <c r="K217" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L217" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M217" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="Q217" t="n">
         <v>15</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K218" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L218" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M218" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q218" t="n">
         <v>15</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -16128,13 +16128,13 @@
         <v>250</v>
       </c>
       <c r="K219" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L219" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M219" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q219" t="n">
         <v>15</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K220" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L220" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M220" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>633</v>
+        <v>733</v>
       </c>
       <c r="Q220" t="n">
         <v>15</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K221" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L221" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M221" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>433</v>
+        <v>633</v>
       </c>
       <c r="Q221" t="n">
         <v>15</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -16332,7 +16332,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16341,32 +16341,32 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K222" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L222" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M222" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>1100</v>
+        <v>433</v>
       </c>
       <c r="Q222" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16409,24 +16409,24 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K223" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L223" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M223" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -16435,10 +16435,10 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>667</v>
+        <v>1100</v>
       </c>
       <c r="Q223" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16476,41 +16476,41 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K224" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L224" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M224" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q224" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -16548,41 +16548,41 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K225" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L225" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M225" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="Q225" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -16620,29 +16620,29 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K226" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L226" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M226" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -16651,10 +16651,10 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1100</v>
+        <v>444</v>
       </c>
       <c r="Q226" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16701,32 +16701,32 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K227" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L227" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M227" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q227" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16764,41 +16764,41 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K228" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L228" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M228" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>472</v>
+        <v>800</v>
       </c>
       <c r="Q228" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E229" t="n">
         <v>10</v>
@@ -16836,41 +16836,41 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K229" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L229" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M229" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>700</v>
+        <v>472</v>
       </c>
       <c r="Q229" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E230" t="n">
         <v>10</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K230" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L230" t="n">
         <v>11000</v>
       </c>
       <c r="M230" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="Q230" t="n">
         <v>15</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -16992,13 +16992,13 @@
         <v>200</v>
       </c>
       <c r="K231" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L231" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M231" t="n">
-        <v>8250</v>
+        <v>11000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>550</v>
+        <v>733</v>
       </c>
       <c r="Q231" t="n">
         <v>15</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -17061,32 +17061,32 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K232" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L232" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M232" t="n">
-        <v>11000</v>
+        <v>8250</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="Q232" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17133,7 +17133,7 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K233" t="n">
         <v>11000</v>
@@ -17146,19 +17146,19 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q233" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K234" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L234" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M234" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="Q234" t="n">
         <v>15</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -17277,7 +17277,7 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K235" t="n">
         <v>10000</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17349,32 +17349,32 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K236" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L236" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M236" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="Q236" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17421,32 +17421,32 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K237" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L237" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M237" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>733</v>
+        <v>1200</v>
       </c>
       <c r="Q237" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17493,32 +17493,32 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K238" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L238" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M238" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="Q238" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17565,32 +17565,32 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K239" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L239" t="n">
         <v>7000</v>
       </c>
       <c r="M239" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>433</v>
+        <v>700</v>
       </c>
       <c r="Q239" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K240" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L240" t="n">
         <v>7000</v>
       </c>
       <c r="M240" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="Q240" t="n">
         <v>15</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17709,7 +17709,7 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K241" t="n">
         <v>7000</v>
@@ -17722,19 +17722,19 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="Q241" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17781,7 +17781,7 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K242" t="n">
         <v>7000</v>
@@ -17794,19 +17794,19 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q242" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17853,32 +17853,32 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K243" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L243" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M243" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>1100</v>
+        <v>467</v>
       </c>
       <c r="Q243" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17925,32 +17925,32 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K244" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L244" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M244" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q244" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17988,41 +17988,41 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K245" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L245" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M245" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="Q245" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E246" t="n">
         <v>10</v>
@@ -18060,41 +18060,41 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K246" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L246" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M246" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="Q246" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K247" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L247" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M247" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>467</v>
+        <v>1000</v>
       </c>
       <c r="Q247" t="n">
         <v>15</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -18204,41 +18204,41 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="K248" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L248" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M248" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>1200</v>
+        <v>467</v>
       </c>
       <c r="Q248" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18285,32 +18285,32 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="K249" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L249" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M249" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="Q249" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18348,41 +18348,41 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K250" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L250" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M250" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>444</v>
+        <v>867</v>
       </c>
       <c r="Q250" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18429,20 +18429,20 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K251" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L251" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M251" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -18451,10 +18451,10 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>625</v>
+        <v>444</v>
       </c>
       <c r="Q251" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18492,41 +18492,41 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K252" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L252" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M252" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="Q252" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K253" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L253" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M253" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18591,11 +18591,11 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>567</v>
+        <v>667</v>
       </c>
       <c r="Q253" t="n">
         <v>15</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="K254" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L254" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M254" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18663,11 +18663,11 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>800</v>
+        <v>567</v>
       </c>
       <c r="Q254" t="n">
         <v>15</v>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K255" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L255" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M255" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18735,11 +18735,11 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q255" t="n">
         <v>15</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K256" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L256" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M256" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18807,11 +18807,11 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q256" t="n">
         <v>15</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E257" t="n">
         <v>10</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K257" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L257" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M257" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q257" t="n">
         <v>15</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E258" t="n">
         <v>10</v>
@@ -18933,7 +18933,7 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K258" t="n">
         <v>11000</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -19005,7 +19005,7 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="K259" t="n">
         <v>11000</v>
@@ -19018,19 +19018,19 @@
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q259" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K260" t="n">
         <v>11000</v>
@@ -19090,19 +19090,19 @@
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q260" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -19149,7 +19149,7 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K261" t="n">
         <v>11000</v>
@@ -19162,19 +19162,19 @@
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q261" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -19221,32 +19221,32 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="K262" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L262" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M262" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="Q262" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E263" t="n">
         <v>10</v>
@@ -19284,7 +19284,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -19293,32 +19293,32 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K263" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L263" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M263" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>1100</v>
+        <v>967</v>
       </c>
       <c r="Q263" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19365,32 +19365,32 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K264" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L264" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M264" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q264" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E265" t="n">
         <v>10</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K265" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L265" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M265" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q265" t="n">
         <v>15</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E266" t="n">
         <v>10</v>
@@ -19505,24 +19505,24 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K266" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L266" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="M266" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>361</v>
+        <v>733</v>
       </c>
       <c r="Q266" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E267" t="n">
         <v>10</v>
@@ -19577,24 +19577,24 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K267" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L267" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M267" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -19603,10 +19603,10 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>800</v>
+        <v>361</v>
       </c>
       <c r="Q267" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E268" t="n">
         <v>10</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K268" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L268" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M268" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q268" t="n">
         <v>15</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E269" t="n">
         <v>10</v>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19725,32 +19725,32 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K269" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L269" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M269" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q269" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19797,32 +19797,32 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="K270" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L270" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M270" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="Q270" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E271" t="n">
         <v>10</v>
@@ -19860,7 +19860,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19869,32 +19869,32 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="K271" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L271" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M271" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>1100</v>
+        <v>867</v>
       </c>
       <c r="Q271" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19941,32 +19941,32 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K272" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L272" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M272" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q272" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -20004,41 +20004,41 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K273" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L273" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M273" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>472</v>
+        <v>800</v>
       </c>
       <c r="Q273" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E274" t="n">
         <v>10</v>
@@ -20076,41 +20076,41 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K274" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L274" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M274" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>700</v>
+        <v>472</v>
       </c>
       <c r="Q274" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E275" t="n">
         <v>10</v>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -20157,32 +20157,32 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K275" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L275" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M275" t="n">
-        <v>8250</v>
+        <v>10500</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>825</v>
+        <v>700</v>
       </c>
       <c r="Q275" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20229,32 +20229,32 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K276" t="n">
         <v>8000</v>
       </c>
       <c r="L276" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M276" t="n">
-        <v>8000</v>
+        <v>8250</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>533</v>
+        <v>825</v>
       </c>
       <c r="Q276" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20297,24 +20297,24 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K277" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L277" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M277" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>389</v>
+        <v>533</v>
       </c>
       <c r="Q277" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E278" t="n">
         <v>10</v>
@@ -20364,41 +20364,41 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="K278" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L278" t="n">
         <v>7000</v>
       </c>
       <c r="M278" t="n">
-        <v>6750</v>
+        <v>7000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>675</v>
+        <v>389</v>
       </c>
       <c r="Q278" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20445,32 +20445,32 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K279" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L279" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M279" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="Q279" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K280" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L280" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M280" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20535,11 +20535,11 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="Q280" t="n">
         <v>15</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E281" t="n">
         <v>10</v>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20589,32 +20589,32 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K281" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L281" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M281" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>1100</v>
+        <v>467</v>
       </c>
       <c r="Q281" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20661,32 +20661,32 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K282" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L282" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M282" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q282" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E283" t="n">
         <v>10</v>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20733,32 +20733,32 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="K283" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L283" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M283" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P283" t="n">
         <v>800</v>
       </c>
       <c r="Q283" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20805,32 +20805,32 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="K284" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L284" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M284" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>567</v>
+        <v>800</v>
       </c>
       <c r="Q284" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E285" t="n">
         <v>10</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20877,32 +20877,32 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K285" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L285" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M285" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>700</v>
+        <v>567</v>
       </c>
       <c r="Q285" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20949,32 +20949,32 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="K286" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L286" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M286" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q286" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E287" t="n">
         <v>10</v>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K287" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L287" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M287" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21039,11 +21039,11 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>733</v>
+        <v>400</v>
       </c>
       <c r="Q287" t="n">
         <v>15</v>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K288" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L288" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M288" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21111,11 +21111,11 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q288" t="n">
         <v>15</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E289" t="n">
         <v>10</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K289" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L289" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M289" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="Q289" t="n">
         <v>15</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E290" t="n">
         <v>10</v>
@@ -21240,13 +21240,13 @@
         <v>400</v>
       </c>
       <c r="K290" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L290" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M290" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="Q290" t="n">
         <v>15</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E291" t="n">
         <v>10</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K291" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L291" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M291" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="Q291" t="n">
         <v>15</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E292" t="n">
         <v>10</v>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21381,32 +21381,32 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K292" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L292" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M292" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="Q292" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21453,7 +21453,7 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K293" t="n">
         <v>6500</v>
@@ -21466,19 +21466,19 @@
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>433</v>
+        <v>650</v>
       </c>
       <c r="Q293" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K294" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L294" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M294" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21543,11 +21543,11 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="Q294" t="n">
         <v>15</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E295" t="n">
         <v>10</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K295" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L295" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M295" t="n">
-        <v>8750</v>
+        <v>7000</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21615,11 +21615,11 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>583</v>
+        <v>467</v>
       </c>
       <c r="Q295" t="n">
         <v>15</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E296" t="n">
         <v>10</v>
@@ -21672,13 +21672,13 @@
         <v>300</v>
       </c>
       <c r="K296" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L296" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M296" t="n">
-        <v>12500</v>
+        <v>8750</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>833</v>
+        <v>583</v>
       </c>
       <c r="Q296" t="n">
         <v>15</v>
@@ -21732,41 +21732,41 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K297" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L297" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="M297" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>472</v>
+        <v>833</v>
       </c>
       <c r="Q297" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E298" t="n">
         <v>10</v>
@@ -21804,41 +21804,41 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K298" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="L298" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M298" t="n">
-        <v>10750</v>
+        <v>8500</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>717</v>
+        <v>472</v>
       </c>
       <c r="Q298" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E299" t="n">
         <v>10</v>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21885,32 +21885,32 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K299" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="L299" t="n">
         <v>11000</v>
       </c>
       <c r="M299" t="n">
-        <v>11000</v>
+        <v>10750</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>1100</v>
+        <v>717</v>
       </c>
       <c r="Q299" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21957,32 +21957,32 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K300" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L300" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M300" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q300" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22020,41 +22020,41 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K301" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L301" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M301" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="Q301" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E302" t="n">
         <v>10</v>
@@ -22092,16 +22092,16 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K302" t="n">
         <v>8000</v>
@@ -22114,19 +22114,19 @@
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="Q302" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22169,24 +22169,24 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K303" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L303" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M303" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22195,10 +22195,10 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>361</v>
+        <v>533</v>
       </c>
       <c r="Q303" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E304" t="n">
         <v>10</v>
@@ -22236,41 +22236,41 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K304" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L304" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M304" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P304" t="n">
-        <v>1000</v>
+        <v>361</v>
       </c>
       <c r="Q304" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22317,32 +22317,32 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K305" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L305" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M305" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="Q305" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K306" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L306" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M306" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22407,11 +22407,11 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P306" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="Q306" t="n">
         <v>15</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E307" t="n">
         <v>10</v>
@@ -22452,29 +22452,29 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K307" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L307" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M307" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>625</v>
+        <v>733</v>
       </c>
       <c r="Q307" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22524,41 +22524,41 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K308" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L308" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M308" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P308" t="n">
-        <v>733</v>
+        <v>625</v>
       </c>
       <c r="Q308" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22601,24 +22601,24 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K309" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L309" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M309" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -22627,10 +22627,10 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>500</v>
+        <v>733</v>
       </c>
       <c r="Q309" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22668,16 +22668,16 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K310" t="n">
         <v>9000</v>
@@ -22690,21 +22690,93 @@
       </c>
       <c r="N310" t="inlineStr">
         <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P310" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>18</v>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>4</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D311" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E311" t="n">
+        <v>10</v>
+      </c>
+      <c r="F311" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J311" t="n">
+        <v>150</v>
+      </c>
+      <c r="K311" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L311" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M311" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
           <t>$/caja 15 unidades</t>
         </is>
       </c>
-      <c r="O310" t="inlineStr">
+      <c r="O311" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P310" t="n">
+      <c r="P311" t="n">
         <v>600</v>
       </c>
-      <c r="Q310" t="n">
+      <c r="Q311" t="n">
         <v>15</v>
       </c>
-      <c r="R310" t="inlineStr">
+      <c r="R311" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R314"/>
+  <dimension ref="A1:R317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -17268,7 +17268,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -17277,32 +17277,32 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K235" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L235" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M235" t="n">
-        <v>8250</v>
+        <v>9000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="Q235" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17349,32 +17349,32 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="K236" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L236" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M236" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q236" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K237" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L237" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M237" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17439,11 +17439,11 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="Q237" t="n">
         <v>15</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K238" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L238" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M238" t="n">
-        <v>10000</v>
+        <v>8250</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>667</v>
+        <v>550</v>
       </c>
       <c r="Q238" t="n">
         <v>15</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17565,32 +17565,32 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K239" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L239" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M239" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>667</v>
+        <v>1100</v>
       </c>
       <c r="Q239" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17637,32 +17637,32 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K240" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L240" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M240" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>1200</v>
+        <v>733</v>
       </c>
       <c r="Q240" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K241" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L241" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M241" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="Q241" t="n">
         <v>15</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17781,32 +17781,32 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K242" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L242" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M242" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="Q242" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17853,32 +17853,32 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K243" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L243" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M243" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>433</v>
+        <v>1200</v>
       </c>
       <c r="Q243" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K244" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L244" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M244" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>467</v>
+        <v>733</v>
       </c>
       <c r="Q244" t="n">
         <v>15</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -17997,7 +17997,7 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K245" t="n">
         <v>7000</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E246" t="n">
         <v>10</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K246" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L246" t="n">
         <v>7000</v>
       </c>
       <c r="M246" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18087,11 +18087,11 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="Q246" t="n">
         <v>15</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18141,32 +18141,32 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K247" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L247" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M247" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>1100</v>
+        <v>467</v>
       </c>
       <c r="Q247" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18213,32 +18213,32 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="K248" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L248" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M248" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q248" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -18276,41 +18276,41 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K249" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L249" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M249" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="Q249" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E250" t="n">
         <v>10</v>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18357,32 +18357,32 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K250" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L250" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M250" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Q250" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -18425,20 +18425,20 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J251" t="n">
         <v>400</v>
       </c>
       <c r="K251" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L251" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M251" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="Q251" t="n">
         <v>15</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -18492,29 +18492,29 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K252" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L252" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M252" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>1200</v>
+        <v>444</v>
       </c>
       <c r="Q252" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K253" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L253" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M253" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="Q253" t="n">
         <v>15</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18645,32 +18645,32 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K254" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L254" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M254" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="Q254" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E255" t="n">
         <v>10</v>
@@ -18713,24 +18713,24 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K255" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L255" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M255" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>625</v>
+        <v>1200</v>
       </c>
       <c r="Q255" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K256" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L256" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M256" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="Q256" t="n">
         <v>15</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E257" t="n">
         <v>10</v>
@@ -18857,24 +18857,24 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K257" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L257" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M257" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>567</v>
+        <v>444</v>
       </c>
       <c r="Q257" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E258" t="n">
         <v>10</v>
@@ -18924,41 +18924,41 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="K258" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L258" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M258" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="Q258" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K259" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L259" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M259" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19023,11 +19023,11 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="Q259" t="n">
         <v>15</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44363</v>
+        <v>44316</v>
       </c>
       <c r="E260" t="n">
         <v>10</v>
@@ -19068,7 +19068,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K260" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L260" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M260" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19095,11 +19095,11 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>800</v>
+        <v>567</v>
       </c>
       <c r="Q260" t="n">
         <v>15</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K261" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L261" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M261" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q261" t="n">
         <v>15</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44291</v>
+        <v>44397</v>
       </c>
       <c r="E262" t="n">
         <v>10</v>
@@ -19212,7 +19212,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K262" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L262" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M262" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19239,11 +19239,11 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="Q262" t="n">
         <v>15</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E263" t="n">
         <v>10</v>
@@ -19284,7 +19284,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -19293,32 +19293,32 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K263" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L263" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M263" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q263" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
@@ -19365,7 +19365,7 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K264" t="n">
         <v>11000</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E265" t="n">
         <v>10</v>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19437,7 +19437,7 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K265" t="n">
         <v>11000</v>
@@ -19450,19 +19450,19 @@
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q265" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E266" t="n">
         <v>10</v>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19509,32 +19509,32 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="K266" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L266" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M266" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="Q266" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E267" t="n">
         <v>10</v>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19594,19 +19594,19 @@
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q267" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E268" t="n">
         <v>10</v>
@@ -19644,7 +19644,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19653,32 +19653,32 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="K268" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L268" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M268" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q268" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E269" t="n">
         <v>10</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K269" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L269" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M269" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="Q269" t="n">
         <v>15</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E270" t="n">
         <v>10</v>
@@ -19788,41 +19788,41 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K270" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L270" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="M270" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>361</v>
+        <v>1100</v>
       </c>
       <c r="Q270" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E271" t="n">
         <v>10</v>
@@ -19869,7 +19869,7 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K271" t="n">
         <v>12000</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44160</v>
+        <v>44286</v>
       </c>
       <c r="E272" t="n">
         <v>10</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K272" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L272" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M272" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>400</v>
+        <v>733</v>
       </c>
       <c r="Q272" t="n">
         <v>15</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E273" t="n">
         <v>10</v>
@@ -20004,41 +20004,41 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="K273" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L273" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M273" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>1000</v>
+        <v>361</v>
       </c>
       <c r="Q273" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E274" t="n">
         <v>10</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="K274" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L274" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M274" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="Q274" t="n">
         <v>15</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E275" t="n">
         <v>10</v>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -20157,32 +20157,32 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K275" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L275" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M275" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="Q275" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E276" t="n">
         <v>10</v>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20229,32 +20229,32 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="K276" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L276" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M276" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q276" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E277" t="n">
         <v>10</v>
@@ -20292,41 +20292,41 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K277" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="L277" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="M277" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>472</v>
+        <v>867</v>
       </c>
       <c r="Q277" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E278" t="n">
         <v>10</v>
@@ -20364,7 +20364,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20373,32 +20373,32 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K278" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L278" t="n">
         <v>11000</v>
       </c>
       <c r="M278" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="Q278" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E279" t="n">
         <v>10</v>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20445,32 +20445,32 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K279" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L279" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M279" t="n">
-        <v>8250</v>
+        <v>12000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>825</v>
+        <v>800</v>
       </c>
       <c r="Q279" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E280" t="n">
         <v>10</v>
@@ -20508,41 +20508,41 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J280" t="n">
         <v>200</v>
       </c>
       <c r="K280" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L280" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M280" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>533</v>
+        <v>472</v>
       </c>
       <c r="Q280" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E281" t="n">
         <v>10</v>
@@ -20585,24 +20585,24 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K281" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L281" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M281" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>389</v>
+        <v>700</v>
       </c>
       <c r="Q281" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E282" t="n">
         <v>10</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K282" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L282" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M282" t="n">
-        <v>6750</v>
+        <v>8250</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>675</v>
+        <v>825</v>
       </c>
       <c r="Q282" t="n">
         <v>10</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E283" t="n">
         <v>10</v>
@@ -20736,13 +20736,13 @@
         <v>200</v>
       </c>
       <c r="K283" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L283" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M283" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="Q283" t="n">
         <v>15</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E284" t="n">
         <v>10</v>
@@ -20801,11 +20801,11 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K284" t="n">
         <v>7000</v>
@@ -20818,19 +20818,19 @@
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>467</v>
+        <v>389</v>
       </c>
       <c r="Q284" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E285" t="n">
         <v>10</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K285" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L285" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M285" t="n">
-        <v>11000</v>
+        <v>6750</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>1100</v>
+        <v>675</v>
       </c>
       <c r="Q285" t="n">
         <v>10</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E286" t="n">
         <v>10</v>
@@ -20952,13 +20952,13 @@
         <v>200</v>
       </c>
       <c r="K286" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L286" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M286" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q286" t="n">
         <v>15</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E287" t="n">
         <v>10</v>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21021,32 +21021,32 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K287" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L287" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M287" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="Q287" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E288" t="n">
         <v>10</v>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -21093,32 +21093,32 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K288" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L288" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M288" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>567</v>
+        <v>1100</v>
       </c>
       <c r="Q288" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E289" t="n">
         <v>10</v>
@@ -21156,7 +21156,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -21165,32 +21165,32 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K289" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L289" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M289" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q289" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E290" t="n">
         <v>10</v>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21237,32 +21237,32 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="K290" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L290" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M290" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P290" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q290" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E291" t="n">
         <v>10</v>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K291" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L291" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M291" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21327,11 +21327,11 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="Q291" t="n">
         <v>15</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E292" t="n">
         <v>10</v>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21381,32 +21381,32 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="K292" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L292" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M292" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q292" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E293" t="n">
         <v>10</v>
@@ -21456,13 +21456,13 @@
         <v>400</v>
       </c>
       <c r="K293" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L293" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M293" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>933</v>
+        <v>400</v>
       </c>
       <c r="Q293" t="n">
         <v>15</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E294" t="n">
         <v>10</v>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21525,7 +21525,7 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K294" t="n">
         <v>11000</v>
@@ -21543,7 +21543,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P294" t="n">
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44244</v>
+        <v>44410</v>
       </c>
       <c r="E295" t="n">
         <v>10</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K295" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L295" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M295" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q295" t="n">
         <v>15</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E296" t="n">
         <v>10</v>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21669,32 +21669,32 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="K296" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L296" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="M296" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P296" t="n">
-        <v>650</v>
+        <v>933</v>
       </c>
       <c r="Q296" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E297" t="n">
         <v>10</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K297" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L297" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="M297" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>433</v>
+        <v>733</v>
       </c>
       <c r="Q297" t="n">
         <v>15</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E298" t="n">
         <v>10</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K298" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L298" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M298" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21831,11 +21831,11 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>467</v>
+        <v>667</v>
       </c>
       <c r="Q298" t="n">
         <v>15</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E299" t="n">
         <v>10</v>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21885,32 +21885,32 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K299" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L299" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M299" t="n">
-        <v>8750</v>
+        <v>6500</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="Q299" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E300" t="n">
         <v>10</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K300" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L300" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="M300" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>833</v>
+        <v>433</v>
       </c>
       <c r="Q300" t="n">
         <v>15</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E301" t="n">
         <v>10</v>
@@ -22020,41 +22020,41 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J301" t="n">
         <v>200</v>
       </c>
       <c r="K301" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L301" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M301" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="Q301" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E302" t="n">
         <v>10</v>
@@ -22104,13 +22104,13 @@
         <v>300</v>
       </c>
       <c r="K302" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="L302" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M302" t="n">
-        <v>10750</v>
+        <v>8750</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>717</v>
+        <v>583</v>
       </c>
       <c r="Q302" t="n">
         <v>15</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E303" t="n">
         <v>10</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22173,32 +22173,32 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K303" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L303" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M303" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P303" t="n">
-        <v>1100</v>
+        <v>833</v>
       </c>
       <c r="Q303" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E304" t="n">
         <v>10</v>
@@ -22236,41 +22236,41 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K304" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L304" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M304" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P304" t="n">
-        <v>800</v>
+        <v>472</v>
       </c>
       <c r="Q304" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E305" t="n">
         <v>10</v>
@@ -22308,41 +22308,41 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K305" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L305" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M305" t="n">
-        <v>8000</v>
+        <v>10750</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>444</v>
+        <v>717</v>
       </c>
       <c r="Q305" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E306" t="n">
         <v>10</v>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22389,32 +22389,32 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K306" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L306" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M306" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P306" t="n">
-        <v>533</v>
+        <v>1100</v>
       </c>
       <c r="Q306" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E307" t="n">
         <v>10</v>
@@ -22457,24 +22457,24 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K307" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L307" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M307" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>361</v>
+        <v>800</v>
       </c>
       <c r="Q307" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E308" t="n">
         <v>10</v>
@@ -22524,29 +22524,29 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K308" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L308" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M308" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="Q308" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E309" t="n">
         <v>10</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K309" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L309" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M309" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>967</v>
+        <v>533</v>
       </c>
       <c r="Q309" t="n">
         <v>15</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E310" t="n">
         <v>10</v>
@@ -22668,41 +22668,41 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K310" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L310" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M310" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>733</v>
+        <v>361</v>
       </c>
       <c r="Q310" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E311" t="n">
         <v>10</v>
@@ -22745,24 +22745,24 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K311" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L311" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M311" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -22771,10 +22771,10 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="Q311" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E312" t="n">
         <v>10</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K312" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L312" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M312" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="Q312" t="n">
         <v>15</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E313" t="n">
         <v>10</v>
@@ -22884,41 +22884,41 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K313" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L313" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M313" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>500</v>
+        <v>733</v>
       </c>
       <c r="Q313" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22956,43 +22956,259 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J314" t="n">
+        <v>90</v>
+      </c>
+      <c r="K314" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L314" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M314" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P314" t="n">
+        <v>625</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>12</v>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>4</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D315" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E315" t="n">
+        <v>10</v>
+      </c>
+      <c r="F315" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J315" t="n">
+        <v>300</v>
+      </c>
+      <c r="K315" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L315" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M315" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P315" t="n">
+        <v>733</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>15</v>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>4</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D316" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E316" t="n">
+        <v>10</v>
+      </c>
+      <c r="F316" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J316" t="n">
+        <v>100</v>
+      </c>
+      <c r="K316" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L316" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M316" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P316" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>18</v>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>4</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D317" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E317" t="n">
+        <v>10</v>
+      </c>
+      <c r="F317" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
           <t>Marina</t>
         </is>
       </c>
-      <c r="I314" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J314" t="n">
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J317" t="n">
         <v>150</v>
       </c>
-      <c r="K314" t="n">
+      <c r="K317" t="n">
         <v>9000</v>
       </c>
-      <c r="L314" t="n">
+      <c r="L317" t="n">
         <v>9000</v>
       </c>
-      <c r="M314" t="n">
+      <c r="M317" t="n">
         <v>9000</v>
       </c>
-      <c r="N314" t="inlineStr">
+      <c r="N317" t="inlineStr">
         <is>
           <t>$/caja 15 unidades</t>
         </is>
       </c>
-      <c r="O314" t="inlineStr">
+      <c r="O317" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P314" t="n">
+      <c r="P317" t="n">
         <v>600</v>
       </c>
-      <c r="Q314" t="n">
+      <c r="Q317" t="n">
         <v>15</v>
       </c>
-      <c r="R314" t="inlineStr">
+      <c r="R317" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R317"/>
+  <dimension ref="A1:R320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="K210" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L210" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M210" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="Q210" t="n">
         <v>10</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K211" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L211" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M211" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="Q211" t="n">
         <v>15</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K212" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L212" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M212" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="Q212" t="n">
         <v>15</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -15684,7 +15684,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -15693,7 +15693,7 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K213" t="n">
         <v>11000</v>
@@ -15706,19 +15706,19 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q213" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44201</v>
+        <v>44249</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15837,32 +15837,32 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K215" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L215" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M215" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="Q215" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="K216" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L216" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M216" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>567</v>
+        <v>733</v>
       </c>
       <c r="Q216" t="n">
         <v>15</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -15977,24 +15977,24 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J217" t="n">
         <v>150</v>
       </c>
       <c r="K217" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L217" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M217" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -16003,10 +16003,10 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>389</v>
+        <v>800</v>
       </c>
       <c r="Q217" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K218" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L218" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M218" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="Q218" t="n">
         <v>10</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K219" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L219" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M219" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="Q219" t="n">
         <v>15</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44447</v>
+        <v>44201</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -16193,24 +16193,24 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K220" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L220" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M220" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -16219,10 +16219,10 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>933</v>
+        <v>389</v>
       </c>
       <c r="Q220" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -16260,7 +16260,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16269,7 +16269,7 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K221" t="n">
         <v>11000</v>
@@ -16282,19 +16282,19 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q221" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44260</v>
+        <v>44280</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K222" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L222" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M222" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q222" t="n">
         <v>15</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K223" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L223" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M223" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="Q223" t="n">
         <v>15</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44312</v>
+        <v>44270</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K224" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L224" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M224" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>633</v>
+        <v>733</v>
       </c>
       <c r="Q224" t="n">
         <v>15</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44187</v>
+        <v>44260</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K225" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L225" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M225" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>433</v>
+        <v>800</v>
       </c>
       <c r="Q225" t="n">
         <v>15</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44390</v>
+        <v>44267</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16629,7 +16629,7 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="K226" t="n">
         <v>11000</v>
@@ -16642,19 +16642,19 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q226" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E227" t="n">
         <v>10</v>
@@ -16692,41 +16692,41 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K227" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L227" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M227" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>667</v>
+        <v>633</v>
       </c>
       <c r="Q227" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E228" t="n">
         <v>10</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K228" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L228" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M228" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16791,11 +16791,11 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>800</v>
+        <v>433</v>
       </c>
       <c r="Q228" t="n">
         <v>15</v>
@@ -16836,29 +16836,29 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K229" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L229" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M229" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>444</v>
+        <v>1100</v>
       </c>
       <c r="Q229" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E230" t="n">
         <v>10</v>
@@ -16913,24 +16913,24 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K230" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L230" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M230" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="Q230" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -17064,13 +17064,13 @@
         <v>250</v>
       </c>
       <c r="K232" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L232" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M232" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="Q232" t="n">
         <v>18</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17136,29 +17136,29 @@
         <v>120</v>
       </c>
       <c r="K233" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L233" t="n">
         <v>11000</v>
       </c>
       <c r="M233" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="Q233" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K234" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L234" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M234" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q234" t="n">
         <v>15</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -17268,29 +17268,29 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K235" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="L235" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M235" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -17299,10 +17299,10 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>900</v>
+        <v>472</v>
       </c>
       <c r="Q235" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="K236" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L236" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M236" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q236" t="n">
         <v>15</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K237" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L237" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M237" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17439,11 +17439,11 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="Q237" t="n">
         <v>15</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17493,32 +17493,32 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K238" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L238" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M238" t="n">
-        <v>8250</v>
+        <v>9000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="Q238" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17565,32 +17565,32 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="K239" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L239" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M239" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q239" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K240" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L240" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M240" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="Q240" t="n">
         <v>15</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K241" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L241" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M241" t="n">
-        <v>10000</v>
+        <v>8250</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>667</v>
+        <v>550</v>
       </c>
       <c r="Q241" t="n">
         <v>15</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17781,32 +17781,32 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K242" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L242" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M242" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>667</v>
+        <v>1100</v>
       </c>
       <c r="Q242" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17853,32 +17853,32 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K243" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L243" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M243" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>1200</v>
+        <v>733</v>
       </c>
       <c r="Q243" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K244" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L244" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M244" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="Q244" t="n">
         <v>15</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -17997,32 +17997,32 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K245" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L245" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M245" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="Q245" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E246" t="n">
         <v>10</v>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18069,32 +18069,32 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K246" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L246" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M246" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>433</v>
+        <v>1200</v>
       </c>
       <c r="Q246" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K247" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L247" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M247" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18159,11 +18159,11 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>467</v>
+        <v>733</v>
       </c>
       <c r="Q247" t="n">
         <v>15</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -18213,7 +18213,7 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K248" t="n">
         <v>7000</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K249" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L249" t="n">
         <v>7000</v>
       </c>
       <c r="M249" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18303,11 +18303,11 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="Q249" t="n">
         <v>15</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E250" t="n">
         <v>10</v>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18357,32 +18357,32 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K250" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L250" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M250" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1100</v>
+        <v>467</v>
       </c>
       <c r="Q250" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18429,32 +18429,32 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="K251" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L251" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M251" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q251" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -18492,41 +18492,41 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K252" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L252" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M252" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="Q252" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -18564,7 +18564,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18573,32 +18573,32 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K253" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L253" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M253" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Q253" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -18641,20 +18641,20 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J254" t="n">
         <v>400</v>
       </c>
       <c r="K254" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L254" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M254" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="Q254" t="n">
         <v>15</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E255" t="n">
         <v>10</v>
@@ -18708,29 +18708,29 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K255" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L255" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M255" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>1200</v>
+        <v>444</v>
       </c>
       <c r="Q255" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K256" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L256" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M256" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="Q256" t="n">
         <v>15</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E257" t="n">
         <v>10</v>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18861,32 +18861,32 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K257" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L257" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M257" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="Q257" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E258" t="n">
         <v>10</v>
@@ -18929,24 +18929,24 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K258" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L258" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M258" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>625</v>
+        <v>1200</v>
       </c>
       <c r="Q258" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K259" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L259" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M259" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="Q259" t="n">
         <v>15</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E260" t="n">
         <v>10</v>
@@ -19073,24 +19073,24 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K260" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L260" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M260" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>567</v>
+        <v>444</v>
       </c>
       <c r="Q260" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
@@ -19140,41 +19140,41 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="K261" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L261" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M261" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="Q261" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E262" t="n">
         <v>10</v>
@@ -19212,7 +19212,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K262" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L262" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M262" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19239,11 +19239,11 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="Q262" t="n">
         <v>15</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44363</v>
+        <v>44316</v>
       </c>
       <c r="E263" t="n">
         <v>10</v>
@@ -19284,7 +19284,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K263" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L263" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M263" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19311,11 +19311,11 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>800</v>
+        <v>567</v>
       </c>
       <c r="Q263" t="n">
         <v>15</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K264" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L264" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M264" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q264" t="n">
         <v>15</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44291</v>
+        <v>44397</v>
       </c>
       <c r="E265" t="n">
         <v>10</v>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K265" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L265" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M265" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,11 +19455,11 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="Q265" t="n">
         <v>15</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E266" t="n">
         <v>10</v>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19509,32 +19509,32 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K266" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L266" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M266" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q266" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E267" t="n">
         <v>10</v>
@@ -19581,7 +19581,7 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K267" t="n">
         <v>11000</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E268" t="n">
         <v>10</v>
@@ -19644,7 +19644,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19653,7 +19653,7 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K268" t="n">
         <v>11000</v>
@@ -19666,19 +19666,19 @@
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q268" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E269" t="n">
         <v>10</v>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19725,32 +19725,32 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="K269" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L269" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M269" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="Q269" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E270" t="n">
         <v>10</v>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19810,19 +19810,19 @@
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q270" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E271" t="n">
         <v>10</v>
@@ -19860,7 +19860,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19869,32 +19869,32 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="K271" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L271" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M271" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q271" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E272" t="n">
         <v>10</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K272" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L272" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M272" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="Q272" t="n">
         <v>15</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E273" t="n">
         <v>10</v>
@@ -20004,41 +20004,41 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K273" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L273" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="M273" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>361</v>
+        <v>1100</v>
       </c>
       <c r="Q273" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E274" t="n">
         <v>10</v>
@@ -20085,7 +20085,7 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K274" t="n">
         <v>12000</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44160</v>
+        <v>44286</v>
       </c>
       <c r="E275" t="n">
         <v>10</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K275" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L275" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M275" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>400</v>
+        <v>733</v>
       </c>
       <c r="Q275" t="n">
         <v>15</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E276" t="n">
         <v>10</v>
@@ -20220,41 +20220,41 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="K276" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L276" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M276" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>1000</v>
+        <v>361</v>
       </c>
       <c r="Q276" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E277" t="n">
         <v>10</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="K277" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L277" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M277" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="Q277" t="n">
         <v>15</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E278" t="n">
         <v>10</v>
@@ -20364,7 +20364,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20373,32 +20373,32 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K278" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L278" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M278" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="Q278" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E279" t="n">
         <v>10</v>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20445,32 +20445,32 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="K279" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L279" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M279" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q279" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E280" t="n">
         <v>10</v>
@@ -20508,41 +20508,41 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K280" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="L280" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="M280" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>472</v>
+        <v>867</v>
       </c>
       <c r="Q280" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E281" t="n">
         <v>10</v>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20589,32 +20589,32 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K281" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L281" t="n">
         <v>11000</v>
       </c>
       <c r="M281" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="Q281" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E282" t="n">
         <v>10</v>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20661,32 +20661,32 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K282" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L282" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M282" t="n">
-        <v>8250</v>
+        <v>12000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>825</v>
+        <v>800</v>
       </c>
       <c r="Q282" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E283" t="n">
         <v>10</v>
@@ -20724,41 +20724,41 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J283" t="n">
         <v>200</v>
       </c>
       <c r="K283" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L283" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M283" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>533</v>
+        <v>472</v>
       </c>
       <c r="Q283" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E284" t="n">
         <v>10</v>
@@ -20801,24 +20801,24 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K284" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L284" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M284" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -20827,10 +20827,10 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>389</v>
+        <v>700</v>
       </c>
       <c r="Q284" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E285" t="n">
         <v>10</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K285" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L285" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M285" t="n">
-        <v>6750</v>
+        <v>8250</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>675</v>
+        <v>825</v>
       </c>
       <c r="Q285" t="n">
         <v>10</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E286" t="n">
         <v>10</v>
@@ -20952,13 +20952,13 @@
         <v>200</v>
       </c>
       <c r="K286" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L286" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M286" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="Q286" t="n">
         <v>15</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E287" t="n">
         <v>10</v>
@@ -21017,11 +21017,11 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K287" t="n">
         <v>7000</v>
@@ -21034,19 +21034,19 @@
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>467</v>
+        <v>389</v>
       </c>
       <c r="Q287" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E288" t="n">
         <v>10</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K288" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L288" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M288" t="n">
-        <v>11000</v>
+        <v>6750</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>1100</v>
+        <v>675</v>
       </c>
       <c r="Q288" t="n">
         <v>10</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E289" t="n">
         <v>10</v>
@@ -21168,13 +21168,13 @@
         <v>200</v>
       </c>
       <c r="K289" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L289" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M289" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q289" t="n">
         <v>15</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E290" t="n">
         <v>10</v>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21237,32 +21237,32 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K290" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L290" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M290" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P290" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="Q290" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E291" t="n">
         <v>10</v>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21309,32 +21309,32 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K291" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L291" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M291" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>567</v>
+        <v>1100</v>
       </c>
       <c r="Q291" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E292" t="n">
         <v>10</v>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21381,32 +21381,32 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K292" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L292" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M292" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q292" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E293" t="n">
         <v>10</v>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21453,32 +21453,32 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="K293" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L293" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M293" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q293" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E294" t="n">
         <v>10</v>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K294" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L294" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M294" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21543,11 +21543,11 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="Q294" t="n">
         <v>15</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E295" t="n">
         <v>10</v>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21597,32 +21597,32 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="K295" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L295" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M295" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q295" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E296" t="n">
         <v>10</v>
@@ -21672,13 +21672,13 @@
         <v>400</v>
       </c>
       <c r="K296" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L296" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M296" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>933</v>
+        <v>400</v>
       </c>
       <c r="Q296" t="n">
         <v>15</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E297" t="n">
         <v>10</v>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21741,7 +21741,7 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K297" t="n">
         <v>11000</v>
@@ -21759,7 +21759,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P297" t="n">
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44244</v>
+        <v>44410</v>
       </c>
       <c r="E298" t="n">
         <v>10</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K298" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L298" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M298" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q298" t="n">
         <v>15</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E299" t="n">
         <v>10</v>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21885,32 +21885,32 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="K299" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L299" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="M299" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>650</v>
+        <v>933</v>
       </c>
       <c r="Q299" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E300" t="n">
         <v>10</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K300" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L300" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="M300" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>433</v>
+        <v>733</v>
       </c>
       <c r="Q300" t="n">
         <v>15</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E301" t="n">
         <v>10</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K301" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L301" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M301" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22047,11 +22047,11 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>467</v>
+        <v>667</v>
       </c>
       <c r="Q301" t="n">
         <v>15</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E302" t="n">
         <v>10</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22101,32 +22101,32 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K302" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L302" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M302" t="n">
-        <v>8750</v>
+        <v>6500</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="Q302" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E303" t="n">
         <v>10</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K303" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L303" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="M303" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>833</v>
+        <v>433</v>
       </c>
       <c r="Q303" t="n">
         <v>15</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E304" t="n">
         <v>10</v>
@@ -22236,41 +22236,41 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J304" t="n">
         <v>200</v>
       </c>
       <c r="K304" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L304" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M304" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P304" t="n">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="Q304" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E305" t="n">
         <v>10</v>
@@ -22320,13 +22320,13 @@
         <v>300</v>
       </c>
       <c r="K305" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="L305" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M305" t="n">
-        <v>10750</v>
+        <v>8750</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>717</v>
+        <v>583</v>
       </c>
       <c r="Q305" t="n">
         <v>15</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E306" t="n">
         <v>10</v>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22389,32 +22389,32 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K306" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L306" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M306" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P306" t="n">
-        <v>1100</v>
+        <v>833</v>
       </c>
       <c r="Q306" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E307" t="n">
         <v>10</v>
@@ -22452,41 +22452,41 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K307" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L307" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M307" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P307" t="n">
-        <v>800</v>
+        <v>472</v>
       </c>
       <c r="Q307" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E308" t="n">
         <v>10</v>
@@ -22524,41 +22524,41 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K308" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L308" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M308" t="n">
-        <v>8000</v>
+        <v>10750</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P308" t="n">
-        <v>444</v>
+        <v>717</v>
       </c>
       <c r="Q308" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E309" t="n">
         <v>10</v>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22605,32 +22605,32 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K309" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L309" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M309" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>533</v>
+        <v>1100</v>
       </c>
       <c r="Q309" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E310" t="n">
         <v>10</v>
@@ -22673,24 +22673,24 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K310" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L310" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M310" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -22699,10 +22699,10 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>361</v>
+        <v>800</v>
       </c>
       <c r="Q310" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E311" t="n">
         <v>10</v>
@@ -22740,29 +22740,29 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K311" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L311" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M311" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -22771,10 +22771,10 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="Q311" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E312" t="n">
         <v>10</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K312" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L312" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M312" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>967</v>
+        <v>533</v>
       </c>
       <c r="Q312" t="n">
         <v>15</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E313" t="n">
         <v>10</v>
@@ -22884,41 +22884,41 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K313" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L313" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M313" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>733</v>
+        <v>361</v>
       </c>
       <c r="Q313" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E314" t="n">
         <v>10</v>
@@ -22961,24 +22961,24 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K314" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L314" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M314" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -22987,10 +22987,10 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="Q314" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E315" t="n">
         <v>10</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K315" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L315" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M315" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="Q315" t="n">
         <v>15</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E316" t="n">
         <v>10</v>
@@ -23100,41 +23100,41 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K316" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L316" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M316" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>500</v>
+        <v>733</v>
       </c>
       <c r="Q316" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23172,43 +23172,259 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J317" t="n">
+        <v>90</v>
+      </c>
+      <c r="K317" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L317" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M317" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P317" t="n">
+        <v>625</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>12</v>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>4</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D318" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E318" t="n">
+        <v>10</v>
+      </c>
+      <c r="F318" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J318" t="n">
+        <v>300</v>
+      </c>
+      <c r="K318" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L318" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M318" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P318" t="n">
+        <v>733</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>15</v>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>4</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D319" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E319" t="n">
+        <v>10</v>
+      </c>
+      <c r="F319" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J319" t="n">
+        <v>100</v>
+      </c>
+      <c r="K319" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L319" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M319" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P319" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>18</v>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>4</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D320" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E320" t="n">
+        <v>10</v>
+      </c>
+      <c r="F320" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
           <t>Marina</t>
         </is>
       </c>
-      <c r="I317" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J317" t="n">
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J320" t="n">
         <v>150</v>
       </c>
-      <c r="K317" t="n">
+      <c r="K320" t="n">
         <v>9000</v>
       </c>
-      <c r="L317" t="n">
+      <c r="L320" t="n">
         <v>9000</v>
       </c>
-      <c r="M317" t="n">
+      <c r="M320" t="n">
         <v>9000</v>
       </c>
-      <c r="N317" t="inlineStr">
+      <c r="N320" t="inlineStr">
         <is>
           <t>$/caja 15 unidades</t>
         </is>
       </c>
-      <c r="O317" t="inlineStr">
+      <c r="O320" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P317" t="n">
+      <c r="P320" t="n">
         <v>600</v>
       </c>
-      <c r="Q317" t="n">
+      <c r="Q320" t="n">
         <v>15</v>
       </c>
-      <c r="R317" t="inlineStr">
+      <c r="R320" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R320"/>
+  <dimension ref="A1:R323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E136" t="n">
         <v>10</v>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10149,32 +10149,32 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K136" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L136" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M136" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q136" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44225</v>
+        <v>44467</v>
       </c>
       <c r="E137" t="n">
         <v>10</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K137" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L137" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M137" t="n">
-        <v>10000</v>
+        <v>12556</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>667</v>
+        <v>837</v>
       </c>
       <c r="Q137" t="n">
         <v>15</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44434</v>
+        <v>44467</v>
       </c>
       <c r="E138" t="n">
         <v>10</v>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10293,20 +10293,20 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K138" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L138" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M138" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="Q138" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E139" t="n">
         <v>10</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K139" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L139" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M139" t="n">
-        <v>15600</v>
+        <v>12000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>1040</v>
+        <v>800</v>
       </c>
       <c r="Q139" t="n">
         <v>15</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44327</v>
+        <v>44225</v>
       </c>
       <c r="E140" t="n">
         <v>10</v>
@@ -10428,7 +10428,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10437,32 +10437,32 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="K140" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L140" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M140" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="Q140" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E141" t="n">
         <v>10</v>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10509,32 +10509,32 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K141" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L141" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M141" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q141" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E142" t="n">
         <v>10</v>
@@ -10572,7 +10572,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K142" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L142" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M142" t="n">
-        <v>9000</v>
+        <v>15600</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10599,11 +10599,11 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>600</v>
+        <v>1040</v>
       </c>
       <c r="Q142" t="n">
         <v>15</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E143" t="n">
         <v>10</v>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10653,32 +10653,32 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K143" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L143" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M143" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>667</v>
+        <v>1100</v>
       </c>
       <c r="Q143" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44399</v>
+        <v>44327</v>
       </c>
       <c r="E144" t="n">
         <v>10</v>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10725,32 +10725,32 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K144" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L144" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M144" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q144" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44399</v>
+        <v>44327</v>
       </c>
       <c r="E145" t="n">
         <v>10</v>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K145" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L145" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M145" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q145" t="n">
         <v>15</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44452</v>
+        <v>44321</v>
       </c>
       <c r="E146" t="n">
         <v>10</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K146" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L146" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M146" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="Q146" t="n">
         <v>15</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44218</v>
+        <v>44399</v>
       </c>
       <c r="E147" t="n">
         <v>10</v>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10941,32 +10941,32 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K147" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L147" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M147" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>533</v>
+        <v>1100</v>
       </c>
       <c r="Q147" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44218</v>
+        <v>44399</v>
       </c>
       <c r="E148" t="n">
         <v>10</v>
@@ -11009,24 +11009,24 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K148" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L148" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M148" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>361</v>
+        <v>800</v>
       </c>
       <c r="Q148" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44383</v>
+        <v>44452</v>
       </c>
       <c r="E149" t="n">
         <v>10</v>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11085,32 +11085,32 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K149" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L149" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M149" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>1100</v>
+        <v>933</v>
       </c>
       <c r="Q149" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E150" t="n">
         <v>10</v>
@@ -11148,41 +11148,41 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K150" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L150" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M150" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>625</v>
+        <v>533</v>
       </c>
       <c r="Q150" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E151" t="n">
         <v>10</v>
@@ -11225,24 +11225,24 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K151" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L151" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M151" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11251,10 +11251,10 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>800</v>
+        <v>361</v>
       </c>
       <c r="Q151" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11292,29 +11292,29 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K152" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L152" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M152" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>444</v>
+        <v>1100</v>
       </c>
       <c r="Q152" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E153" t="n">
         <v>10</v>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11373,32 +11373,32 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K153" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L153" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M153" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>389</v>
+        <v>625</v>
       </c>
       <c r="Q153" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44405</v>
+        <v>44383</v>
       </c>
       <c r="E154" t="n">
         <v>10</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K154" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L154" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M154" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="Q154" t="n">
         <v>15</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44246</v>
+        <v>44383</v>
       </c>
       <c r="E155" t="n">
         <v>10</v>
@@ -11508,41 +11508,41 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J155" t="n">
         <v>250</v>
       </c>
       <c r="K155" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L155" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M155" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q155" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44161</v>
+        <v>44223</v>
       </c>
       <c r="E156" t="n">
         <v>10</v>
@@ -11580,41 +11580,41 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K156" t="n">
         <v>7000</v>
       </c>
       <c r="L156" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M156" t="n">
-        <v>7556</v>
+        <v>7000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>756</v>
+        <v>389</v>
       </c>
       <c r="Q156" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E157" t="n">
         <v>10</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K157" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L157" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M157" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>433</v>
+        <v>867</v>
       </c>
       <c r="Q157" t="n">
         <v>15</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44407</v>
+        <v>44246</v>
       </c>
       <c r="E158" t="n">
         <v>10</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K158" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L158" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M158" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q158" t="n">
         <v>15</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E159" t="n">
         <v>10</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11805,20 +11805,20 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K159" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L159" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M159" t="n">
-        <v>11000</v>
+        <v>7556</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11827,10 +11827,10 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>733</v>
+        <v>756</v>
       </c>
       <c r="Q159" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44193</v>
+        <v>44161</v>
       </c>
       <c r="E160" t="n">
         <v>10</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K160" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L160" t="n">
         <v>7000</v>
       </c>
       <c r="M160" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="Q160" t="n">
         <v>15</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E161" t="n">
         <v>10</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K161" t="n">
         <v>12000</v>
       </c>
       <c r="L161" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="M161" t="n">
-        <v>12250</v>
+        <v>12000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="Q161" t="n">
         <v>15</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44341</v>
+        <v>44407</v>
       </c>
       <c r="E162" t="n">
         <v>10</v>
@@ -12012,29 +12012,29 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="K162" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L162" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M162" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -12043,10 +12043,10 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>625</v>
+        <v>733</v>
       </c>
       <c r="Q162" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44341</v>
+        <v>44193</v>
       </c>
       <c r="E163" t="n">
         <v>10</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K163" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L163" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M163" t="n">
-        <v>12000</v>
+        <v>6750</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="Q163" t="n">
         <v>15</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -12156,41 +12156,41 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="K164" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L164" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="M164" t="n">
-        <v>8500</v>
+        <v>12250</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>472</v>
+        <v>817</v>
       </c>
       <c r="Q164" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E165" t="n">
         <v>10</v>
@@ -12228,41 +12228,41 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="K165" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L165" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M165" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>733</v>
+        <v>625</v>
       </c>
       <c r="Q165" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44426</v>
+        <v>44341</v>
       </c>
       <c r="E166" t="n">
         <v>10</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K166" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L166" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M166" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q166" t="n">
         <v>15</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44328</v>
+        <v>44341</v>
       </c>
       <c r="E167" t="n">
         <v>10</v>
@@ -12372,41 +12372,41 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K167" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L167" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M167" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>800</v>
+        <v>472</v>
       </c>
       <c r="Q167" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44400</v>
+        <v>44274</v>
       </c>
       <c r="E168" t="n">
         <v>10</v>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12453,7 +12453,7 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="K168" t="n">
         <v>11000</v>
@@ -12466,19 +12466,19 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q168" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E169" t="n">
         <v>10</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K169" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L169" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M169" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q169" t="n">
         <v>15</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E170" t="n">
         <v>10</v>
@@ -12588,7 +12588,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K170" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L170" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M170" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12615,11 +12615,11 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q170" t="n">
         <v>15</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E171" t="n">
         <v>10</v>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12669,32 +12669,32 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="K171" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L171" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M171" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q171" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E172" t="n">
         <v>10</v>
@@ -12732,41 +12732,41 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K172" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L172" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M172" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q172" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44442</v>
+        <v>44400</v>
       </c>
       <c r="E173" t="n">
         <v>10</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12813,20 +12813,20 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="K173" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L173" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M173" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="Q173" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K174" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L174" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M174" t="n">
-        <v>13250</v>
+        <v>12000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>883</v>
+        <v>800</v>
       </c>
       <c r="Q174" t="n">
         <v>15</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E175" t="n">
         <v>10</v>
@@ -12953,24 +12953,24 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K175" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L175" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M175" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12979,10 +12979,10 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q175" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44309</v>
+        <v>44442</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -13020,7 +13020,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -13029,32 +13029,32 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K176" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L176" t="n">
         <v>10000</v>
       </c>
       <c r="M176" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>633</v>
+        <v>1000</v>
       </c>
       <c r="Q176" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44200</v>
+        <v>44442</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K177" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="L177" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M177" t="n">
-        <v>10000</v>
+        <v>13250</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>667</v>
+        <v>883</v>
       </c>
       <c r="Q177" t="n">
         <v>15</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44208</v>
+        <v>44442</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -13164,41 +13164,41 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K178" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L178" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M178" t="n">
-        <v>6750</v>
+        <v>10000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>375</v>
+        <v>667</v>
       </c>
       <c r="Q178" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44448</v>
+        <v>44309</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -13236,7 +13236,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13245,32 +13245,32 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="K179" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L179" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M179" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>1100</v>
+        <v>633</v>
       </c>
       <c r="Q179" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44448</v>
+        <v>44200</v>
       </c>
       <c r="E180" t="n">
         <v>10</v>
@@ -13320,13 +13320,13 @@
         <v>250</v>
       </c>
       <c r="K180" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L180" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="M180" t="n">
-        <v>13300</v>
+        <v>10000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>887</v>
+        <v>667</v>
       </c>
       <c r="Q180" t="n">
         <v>15</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44214</v>
+        <v>44208</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -13389,7 +13389,7 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K181" t="n">
         <v>6500</v>
@@ -13398,7 +13398,7 @@
         <v>7000</v>
       </c>
       <c r="M181" t="n">
-        <v>6700</v>
+        <v>6750</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q181" t="n">
         <v>18</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44354</v>
+        <v>44448</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="K182" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L182" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M182" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Q182" t="n">
         <v>10</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44354</v>
+        <v>44448</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K183" t="n">
         <v>13000</v>
       </c>
       <c r="L183" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M183" t="n">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>867</v>
+        <v>887</v>
       </c>
       <c r="Q183" t="n">
         <v>15</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44370</v>
+        <v>44214</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -13601,24 +13601,24 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K184" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L184" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M184" t="n">
-        <v>12000</v>
+        <v>6700</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -13627,10 +13627,10 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>800</v>
+        <v>372</v>
       </c>
       <c r="Q184" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44285</v>
+        <v>44354</v>
       </c>
       <c r="E185" t="n">
         <v>10</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="K185" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L185" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M185" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q185" t="n">
         <v>10</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44285</v>
+        <v>44354</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K186" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L186" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M186" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="Q186" t="n">
         <v>15</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44167</v>
+        <v>44370</v>
       </c>
       <c r="E187" t="n">
         <v>10</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K187" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L187" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M187" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="Q187" t="n">
         <v>15</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44210</v>
+        <v>44285</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K188" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L188" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M188" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q188" t="n">
         <v>10</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44210</v>
+        <v>44285</v>
       </c>
       <c r="E189" t="n">
         <v>10</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K189" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L189" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M189" t="n">
-        <v>8267</v>
+        <v>11000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>551</v>
+        <v>733</v>
       </c>
       <c r="Q189" t="n">
         <v>15</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -14033,36 +14033,36 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="K190" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L190" t="n">
         <v>7000</v>
       </c>
       <c r="M190" t="n">
-        <v>6733</v>
+        <v>7000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>374</v>
+        <v>467</v>
       </c>
       <c r="Q190" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -14109,32 +14109,32 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K191" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L191" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M191" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P191" t="n">
         <v>800</v>
       </c>
       <c r="Q191" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E192" t="n">
         <v>10</v>
@@ -14172,41 +14172,41 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K192" t="n">
         <v>8000</v>
       </c>
       <c r="L192" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M192" t="n">
-        <v>8000</v>
+        <v>8267</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>444</v>
+        <v>551</v>
       </c>
       <c r="Q192" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44217</v>
+        <v>44210</v>
       </c>
       <c r="E193" t="n">
         <v>10</v>
@@ -14244,41 +14244,41 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K193" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L193" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M193" t="n">
-        <v>8500</v>
+        <v>6733</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>850</v>
+        <v>374</v>
       </c>
       <c r="Q193" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E194" t="n">
         <v>10</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K194" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L194" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M194" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q194" t="n">
         <v>15</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -14388,7 +14388,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K195" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L195" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M195" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q195" t="n">
         <v>18</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K196" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L196" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M196" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>1100</v>
+        <v>850</v>
       </c>
       <c r="Q196" t="n">
         <v>10</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E197" t="n">
         <v>10</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K197" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L197" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M197" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>733</v>
+        <v>533</v>
       </c>
       <c r="Q197" t="n">
         <v>15</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44350</v>
+        <v>44217</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -14604,41 +14604,41 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K198" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L198" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M198" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>1000</v>
+        <v>389</v>
       </c>
       <c r="Q198" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14685,32 +14685,32 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K199" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L199" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M199" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q199" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44418</v>
+        <v>44266</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -14748,7 +14748,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14757,32 +14757,32 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K200" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L200" t="n">
         <v>11000</v>
       </c>
       <c r="M200" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>1050</v>
+        <v>733</v>
       </c>
       <c r="Q200" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44418</v>
+        <v>44350</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14829,20 +14829,20 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="K201" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="L201" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M201" t="n">
-        <v>14250</v>
+        <v>10000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -14851,10 +14851,10 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="Q201" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44460</v>
+        <v>44350</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K202" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L202" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M202" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q202" t="n">
         <v>15</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E203" t="n">
         <v>10</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K203" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L203" t="n">
         <v>11000</v>
       </c>
       <c r="M203" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="Q203" t="n">
         <v>10</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -15048,13 +15048,13 @@
         <v>400</v>
       </c>
       <c r="K204" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="L204" t="n">
         <v>15000</v>
       </c>
       <c r="M204" t="n">
-        <v>14500</v>
+        <v>14250</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>967</v>
+        <v>950</v>
       </c>
       <c r="Q204" t="n">
         <v>15</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44165</v>
+        <v>44460</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -15120,13 +15120,13 @@
         <v>300</v>
       </c>
       <c r="K205" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L205" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M205" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15135,11 +15135,11 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>433</v>
+        <v>600</v>
       </c>
       <c r="Q205" t="n">
         <v>15</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K206" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L206" t="n">
         <v>11000</v>
       </c>
       <c r="M206" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="Q206" t="n">
         <v>10</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -15261,7 +15261,7 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K207" t="n">
         <v>14000</v>
@@ -15270,7 +15270,7 @@
         <v>15000</v>
       </c>
       <c r="M207" t="n">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="Q207" t="n">
         <v>15</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44172</v>
+        <v>44165</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15333,32 +15333,32 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="K208" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L208" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M208" t="n">
         <v>6500</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>650</v>
+        <v>433</v>
       </c>
       <c r="Q208" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15405,32 +15405,32 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K209" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L209" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M209" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>467</v>
+        <v>1050</v>
       </c>
       <c r="Q209" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44466</v>
+        <v>44427</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15477,32 +15477,32 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K210" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L210" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M210" t="n">
-        <v>9000</v>
+        <v>14400</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="Q210" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15549,32 +15549,32 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="K211" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L211" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="M211" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>867</v>
+        <v>650</v>
       </c>
       <c r="Q211" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15624,13 +15624,13 @@
         <v>200</v>
       </c>
       <c r="K212" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L212" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M212" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="Q212" t="n">
         <v>15</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="K213" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L213" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M213" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="Q213" t="n">
         <v>10</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K214" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L214" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M214" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="Q214" t="n">
         <v>15</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K215" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L215" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M215" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="Q215" t="n">
         <v>15</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -15900,7 +15900,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15909,7 +15909,7 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K216" t="n">
         <v>11000</v>
@@ -15922,19 +15922,19 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q216" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44201</v>
+        <v>44249</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -16053,32 +16053,32 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K218" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L218" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M218" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="Q218" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="K219" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L219" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M219" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>567</v>
+        <v>733</v>
       </c>
       <c r="Q219" t="n">
         <v>15</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -16193,24 +16193,24 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J220" t="n">
         <v>150</v>
       </c>
       <c r="K220" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L220" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M220" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -16219,10 +16219,10 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>389</v>
+        <v>800</v>
       </c>
       <c r="Q220" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K221" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L221" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M221" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="Q221" t="n">
         <v>10</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K222" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L222" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M222" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="Q222" t="n">
         <v>15</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44447</v>
+        <v>44201</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -16409,24 +16409,24 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K223" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L223" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M223" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -16435,10 +16435,10 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>933</v>
+        <v>389</v>
       </c>
       <c r="Q223" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -16476,7 +16476,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -16485,7 +16485,7 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K224" t="n">
         <v>11000</v>
@@ -16498,19 +16498,19 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q224" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44260</v>
+        <v>44280</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K225" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L225" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M225" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q225" t="n">
         <v>15</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K226" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L226" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M226" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="Q226" t="n">
         <v>15</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44312</v>
+        <v>44270</v>
       </c>
       <c r="E227" t="n">
         <v>10</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K227" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L227" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M227" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>633</v>
+        <v>733</v>
       </c>
       <c r="Q227" t="n">
         <v>15</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44187</v>
+        <v>44260</v>
       </c>
       <c r="E228" t="n">
         <v>10</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K228" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L228" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M228" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16791,11 +16791,11 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>433</v>
+        <v>800</v>
       </c>
       <c r="Q228" t="n">
         <v>15</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44390</v>
+        <v>44267</v>
       </c>
       <c r="E229" t="n">
         <v>10</v>
@@ -16836,7 +16836,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16845,7 +16845,7 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="K229" t="n">
         <v>11000</v>
@@ -16858,19 +16858,19 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q229" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E230" t="n">
         <v>10</v>
@@ -16908,41 +16908,41 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K230" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L230" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M230" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>667</v>
+        <v>633</v>
       </c>
       <c r="Q230" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K231" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L231" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M231" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17007,11 +17007,11 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>800</v>
+        <v>433</v>
       </c>
       <c r="Q231" t="n">
         <v>15</v>
@@ -17052,29 +17052,29 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K232" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L232" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M232" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>444</v>
+        <v>1100</v>
       </c>
       <c r="Q232" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -17129,24 +17129,24 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K233" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L233" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M233" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -17155,10 +17155,10 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="Q233" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -17280,13 +17280,13 @@
         <v>250</v>
       </c>
       <c r="K235" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L235" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M235" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="Q235" t="n">
         <v>18</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17352,29 +17352,29 @@
         <v>120</v>
       </c>
       <c r="K236" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L236" t="n">
         <v>11000</v>
       </c>
       <c r="M236" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="Q236" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K237" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L237" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M237" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q237" t="n">
         <v>15</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -17484,29 +17484,29 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K238" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="L238" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M238" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -17515,10 +17515,10 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>900</v>
+        <v>472</v>
       </c>
       <c r="Q238" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="K239" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L239" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M239" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q239" t="n">
         <v>15</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K240" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L240" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M240" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="Q240" t="n">
         <v>15</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17709,32 +17709,32 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K241" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L241" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M241" t="n">
-        <v>8250</v>
+        <v>9000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="Q241" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17781,32 +17781,32 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="K242" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L242" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M242" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q242" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K243" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L243" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M243" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17871,11 +17871,11 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="Q243" t="n">
         <v>15</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K244" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L244" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M244" t="n">
-        <v>10000</v>
+        <v>8250</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>667</v>
+        <v>550</v>
       </c>
       <c r="Q244" t="n">
         <v>15</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -17997,32 +17997,32 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K245" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L245" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M245" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>667</v>
+        <v>1100</v>
       </c>
       <c r="Q245" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E246" t="n">
         <v>10</v>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18069,32 +18069,32 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K246" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L246" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M246" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1200</v>
+        <v>733</v>
       </c>
       <c r="Q246" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K247" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L247" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M247" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="Q247" t="n">
         <v>15</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18213,32 +18213,32 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K248" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L248" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M248" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="Q248" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18285,32 +18285,32 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K249" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L249" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M249" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>433</v>
+        <v>1200</v>
       </c>
       <c r="Q249" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E250" t="n">
         <v>10</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K250" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L250" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M250" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18375,11 +18375,11 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>467</v>
+        <v>733</v>
       </c>
       <c r="Q250" t="n">
         <v>15</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -18429,7 +18429,7 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K251" t="n">
         <v>7000</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K252" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L252" t="n">
         <v>7000</v>
       </c>
       <c r="M252" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18519,11 +18519,11 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="Q252" t="n">
         <v>15</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -18564,7 +18564,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18573,32 +18573,32 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K253" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L253" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M253" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>1100</v>
+        <v>467</v>
       </c>
       <c r="Q253" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18645,32 +18645,32 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="K254" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L254" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M254" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q254" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E255" t="n">
         <v>10</v>
@@ -18708,41 +18708,41 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K255" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L255" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M255" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="Q255" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18789,32 +18789,32 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K256" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L256" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M256" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Q256" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E257" t="n">
         <v>10</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J257" t="n">
         <v>400</v>
       </c>
       <c r="K257" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L257" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M257" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="Q257" t="n">
         <v>15</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E258" t="n">
         <v>10</v>
@@ -18924,29 +18924,29 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K258" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L258" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M258" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>1200</v>
+        <v>444</v>
       </c>
       <c r="Q258" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K259" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L259" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M259" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="Q259" t="n">
         <v>15</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E260" t="n">
         <v>10</v>
@@ -19068,7 +19068,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -19077,32 +19077,32 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K260" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L260" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M260" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="Q260" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
@@ -19145,24 +19145,24 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K261" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L261" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M261" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>625</v>
+        <v>1200</v>
       </c>
       <c r="Q261" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E262" t="n">
         <v>10</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K262" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L262" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M262" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="Q262" t="n">
         <v>15</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E263" t="n">
         <v>10</v>
@@ -19289,24 +19289,24 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K263" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L263" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M263" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -19315,10 +19315,10 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>567</v>
+        <v>444</v>
       </c>
       <c r="Q263" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
@@ -19356,41 +19356,41 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="K264" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L264" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M264" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="Q264" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E265" t="n">
         <v>10</v>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K265" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L265" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M265" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,11 +19455,11 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="Q265" t="n">
         <v>15</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44363</v>
+        <v>44316</v>
       </c>
       <c r="E266" t="n">
         <v>10</v>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K266" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L266" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M266" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>800</v>
+        <v>567</v>
       </c>
       <c r="Q266" t="n">
         <v>15</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E267" t="n">
         <v>10</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K267" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L267" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M267" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q267" t="n">
         <v>15</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44291</v>
+        <v>44397</v>
       </c>
       <c r="E268" t="n">
         <v>10</v>
@@ -19644,7 +19644,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K268" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L268" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M268" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="Q268" t="n">
         <v>15</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E269" t="n">
         <v>10</v>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19725,32 +19725,32 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K269" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L269" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M269" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q269" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E270" t="n">
         <v>10</v>
@@ -19797,7 +19797,7 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K270" t="n">
         <v>11000</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E271" t="n">
         <v>10</v>
@@ -19860,7 +19860,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19869,7 +19869,7 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K271" t="n">
         <v>11000</v>
@@ -19882,19 +19882,19 @@
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q271" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E272" t="n">
         <v>10</v>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19941,32 +19941,32 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="K272" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L272" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M272" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="Q272" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E273" t="n">
         <v>10</v>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -20026,19 +20026,19 @@
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q273" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E274" t="n">
         <v>10</v>
@@ -20076,7 +20076,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -20085,32 +20085,32 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="K274" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L274" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M274" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q274" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E275" t="n">
         <v>10</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K275" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L275" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M275" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="Q275" t="n">
         <v>15</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E276" t="n">
         <v>10</v>
@@ -20220,41 +20220,41 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K276" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L276" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="M276" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>361</v>
+        <v>1100</v>
       </c>
       <c r="Q276" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E277" t="n">
         <v>10</v>
@@ -20301,7 +20301,7 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K277" t="n">
         <v>12000</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44160</v>
+        <v>44286</v>
       </c>
       <c r="E278" t="n">
         <v>10</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K278" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L278" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M278" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>400</v>
+        <v>733</v>
       </c>
       <c r="Q278" t="n">
         <v>15</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E279" t="n">
         <v>10</v>
@@ -20436,41 +20436,41 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="K279" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L279" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M279" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>1000</v>
+        <v>361</v>
       </c>
       <c r="Q279" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E280" t="n">
         <v>10</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="K280" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L280" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M280" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="Q280" t="n">
         <v>15</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E281" t="n">
         <v>10</v>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20589,32 +20589,32 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K281" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L281" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M281" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="Q281" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E282" t="n">
         <v>10</v>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20661,32 +20661,32 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="K282" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L282" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M282" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q282" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E283" t="n">
         <v>10</v>
@@ -20724,41 +20724,41 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K283" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="L283" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="M283" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>472</v>
+        <v>867</v>
       </c>
       <c r="Q283" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E284" t="n">
         <v>10</v>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20805,32 +20805,32 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K284" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L284" t="n">
         <v>11000</v>
       </c>
       <c r="M284" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="Q284" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E285" t="n">
         <v>10</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20877,32 +20877,32 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K285" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L285" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M285" t="n">
-        <v>8250</v>
+        <v>12000</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>825</v>
+        <v>800</v>
       </c>
       <c r="Q285" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E286" t="n">
         <v>10</v>
@@ -20940,41 +20940,41 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J286" t="n">
         <v>200</v>
       </c>
       <c r="K286" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L286" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M286" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>533</v>
+        <v>472</v>
       </c>
       <c r="Q286" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E287" t="n">
         <v>10</v>
@@ -21017,24 +21017,24 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K287" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L287" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M287" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>389</v>
+        <v>700</v>
       </c>
       <c r="Q287" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E288" t="n">
         <v>10</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K288" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L288" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M288" t="n">
-        <v>6750</v>
+        <v>8250</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>675</v>
+        <v>825</v>
       </c>
       <c r="Q288" t="n">
         <v>10</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E289" t="n">
         <v>10</v>
@@ -21168,13 +21168,13 @@
         <v>200</v>
       </c>
       <c r="K289" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L289" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M289" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="Q289" t="n">
         <v>15</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E290" t="n">
         <v>10</v>
@@ -21233,11 +21233,11 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K290" t="n">
         <v>7000</v>
@@ -21250,19 +21250,19 @@
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P290" t="n">
-        <v>467</v>
+        <v>389</v>
       </c>
       <c r="Q290" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E291" t="n">
         <v>10</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K291" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L291" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M291" t="n">
-        <v>11000</v>
+        <v>6750</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>1100</v>
+        <v>675</v>
       </c>
       <c r="Q291" t="n">
         <v>10</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E292" t="n">
         <v>10</v>
@@ -21384,13 +21384,13 @@
         <v>200</v>
       </c>
       <c r="K292" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L292" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M292" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q292" t="n">
         <v>15</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E293" t="n">
         <v>10</v>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21453,32 +21453,32 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K293" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L293" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M293" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="Q293" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E294" t="n">
         <v>10</v>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21525,32 +21525,32 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K294" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L294" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M294" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>567</v>
+        <v>1100</v>
       </c>
       <c r="Q294" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E295" t="n">
         <v>10</v>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21597,32 +21597,32 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K295" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L295" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M295" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q295" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E296" t="n">
         <v>10</v>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21669,32 +21669,32 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="K296" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L296" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M296" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P296" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q296" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E297" t="n">
         <v>10</v>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K297" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L297" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M297" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21759,11 +21759,11 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="Q297" t="n">
         <v>15</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E298" t="n">
         <v>10</v>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21813,32 +21813,32 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="K298" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L298" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M298" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q298" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E299" t="n">
         <v>10</v>
@@ -21888,13 +21888,13 @@
         <v>400</v>
       </c>
       <c r="K299" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L299" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M299" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>933</v>
+        <v>400</v>
       </c>
       <c r="Q299" t="n">
         <v>15</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E300" t="n">
         <v>10</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21957,7 +21957,7 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K300" t="n">
         <v>11000</v>
@@ -21975,7 +21975,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P300" t="n">
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44244</v>
+        <v>44410</v>
       </c>
       <c r="E301" t="n">
         <v>10</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K301" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L301" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M301" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q301" t="n">
         <v>15</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E302" t="n">
         <v>10</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22101,32 +22101,32 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="K302" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L302" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="M302" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>650</v>
+        <v>933</v>
       </c>
       <c r="Q302" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E303" t="n">
         <v>10</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K303" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L303" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="M303" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>433</v>
+        <v>733</v>
       </c>
       <c r="Q303" t="n">
         <v>15</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E304" t="n">
         <v>10</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K304" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L304" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M304" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22263,11 +22263,11 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P304" t="n">
-        <v>467</v>
+        <v>667</v>
       </c>
       <c r="Q304" t="n">
         <v>15</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E305" t="n">
         <v>10</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22317,32 +22317,32 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K305" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L305" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M305" t="n">
-        <v>8750</v>
+        <v>6500</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="Q305" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E306" t="n">
         <v>10</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K306" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L306" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="M306" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>833</v>
+        <v>433</v>
       </c>
       <c r="Q306" t="n">
         <v>15</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E307" t="n">
         <v>10</v>
@@ -22452,41 +22452,41 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J307" t="n">
         <v>200</v>
       </c>
       <c r="K307" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L307" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M307" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P307" t="n">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="Q307" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E308" t="n">
         <v>10</v>
@@ -22536,13 +22536,13 @@
         <v>300</v>
       </c>
       <c r="K308" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="L308" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M308" t="n">
-        <v>10750</v>
+        <v>8750</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>717</v>
+        <v>583</v>
       </c>
       <c r="Q308" t="n">
         <v>15</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E309" t="n">
         <v>10</v>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22605,32 +22605,32 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K309" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L309" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M309" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>1100</v>
+        <v>833</v>
       </c>
       <c r="Q309" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E310" t="n">
         <v>10</v>
@@ -22668,41 +22668,41 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K310" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L310" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M310" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>800</v>
+        <v>472</v>
       </c>
       <c r="Q310" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E311" t="n">
         <v>10</v>
@@ -22740,41 +22740,41 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K311" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L311" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M311" t="n">
-        <v>8000</v>
+        <v>10750</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P311" t="n">
-        <v>444</v>
+        <v>717</v>
       </c>
       <c r="Q311" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E312" t="n">
         <v>10</v>
@@ -22812,7 +22812,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22821,32 +22821,32 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K312" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L312" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M312" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>533</v>
+        <v>1100</v>
       </c>
       <c r="Q312" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E313" t="n">
         <v>10</v>
@@ -22889,24 +22889,24 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K313" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L313" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M313" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>361</v>
+        <v>800</v>
       </c>
       <c r="Q313" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E314" t="n">
         <v>10</v>
@@ -22956,29 +22956,29 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K314" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L314" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M314" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -22987,10 +22987,10 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="Q314" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E315" t="n">
         <v>10</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K315" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L315" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M315" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>967</v>
+        <v>533</v>
       </c>
       <c r="Q315" t="n">
         <v>15</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E316" t="n">
         <v>10</v>
@@ -23100,41 +23100,41 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K316" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L316" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M316" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>733</v>
+        <v>361</v>
       </c>
       <c r="Q316" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E317" t="n">
         <v>10</v>
@@ -23177,24 +23177,24 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K317" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L317" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M317" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="Q317" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E318" t="n">
         <v>10</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K318" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L318" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M318" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="Q318" t="n">
         <v>15</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E319" t="n">
         <v>10</v>
@@ -23316,41 +23316,41 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K319" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L319" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M319" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>500</v>
+        <v>733</v>
       </c>
       <c r="Q319" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23388,43 +23388,259 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J320" t="n">
+        <v>90</v>
+      </c>
+      <c r="K320" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L320" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M320" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P320" t="n">
+        <v>625</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>12</v>
+      </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>4</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D321" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E321" t="n">
+        <v>10</v>
+      </c>
+      <c r="F321" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J321" t="n">
+        <v>300</v>
+      </c>
+      <c r="K321" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L321" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M321" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P321" t="n">
+        <v>733</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>15</v>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>4</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D322" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E322" t="n">
+        <v>10</v>
+      </c>
+      <c r="F322" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J322" t="n">
+        <v>100</v>
+      </c>
+      <c r="K322" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L322" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M322" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P322" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>18</v>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>4</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D323" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E323" t="n">
+        <v>10</v>
+      </c>
+      <c r="F323" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
           <t>Marina</t>
         </is>
       </c>
-      <c r="I320" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J320" t="n">
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J323" t="n">
         <v>150</v>
       </c>
-      <c r="K320" t="n">
+      <c r="K323" t="n">
         <v>9000</v>
       </c>
-      <c r="L320" t="n">
+      <c r="L323" t="n">
         <v>9000</v>
       </c>
-      <c r="M320" t="n">
+      <c r="M323" t="n">
         <v>9000</v>
       </c>
-      <c r="N320" t="inlineStr">
+      <c r="N323" t="inlineStr">
         <is>
           <t>$/caja 15 unidades</t>
         </is>
       </c>
-      <c r="O320" t="inlineStr">
+      <c r="O323" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P320" t="n">
+      <c r="P323" t="n">
         <v>600</v>
       </c>
-      <c r="Q320" t="n">
+      <c r="Q323" t="n">
         <v>15</v>
       </c>
-      <c r="R320" t="inlineStr">
+      <c r="R323" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R323"/>
+  <dimension ref="A1:R324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E230" t="n">
         <v>10</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K230" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L230" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M230" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>633</v>
+        <v>800</v>
       </c>
       <c r="Q230" t="n">
         <v>15</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K231" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L231" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M231" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17007,11 +17007,11 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>433</v>
+        <v>633</v>
       </c>
       <c r="Q231" t="n">
         <v>15</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -17061,32 +17061,32 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K232" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L232" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M232" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>1100</v>
+        <v>433</v>
       </c>
       <c r="Q232" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17129,24 +17129,24 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K233" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L233" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M233" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -17155,10 +17155,10 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>667</v>
+        <v>1100</v>
       </c>
       <c r="Q233" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17196,41 +17196,41 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K234" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L234" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M234" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q234" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17268,41 +17268,41 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K235" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L235" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M235" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="Q235" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -17340,29 +17340,29 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K236" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L236" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M236" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>1100</v>
+        <v>444</v>
       </c>
       <c r="Q236" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17421,32 +17421,32 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K237" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L237" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M237" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q237" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17484,41 +17484,41 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K238" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L238" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M238" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>472</v>
+        <v>800</v>
       </c>
       <c r="Q238" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -17556,41 +17556,41 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K239" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L239" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M239" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>700</v>
+        <v>472</v>
       </c>
       <c r="Q239" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K240" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L240" t="n">
         <v>11000</v>
       </c>
       <c r="M240" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="Q240" t="n">
         <v>15</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17709,32 +17709,32 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K241" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L241" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M241" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>900</v>
+        <v>733</v>
       </c>
       <c r="Q241" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17781,32 +17781,32 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="K242" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L242" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M242" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q242" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K243" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L243" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M243" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17871,11 +17871,11 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q243" t="n">
         <v>15</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K244" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L244" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M244" t="n">
-        <v>8250</v>
+        <v>9000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q244" t="n">
         <v>15</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -17997,32 +17997,32 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K245" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L245" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M245" t="n">
-        <v>11000</v>
+        <v>8250</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="Q245" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18069,7 +18069,7 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K246" t="n">
         <v>11000</v>
@@ -18082,19 +18082,19 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q246" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K247" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L247" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M247" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="Q247" t="n">
         <v>15</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -18213,7 +18213,7 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K248" t="n">
         <v>10000</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18285,32 +18285,32 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K249" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L249" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M249" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="Q249" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18357,32 +18357,32 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K250" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L250" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M250" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>733</v>
+        <v>1200</v>
       </c>
       <c r="Q250" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18429,32 +18429,32 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K251" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L251" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M251" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="Q251" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18501,32 +18501,32 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K252" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L252" t="n">
         <v>7000</v>
       </c>
       <c r="M252" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>433</v>
+        <v>700</v>
       </c>
       <c r="Q252" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K253" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L253" t="n">
         <v>7000</v>
       </c>
       <c r="M253" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18591,11 +18591,11 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="Q253" t="n">
         <v>15</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18645,7 +18645,7 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K254" t="n">
         <v>7000</v>
@@ -18658,19 +18658,19 @@
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="Q254" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18717,7 +18717,7 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K255" t="n">
         <v>7000</v>
@@ -18730,19 +18730,19 @@
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q255" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18789,32 +18789,32 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K256" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L256" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M256" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1100</v>
+        <v>467</v>
       </c>
       <c r="Q256" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18861,32 +18861,32 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K257" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L257" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M257" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q257" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18924,41 +18924,41 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K258" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L258" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M258" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="Q258" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -18996,41 +18996,41 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K259" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L259" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M259" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="Q259" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E260" t="n">
         <v>10</v>
@@ -19073,20 +19073,20 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K260" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L260" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M260" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>467</v>
+        <v>1000</v>
       </c>
       <c r="Q260" t="n">
         <v>15</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
@@ -19140,41 +19140,41 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="K261" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L261" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M261" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>1200</v>
+        <v>467</v>
       </c>
       <c r="Q261" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -19221,32 +19221,32 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="K262" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L262" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M262" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="Q262" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19284,41 +19284,41 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K263" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L263" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M263" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>444</v>
+        <v>867</v>
       </c>
       <c r="Q263" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
@@ -19356,7 +19356,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19365,20 +19365,20 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K264" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L264" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M264" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>625</v>
+        <v>444</v>
       </c>
       <c r="Q264" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19428,41 +19428,41 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K265" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L265" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M265" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="Q265" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K266" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L266" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M266" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>567</v>
+        <v>667</v>
       </c>
       <c r="Q266" t="n">
         <v>15</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E267" t="n">
         <v>10</v>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="K267" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L267" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M267" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19599,11 +19599,11 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>800</v>
+        <v>567</v>
       </c>
       <c r="Q267" t="n">
         <v>15</v>
@@ -19644,7 +19644,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K268" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L268" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M268" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q268" t="n">
         <v>15</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E269" t="n">
         <v>10</v>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K269" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L269" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M269" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,11 +19743,11 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q269" t="n">
         <v>15</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E270" t="n">
         <v>10</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K270" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L270" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M270" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q270" t="n">
         <v>15</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E271" t="n">
         <v>10</v>
@@ -19869,7 +19869,7 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K271" t="n">
         <v>11000</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E272" t="n">
         <v>10</v>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19941,7 +19941,7 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="K272" t="n">
         <v>11000</v>
@@ -19954,19 +19954,19 @@
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q272" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -20013,7 +20013,7 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K273" t="n">
         <v>11000</v>
@@ -20026,19 +20026,19 @@
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q273" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E274" t="n">
         <v>10</v>
@@ -20076,7 +20076,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -20085,7 +20085,7 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K274" t="n">
         <v>11000</v>
@@ -20098,19 +20098,19 @@
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q274" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -20157,32 +20157,32 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="K275" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L275" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M275" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="Q275" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E276" t="n">
         <v>10</v>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20229,32 +20229,32 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K276" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L276" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M276" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>1100</v>
+        <v>967</v>
       </c>
       <c r="Q276" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -20301,32 +20301,32 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K277" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L277" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M277" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q277" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E278" t="n">
         <v>10</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K278" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L278" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M278" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q278" t="n">
         <v>15</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E279" t="n">
         <v>10</v>
@@ -20441,24 +20441,24 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K279" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L279" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="M279" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>361</v>
+        <v>733</v>
       </c>
       <c r="Q279" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E280" t="n">
         <v>10</v>
@@ -20513,24 +20513,24 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K280" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L280" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M280" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>800</v>
+        <v>361</v>
       </c>
       <c r="Q280" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E281" t="n">
         <v>10</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K281" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L281" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M281" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q281" t="n">
         <v>15</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E282" t="n">
         <v>10</v>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20661,32 +20661,32 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K282" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L282" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M282" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q282" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20733,32 +20733,32 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="K283" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L283" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M283" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="Q283" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E284" t="n">
         <v>10</v>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20805,32 +20805,32 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="K284" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L284" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M284" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>1100</v>
+        <v>867</v>
       </c>
       <c r="Q284" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20877,32 +20877,32 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K285" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L285" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M285" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q285" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20940,41 +20940,41 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K286" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L286" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M286" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>472</v>
+        <v>800</v>
       </c>
       <c r="Q286" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E287" t="n">
         <v>10</v>
@@ -21012,41 +21012,41 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K287" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L287" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M287" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>700</v>
+        <v>472</v>
       </c>
       <c r="Q287" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E288" t="n">
         <v>10</v>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -21093,32 +21093,32 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K288" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L288" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M288" t="n">
-        <v>8250</v>
+        <v>10500</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>825</v>
+        <v>700</v>
       </c>
       <c r="Q288" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -21165,32 +21165,32 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K289" t="n">
         <v>8000</v>
       </c>
       <c r="L289" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M289" t="n">
-        <v>8000</v>
+        <v>8250</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>533</v>
+        <v>825</v>
       </c>
       <c r="Q289" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21233,24 +21233,24 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K290" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L290" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M290" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>389</v>
+        <v>533</v>
       </c>
       <c r="Q290" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E291" t="n">
         <v>10</v>
@@ -21300,41 +21300,41 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="K291" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L291" t="n">
         <v>7000</v>
       </c>
       <c r="M291" t="n">
-        <v>6750</v>
+        <v>7000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>675</v>
+        <v>389</v>
       </c>
       <c r="Q291" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21381,32 +21381,32 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K292" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L292" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M292" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="Q292" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K293" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L293" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M293" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21471,11 +21471,11 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="Q293" t="n">
         <v>15</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E294" t="n">
         <v>10</v>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21525,32 +21525,32 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K294" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L294" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M294" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>1100</v>
+        <v>467</v>
       </c>
       <c r="Q294" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21597,32 +21597,32 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K295" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L295" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M295" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q295" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E296" t="n">
         <v>10</v>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21669,32 +21669,32 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="K296" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L296" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M296" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P296" t="n">
         <v>800</v>
       </c>
       <c r="Q296" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21741,32 +21741,32 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="K297" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L297" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M297" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>567</v>
+        <v>800</v>
       </c>
       <c r="Q297" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E298" t="n">
         <v>10</v>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21813,32 +21813,32 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K298" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L298" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M298" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>700</v>
+        <v>567</v>
       </c>
       <c r="Q298" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21885,32 +21885,32 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="K299" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L299" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M299" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q299" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E300" t="n">
         <v>10</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K300" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L300" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M300" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21975,11 +21975,11 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>733</v>
+        <v>400</v>
       </c>
       <c r="Q300" t="n">
         <v>15</v>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K301" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L301" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M301" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22047,11 +22047,11 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q301" t="n">
         <v>15</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E302" t="n">
         <v>10</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K302" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L302" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M302" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="Q302" t="n">
         <v>15</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E303" t="n">
         <v>10</v>
@@ -22176,13 +22176,13 @@
         <v>400</v>
       </c>
       <c r="K303" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L303" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M303" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="Q303" t="n">
         <v>15</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E304" t="n">
         <v>10</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K304" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L304" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M304" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="Q304" t="n">
         <v>15</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E305" t="n">
         <v>10</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22317,32 +22317,32 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K305" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L305" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M305" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="Q305" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22389,7 +22389,7 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K306" t="n">
         <v>6500</v>
@@ -22402,19 +22402,19 @@
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P306" t="n">
-        <v>433</v>
+        <v>650</v>
       </c>
       <c r="Q306" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K307" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L307" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M307" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22479,11 +22479,11 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P307" t="n">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="Q307" t="n">
         <v>15</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E308" t="n">
         <v>10</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K308" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L308" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M308" t="n">
-        <v>8750</v>
+        <v>7000</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22551,11 +22551,11 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P308" t="n">
-        <v>583</v>
+        <v>467</v>
       </c>
       <c r="Q308" t="n">
         <v>15</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E309" t="n">
         <v>10</v>
@@ -22608,13 +22608,13 @@
         <v>300</v>
       </c>
       <c r="K309" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L309" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M309" t="n">
-        <v>12500</v>
+        <v>8750</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>833</v>
+        <v>583</v>
       </c>
       <c r="Q309" t="n">
         <v>15</v>
@@ -22668,41 +22668,41 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K310" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L310" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="M310" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>472</v>
+        <v>833</v>
       </c>
       <c r="Q310" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E311" t="n">
         <v>10</v>
@@ -22740,41 +22740,41 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K311" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="L311" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M311" t="n">
-        <v>10750</v>
+        <v>8500</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P311" t="n">
-        <v>717</v>
+        <v>472</v>
       </c>
       <c r="Q311" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E312" t="n">
         <v>10</v>
@@ -22812,7 +22812,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22821,32 +22821,32 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K312" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="L312" t="n">
         <v>11000</v>
       </c>
       <c r="M312" t="n">
-        <v>11000</v>
+        <v>10750</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>1100</v>
+        <v>717</v>
       </c>
       <c r="Q312" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22893,32 +22893,32 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K313" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L313" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M313" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q313" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22956,41 +22956,41 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K314" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L314" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M314" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="Q314" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E315" t="n">
         <v>10</v>
@@ -23028,16 +23028,16 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K315" t="n">
         <v>8000</v>
@@ -23050,19 +23050,19 @@
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="Q315" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23105,24 +23105,24 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K316" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L316" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M316" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>361</v>
+        <v>533</v>
       </c>
       <c r="Q316" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E317" t="n">
         <v>10</v>
@@ -23172,41 +23172,41 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K317" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L317" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M317" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>1000</v>
+        <v>361</v>
       </c>
       <c r="Q317" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -23253,32 +23253,32 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K318" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L318" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M318" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="Q318" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K319" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L319" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M319" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23343,11 +23343,11 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="Q319" t="n">
         <v>15</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E320" t="n">
         <v>10</v>
@@ -23388,29 +23388,29 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K320" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L320" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M320" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -23419,10 +23419,10 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>625</v>
+        <v>733</v>
       </c>
       <c r="Q320" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23460,41 +23460,41 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K321" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L321" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M321" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>733</v>
+        <v>625</v>
       </c>
       <c r="Q321" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23537,24 +23537,24 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K322" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L322" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M322" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>500</v>
+        <v>733</v>
       </c>
       <c r="Q322" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23604,16 +23604,16 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K323" t="n">
         <v>9000</v>
@@ -23626,21 +23626,93 @@
       </c>
       <c r="N323" t="inlineStr">
         <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P323" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>18</v>
+      </c>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>4</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D324" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E324" t="n">
+        <v>10</v>
+      </c>
+      <c r="F324" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J324" t="n">
+        <v>150</v>
+      </c>
+      <c r="K324" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L324" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M324" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
           <t>$/caja 15 unidades</t>
         </is>
       </c>
-      <c r="O323" t="inlineStr">
+      <c r="O324" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P323" t="n">
+      <c r="P324" t="n">
         <v>600</v>
       </c>
-      <c r="Q323" t="n">
+      <c r="Q324" t="n">
         <v>15</v>
       </c>
-      <c r="R323" t="inlineStr">
+      <c r="R324" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R328"/>
+  <dimension ref="A1:R331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E279" t="n">
         <v>10</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K279" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L279" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M279" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="Q279" t="n">
         <v>10</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E280" t="n">
         <v>10</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K280" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L280" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M280" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>967</v>
+        <v>767</v>
       </c>
       <c r="Q280" t="n">
         <v>15</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E281" t="n">
         <v>10</v>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20589,20 +20589,20 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="K281" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L281" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M281" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="Q281" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E282" t="n">
         <v>10</v>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20661,32 +20661,32 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="K282" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L282" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M282" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q282" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E283" t="n">
         <v>10</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K283" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L283" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M283" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="Q283" t="n">
         <v>15</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E284" t="n">
         <v>10</v>
@@ -20796,41 +20796,41 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K284" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L284" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="M284" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>361</v>
+        <v>1100</v>
       </c>
       <c r="Q284" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E285" t="n">
         <v>10</v>
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K285" t="n">
         <v>12000</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44160</v>
+        <v>44286</v>
       </c>
       <c r="E286" t="n">
         <v>10</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K286" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L286" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M286" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>400</v>
+        <v>733</v>
       </c>
       <c r="Q286" t="n">
         <v>15</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E287" t="n">
         <v>10</v>
@@ -21012,41 +21012,41 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="K287" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L287" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M287" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>1000</v>
+        <v>361</v>
       </c>
       <c r="Q287" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E288" t="n">
         <v>10</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="K288" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L288" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M288" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="Q288" t="n">
         <v>15</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E289" t="n">
         <v>10</v>
@@ -21156,7 +21156,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -21165,32 +21165,32 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K289" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L289" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M289" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="Q289" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E290" t="n">
         <v>10</v>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21237,32 +21237,32 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="K290" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L290" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M290" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P290" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q290" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E291" t="n">
         <v>10</v>
@@ -21300,41 +21300,41 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K291" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="L291" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="M291" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>472</v>
+        <v>867</v>
       </c>
       <c r="Q291" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E292" t="n">
         <v>10</v>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21381,32 +21381,32 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K292" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L292" t="n">
         <v>11000</v>
       </c>
       <c r="M292" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="Q292" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E293" t="n">
         <v>10</v>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21453,32 +21453,32 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K293" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L293" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M293" t="n">
-        <v>8250</v>
+        <v>12000</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>825</v>
+        <v>800</v>
       </c>
       <c r="Q293" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E294" t="n">
         <v>10</v>
@@ -21516,41 +21516,41 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J294" t="n">
         <v>200</v>
       </c>
       <c r="K294" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L294" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M294" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>533</v>
+        <v>472</v>
       </c>
       <c r="Q294" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E295" t="n">
         <v>10</v>
@@ -21593,24 +21593,24 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K295" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L295" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M295" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>389</v>
+        <v>700</v>
       </c>
       <c r="Q295" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E296" t="n">
         <v>10</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K296" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L296" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M296" t="n">
-        <v>6750</v>
+        <v>8250</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>675</v>
+        <v>825</v>
       </c>
       <c r="Q296" t="n">
         <v>10</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E297" t="n">
         <v>10</v>
@@ -21744,13 +21744,13 @@
         <v>200</v>
       </c>
       <c r="K297" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L297" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M297" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="Q297" t="n">
         <v>15</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E298" t="n">
         <v>10</v>
@@ -21809,11 +21809,11 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K298" t="n">
         <v>7000</v>
@@ -21826,19 +21826,19 @@
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>467</v>
+        <v>389</v>
       </c>
       <c r="Q298" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E299" t="n">
         <v>10</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K299" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L299" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M299" t="n">
-        <v>11000</v>
+        <v>6750</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>1100</v>
+        <v>675</v>
       </c>
       <c r="Q299" t="n">
         <v>10</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E300" t="n">
         <v>10</v>
@@ -21960,13 +21960,13 @@
         <v>200</v>
       </c>
       <c r="K300" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L300" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M300" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q300" t="n">
         <v>15</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E301" t="n">
         <v>10</v>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -22029,32 +22029,32 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K301" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L301" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M301" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="Q301" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E302" t="n">
         <v>10</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22101,32 +22101,32 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K302" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L302" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M302" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>567</v>
+        <v>1100</v>
       </c>
       <c r="Q302" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E303" t="n">
         <v>10</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22173,32 +22173,32 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K303" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L303" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M303" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P303" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q303" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E304" t="n">
         <v>10</v>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22245,32 +22245,32 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="K304" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L304" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M304" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P304" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q304" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E305" t="n">
         <v>10</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K305" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L305" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M305" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22335,11 +22335,11 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="Q305" t="n">
         <v>15</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E306" t="n">
         <v>10</v>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22389,32 +22389,32 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="K306" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L306" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M306" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P306" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q306" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E307" t="n">
         <v>10</v>
@@ -22464,13 +22464,13 @@
         <v>400</v>
       </c>
       <c r="K307" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L307" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M307" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>933</v>
+        <v>400</v>
       </c>
       <c r="Q307" t="n">
         <v>15</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E308" t="n">
         <v>10</v>
@@ -22524,7 +22524,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22533,7 +22533,7 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K308" t="n">
         <v>11000</v>
@@ -22551,7 +22551,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P308" t="n">
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44244</v>
+        <v>44410</v>
       </c>
       <c r="E309" t="n">
         <v>10</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K309" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L309" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M309" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q309" t="n">
         <v>15</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E310" t="n">
         <v>10</v>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22677,32 +22677,32 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="K310" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L310" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="M310" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>650</v>
+        <v>933</v>
       </c>
       <c r="Q310" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E311" t="n">
         <v>10</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K311" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L311" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="M311" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>433</v>
+        <v>733</v>
       </c>
       <c r="Q311" t="n">
         <v>15</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E312" t="n">
         <v>10</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K312" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L312" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M312" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22839,11 +22839,11 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>467</v>
+        <v>667</v>
       </c>
       <c r="Q312" t="n">
         <v>15</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E313" t="n">
         <v>10</v>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22893,32 +22893,32 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K313" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L313" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M313" t="n">
-        <v>8750</v>
+        <v>6500</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="Q313" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E314" t="n">
         <v>10</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K314" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L314" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="M314" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>833</v>
+        <v>433</v>
       </c>
       <c r="Q314" t="n">
         <v>15</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E315" t="n">
         <v>10</v>
@@ -23028,41 +23028,41 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J315" t="n">
         <v>200</v>
       </c>
       <c r="K315" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L315" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M315" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="Q315" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E316" t="n">
         <v>10</v>
@@ -23112,13 +23112,13 @@
         <v>300</v>
       </c>
       <c r="K316" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="L316" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M316" t="n">
-        <v>10750</v>
+        <v>8750</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>717</v>
+        <v>583</v>
       </c>
       <c r="Q316" t="n">
         <v>15</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E317" t="n">
         <v>10</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23181,32 +23181,32 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K317" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L317" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M317" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>1100</v>
+        <v>833</v>
       </c>
       <c r="Q317" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E318" t="n">
         <v>10</v>
@@ -23244,41 +23244,41 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K318" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L318" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M318" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>800</v>
+        <v>472</v>
       </c>
       <c r="Q318" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E319" t="n">
         <v>10</v>
@@ -23316,41 +23316,41 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K319" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L319" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M319" t="n">
-        <v>8000</v>
+        <v>10750</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>444</v>
+        <v>717</v>
       </c>
       <c r="Q319" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E320" t="n">
         <v>10</v>
@@ -23388,7 +23388,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23397,32 +23397,32 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K320" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L320" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M320" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>533</v>
+        <v>1100</v>
       </c>
       <c r="Q320" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E321" t="n">
         <v>10</v>
@@ -23465,24 +23465,24 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K321" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L321" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M321" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,10 +23491,10 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>361</v>
+        <v>800</v>
       </c>
       <c r="Q321" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E322" t="n">
         <v>10</v>
@@ -23532,29 +23532,29 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K322" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L322" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M322" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="Q322" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E323" t="n">
         <v>10</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K323" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L323" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M323" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>967</v>
+        <v>533</v>
       </c>
       <c r="Q323" t="n">
         <v>15</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E324" t="n">
         <v>10</v>
@@ -23676,41 +23676,41 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K324" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L324" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M324" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>733</v>
+        <v>361</v>
       </c>
       <c r="Q324" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E325" t="n">
         <v>10</v>
@@ -23753,24 +23753,24 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K325" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L325" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M325" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -23779,10 +23779,10 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="Q325" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E326" t="n">
         <v>10</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K326" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L326" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M326" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="Q326" t="n">
         <v>15</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E327" t="n">
         <v>10</v>
@@ -23892,41 +23892,41 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K327" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L327" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M327" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>500</v>
+        <v>733</v>
       </c>
       <c r="Q327" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23964,43 +23964,259 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J328" t="n">
+        <v>90</v>
+      </c>
+      <c r="K328" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L328" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M328" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P328" t="n">
+        <v>625</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>12</v>
+      </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>4</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D329" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E329" t="n">
+        <v>10</v>
+      </c>
+      <c r="F329" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J329" t="n">
+        <v>300</v>
+      </c>
+      <c r="K329" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L329" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M329" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P329" t="n">
+        <v>733</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>15</v>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>4</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D330" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E330" t="n">
+        <v>10</v>
+      </c>
+      <c r="F330" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J330" t="n">
+        <v>100</v>
+      </c>
+      <c r="K330" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L330" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M330" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P330" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>18</v>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>4</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D331" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E331" t="n">
+        <v>10</v>
+      </c>
+      <c r="F331" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
           <t>Marina</t>
         </is>
       </c>
-      <c r="I328" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J328" t="n">
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J331" t="n">
         <v>150</v>
       </c>
-      <c r="K328" t="n">
+      <c r="K331" t="n">
         <v>9000</v>
       </c>
-      <c r="L328" t="n">
+      <c r="L331" t="n">
         <v>9000</v>
       </c>
-      <c r="M328" t="n">
+      <c r="M331" t="n">
         <v>9000</v>
       </c>
-      <c r="N328" t="inlineStr">
+      <c r="N331" t="inlineStr">
         <is>
           <t>$/caja 15 unidades</t>
         </is>
       </c>
-      <c r="O328" t="inlineStr">
+      <c r="O331" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P328" t="n">
+      <c r="P331" t="n">
         <v>600</v>
       </c>
-      <c r="Q328" t="n">
+      <c r="Q331" t="n">
         <v>15</v>
       </c>
-      <c r="R328" t="inlineStr">
+      <c r="R331" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R332"/>
+  <dimension ref="A1:R334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E274" t="n">
         <v>10</v>
@@ -20076,7 +20076,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -20085,32 +20085,32 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K274" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L274" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M274" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q274" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E275" t="n">
         <v>10</v>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -20157,32 +20157,32 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K275" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L275" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M275" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>1100</v>
+        <v>833</v>
       </c>
       <c r="Q275" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E276" t="n">
         <v>10</v>
@@ -20229,7 +20229,7 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K276" t="n">
         <v>12000</v>
@@ -20292,29 +20292,29 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K277" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L277" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M277" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>472</v>
+        <v>1100</v>
       </c>
       <c r="Q277" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E278" t="n">
         <v>10</v>
@@ -20373,7 +20373,7 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="K278" t="n">
         <v>12000</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E279" t="n">
         <v>10</v>
@@ -20436,41 +20436,41 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K279" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L279" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M279" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>800</v>
+        <v>472</v>
       </c>
       <c r="Q279" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E280" t="n">
         <v>10</v>
@@ -20517,7 +20517,7 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K280" t="n">
         <v>12000</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E281" t="n">
         <v>10</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K281" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L281" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M281" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q281" t="n">
         <v>15</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E282" t="n">
         <v>10</v>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20661,32 +20661,32 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K282" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L282" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M282" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q282" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E283" t="n">
         <v>10</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K283" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L283" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M283" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q283" t="n">
         <v>15</v>
@@ -20796,29 +20796,29 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K284" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L284" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M284" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -20827,10 +20827,10 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>444</v>
+        <v>1100</v>
       </c>
       <c r="Q284" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E285" t="n">
         <v>10</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20877,32 +20877,32 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="K285" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L285" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M285" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q285" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E286" t="n">
         <v>10</v>
@@ -20940,41 +20940,41 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J286" t="n">
         <v>200</v>
       </c>
       <c r="K286" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L286" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M286" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="Q286" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E287" t="n">
         <v>10</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K287" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L287" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M287" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="Q287" t="n">
         <v>10</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E288" t="n">
         <v>10</v>
@@ -21096,13 +21096,13 @@
         <v>200</v>
       </c>
       <c r="K288" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L288" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M288" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21111,11 +21111,11 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>733</v>
+        <v>467</v>
       </c>
       <c r="Q288" t="n">
         <v>15</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E289" t="n">
         <v>10</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E290" t="n">
         <v>10</v>
@@ -21240,13 +21240,13 @@
         <v>200</v>
       </c>
       <c r="K290" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L290" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M290" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q290" t="n">
         <v>15</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E291" t="n">
         <v>10</v>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21309,32 +21309,32 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K291" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L291" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M291" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q291" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E292" t="n">
         <v>10</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K292" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L292" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M292" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q292" t="n">
         <v>15</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E293" t="n">
         <v>10</v>
@@ -21449,24 +21449,24 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J293" t="n">
         <v>50</v>
       </c>
       <c r="K293" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L293" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M293" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>389</v>
+        <v>800</v>
       </c>
       <c r="Q293" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E294" t="n">
         <v>10</v>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21525,32 +21525,32 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K294" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L294" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M294" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="Q294" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E295" t="n">
         <v>10</v>
@@ -21593,24 +21593,24 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K295" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L295" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M295" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>733</v>
+        <v>389</v>
       </c>
       <c r="Q295" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E296" t="n">
         <v>10</v>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21669,32 +21669,32 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
       <c r="K296" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L296" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M296" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P296" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q296" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E297" t="n">
         <v>10</v>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K297" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L297" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M297" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21759,11 +21759,11 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="Q297" t="n">
         <v>15</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E298" t="n">
         <v>10</v>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21813,32 +21813,32 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="K298" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L298" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M298" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q298" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E299" t="n">
         <v>10</v>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K299" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L299" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M299" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21903,11 +21903,11 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>967</v>
+        <v>600</v>
       </c>
       <c r="Q299" t="n">
         <v>15</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E300" t="n">
         <v>10</v>
@@ -21957,7 +21957,7 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="K300" t="n">
         <v>11000</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E301" t="n">
         <v>10</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K301" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L301" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M301" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>800</v>
+        <v>967</v>
       </c>
       <c r="Q301" t="n">
         <v>15</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E302" t="n">
         <v>10</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22101,32 +22101,32 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K302" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L302" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M302" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="Q302" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E303" t="n">
         <v>10</v>
@@ -22173,7 +22173,7 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="K303" t="n">
         <v>12000</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E304" t="n">
         <v>10</v>
@@ -22236,16 +22236,16 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K304" t="n">
         <v>9000</v>
@@ -22258,19 +22258,19 @@
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P304" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q304" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E305" t="n">
         <v>10</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22317,32 +22317,32 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="K305" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L305" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M305" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q305" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E306" t="n">
         <v>10</v>
@@ -22380,41 +22380,41 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K306" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L306" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M306" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P306" t="n">
-        <v>967</v>
+        <v>500</v>
       </c>
       <c r="Q306" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22461,20 +22461,20 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K307" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L307" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M307" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="Q307" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E308" t="n">
         <v>10</v>
@@ -22524,7 +22524,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22533,32 +22533,32 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="K308" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L308" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M308" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P308" t="n">
-        <v>1100</v>
+        <v>967</v>
       </c>
       <c r="Q308" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E309" t="n">
         <v>10</v>
@@ -22596,29 +22596,29 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K309" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L309" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M309" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -22627,10 +22627,10 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="Q309" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22677,32 +22677,32 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="K310" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L310" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M310" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q310" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22740,7 +22740,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22749,7 +22749,7 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K311" t="n">
         <v>8000</v>
@@ -22762,7 +22762,7 @@
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -22771,10 +22771,10 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q311" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E312" t="n">
         <v>10</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K312" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L312" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M312" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22839,11 +22839,11 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>433</v>
+        <v>800</v>
       </c>
       <c r="Q312" t="n">
         <v>15</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E313" t="n">
         <v>10</v>
@@ -22884,29 +22884,29 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K313" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L313" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M313" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>900</v>
+        <v>444</v>
       </c>
       <c r="Q313" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E314" t="n">
         <v>10</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K314" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L314" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M314" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22983,11 +22983,11 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>867</v>
+        <v>433</v>
       </c>
       <c r="Q314" t="n">
         <v>15</v>
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -23037,7 +23037,7 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K315" t="n">
         <v>9000</v>
@@ -23050,7 +23050,7 @@
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="Q315" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E316" t="n">
         <v>10</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K316" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L316" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M316" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="Q316" t="n">
         <v>15</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E317" t="n">
         <v>10</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K317" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L317" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M317" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23199,11 +23199,11 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="Q317" t="n">
         <v>15</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E318" t="n">
         <v>10</v>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -23253,7 +23253,7 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K318" t="n">
         <v>11000</v>
@@ -23266,19 +23266,19 @@
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q318" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E319" t="n">
         <v>10</v>
@@ -23328,13 +23328,13 @@
         <v>300</v>
       </c>
       <c r="K319" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L319" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M319" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="Q319" t="n">
         <v>15</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E320" t="n">
         <v>10</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K320" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L320" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M320" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="Q320" t="n">
         <v>10</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E321" t="n">
         <v>10</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K321" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="L321" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="M321" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>567</v>
+        <v>967</v>
       </c>
       <c r="Q321" t="n">
         <v>15</v>
@@ -23532,41 +23532,41 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="K322" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L322" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M322" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>389</v>
+        <v>750</v>
       </c>
       <c r="Q322" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E323" t="n">
         <v>10</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K323" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L323" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M323" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="Q323" t="n">
         <v>15</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E324" t="n">
         <v>10</v>
@@ -23681,24 +23681,24 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K324" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L324" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M324" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -23707,10 +23707,10 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>733</v>
+        <v>389</v>
       </c>
       <c r="Q324" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E325" t="n">
         <v>10</v>
@@ -23748,7 +23748,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23757,32 +23757,32 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="K325" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L325" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M325" t="n">
-        <v>11000</v>
+        <v>6750</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>1100</v>
+        <v>450</v>
       </c>
       <c r="Q325" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E326" t="n">
         <v>10</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K326" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L326" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M326" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q326" t="n">
         <v>15</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E327" t="n">
         <v>10</v>
@@ -23892,7 +23892,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23901,32 +23901,32 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="K327" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L327" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M327" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>633</v>
+        <v>1100</v>
       </c>
       <c r="Q327" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E328" t="n">
         <v>10</v>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23973,32 +23973,32 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K328" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L328" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M328" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q328" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E329" t="n">
         <v>10</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K329" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L329" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M329" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>733</v>
+        <v>633</v>
       </c>
       <c r="Q329" t="n">
         <v>15</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E330" t="n">
         <v>10</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K330" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L330" t="n">
         <v>11000</v>
       </c>
       <c r="M330" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="Q330" t="n">
         <v>10</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E331" t="n">
         <v>10</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K331" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="L331" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M331" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>983</v>
+        <v>733</v>
       </c>
       <c r="Q331" t="n">
         <v>15</v>
@@ -24252,7 +24252,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -24261,34 +24261,178 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K332" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L332" t="n">
         <v>11000</v>
       </c>
       <c r="M332" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P332" t="n">
+        <v>1050</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>10</v>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>4</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D333" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E333" t="n">
+        <v>10</v>
+      </c>
+      <c r="F333" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J333" t="n">
+        <v>400</v>
+      </c>
+      <c r="K333" t="n">
+        <v>14500</v>
+      </c>
+      <c r="L333" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M333" t="n">
+        <v>14750</v>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P333" t="n">
+        <v>983</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>15</v>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>4</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D334" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E334" t="n">
+        <v>10</v>
+      </c>
+      <c r="F334" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J334" t="n">
+        <v>250</v>
+      </c>
+      <c r="K334" t="n">
         <v>11000</v>
       </c>
-      <c r="N332" t="inlineStr">
+      <c r="L334" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M334" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N334" t="inlineStr">
         <is>
           <t>$/caja 15 unidades</t>
         </is>
       </c>
-      <c r="O332" t="inlineStr">
+      <c r="O334" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P332" t="n">
+      <c r="P334" t="n">
         <v>733</v>
       </c>
-      <c r="Q332" t="n">
+      <c r="Q334" t="n">
         <v>15</v>
       </c>
-      <c r="R332" t="inlineStr">
+      <c r="R334" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R339"/>
+  <dimension ref="A1:R340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44449</v>
+        <v>44482</v>
       </c>
       <c r="E143" t="n">
         <v>10</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K143" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L143" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M143" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="Q143" t="n">
         <v>15</v>
@@ -10721,36 +10721,36 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J144" t="n">
         <v>200</v>
       </c>
       <c r="K144" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L144" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M144" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="Q144" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44336</v>
+        <v>44449</v>
       </c>
       <c r="E145" t="n">
         <v>10</v>
@@ -10793,24 +10793,24 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K145" t="n">
         <v>12000</v>
       </c>
       <c r="L145" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="M145" t="n">
-        <v>12250</v>
+        <v>12000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10819,10 +10819,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>817</v>
+        <v>667</v>
       </c>
       <c r="Q145" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E146" t="n">
         <v>10</v>
@@ -10860,7 +10860,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10869,32 +10869,32 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="K146" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L146" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="M146" t="n">
-        <v>11000</v>
+        <v>12250</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>1100</v>
+        <v>817</v>
       </c>
       <c r="Q146" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10941,7 +10941,7 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K147" t="n">
         <v>11000</v>
@@ -10954,19 +10954,19 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q147" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E148" t="n">
         <v>10</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K148" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L148" t="n">
         <v>11000</v>
       </c>
       <c r="M148" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="Q148" t="n">
         <v>15</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E149" t="n">
         <v>10</v>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11085,32 +11085,32 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K149" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L149" t="n">
         <v>11000</v>
       </c>
       <c r="M149" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="Q149" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11157,32 +11157,32 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K150" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L150" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M150" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q150" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E151" t="n">
         <v>10</v>
@@ -11220,7 +11220,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11229,32 +11229,32 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K151" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L151" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M151" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Q151" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11301,32 +11301,32 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="K152" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L152" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M152" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q152" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K153" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L153" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M153" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11391,11 +11391,11 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q153" t="n">
         <v>15</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E154" t="n">
         <v>10</v>
@@ -11436,7 +11436,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11445,20 +11445,20 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K154" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L154" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M154" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -11467,10 +11467,10 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="Q154" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11517,7 +11517,7 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K155" t="n">
         <v>10000</v>
@@ -11530,19 +11530,19 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q155" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E156" t="n">
         <v>10</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="K156" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L156" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M156" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="Q156" t="n">
         <v>15</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44428</v>
+        <v>44265</v>
       </c>
       <c r="E157" t="n">
         <v>10</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>400</v>
+        <v>27</v>
       </c>
       <c r="K157" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L157" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M157" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="Q157" t="n">
         <v>15</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E158" t="n">
         <v>10</v>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11733,32 +11733,32 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="K158" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L158" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M158" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>800</v>
+        <v>967</v>
       </c>
       <c r="Q158" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11796,41 +11796,41 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="K159" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L159" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M159" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>389</v>
+        <v>800</v>
       </c>
       <c r="Q159" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E160" t="n">
         <v>10</v>
@@ -11873,24 +11873,24 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K160" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L160" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M160" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11899,10 +11899,10 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>733</v>
+        <v>389</v>
       </c>
       <c r="Q160" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E161" t="n">
         <v>10</v>
@@ -11952,13 +11952,13 @@
         <v>200</v>
       </c>
       <c r="K161" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L161" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M161" t="n">
-        <v>8750</v>
+        <v>11000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>583</v>
+        <v>733</v>
       </c>
       <c r="Q161" t="n">
         <v>15</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E162" t="n">
         <v>10</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="K162" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L162" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M162" t="n">
-        <v>11000</v>
+        <v>8750</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>733</v>
+        <v>583</v>
       </c>
       <c r="Q162" t="n">
         <v>15</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E163" t="n">
         <v>10</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="K163" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L163" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M163" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q163" t="n">
         <v>15</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K164" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L164" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M164" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>567</v>
+        <v>800</v>
       </c>
       <c r="Q164" t="n">
         <v>15</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E165" t="n">
         <v>10</v>
@@ -12233,24 +12233,24 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K165" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L165" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M165" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -12259,10 +12259,10 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>361</v>
+        <v>567</v>
       </c>
       <c r="Q165" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E166" t="n">
         <v>10</v>
@@ -12305,24 +12305,24 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K166" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L166" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="M166" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -12331,10 +12331,10 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>933</v>
+        <v>361</v>
       </c>
       <c r="Q166" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E167" t="n">
         <v>10</v>
@@ -12372,7 +12372,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -12381,32 +12381,32 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K167" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L167" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M167" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>1100</v>
+        <v>933</v>
       </c>
       <c r="Q167" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12453,32 +12453,32 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K168" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L168" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M168" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="Q168" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12516,41 +12516,41 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K169" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L169" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M169" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>500</v>
+        <v>967</v>
       </c>
       <c r="Q169" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E170" t="n">
         <v>10</v>
@@ -12588,29 +12588,29 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="K170" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L170" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M170" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -12619,10 +12619,10 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="Q170" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12669,7 +12669,7 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K171" t="n">
         <v>11000</v>
@@ -12682,19 +12682,19 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q171" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E172" t="n">
         <v>10</v>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="K172" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L172" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M172" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12759,11 +12759,11 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="Q172" t="n">
         <v>15</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="K173" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L173" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M173" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12831,11 +12831,11 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>567</v>
+        <v>533</v>
       </c>
       <c r="Q173" t="n">
         <v>15</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -12876,41 +12876,41 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K174" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L174" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="M174" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>625</v>
+        <v>567</v>
       </c>
       <c r="Q174" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12948,41 +12948,41 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K175" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L175" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M175" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="Q175" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K176" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L176" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M176" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13047,11 +13047,11 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>567</v>
+        <v>667</v>
       </c>
       <c r="Q176" t="n">
         <v>15</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -13092,7 +13092,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K177" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L177" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M177" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>800</v>
+        <v>567</v>
       </c>
       <c r="Q177" t="n">
         <v>15</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -13164,7 +13164,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13173,32 +13173,32 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K178" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L178" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M178" t="n">
-        <v>6767</v>
+        <v>12000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>677</v>
+        <v>800</v>
       </c>
       <c r="Q178" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13245,32 +13245,32 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K179" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L179" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M179" t="n">
-        <v>6000</v>
+        <v>6767</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>400</v>
+        <v>677</v>
       </c>
       <c r="Q179" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K180" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L180" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M180" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="Q180" t="n">
         <v>15</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K181" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L181" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M181" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>733</v>
+        <v>467</v>
       </c>
       <c r="Q181" t="n">
         <v>15</v>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K182" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L182" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M182" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q182" t="n">
         <v>15</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44467</v>
+        <v>44410</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13533,32 +13533,32 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K183" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L183" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M183" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Q183" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13605,32 +13605,32 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="K184" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L184" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M184" t="n">
-        <v>12556</v>
+        <v>9000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>837</v>
+        <v>900</v>
       </c>
       <c r="Q184" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K185" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L185" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M185" t="n">
-        <v>9000</v>
+        <v>12556</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>600</v>
+        <v>837</v>
       </c>
       <c r="Q185" t="n">
         <v>15</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13749,20 +13749,20 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K186" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L186" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M186" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -13771,10 +13771,10 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="Q186" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R186" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13821,32 +13821,32 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K187" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L187" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M187" t="n">
-        <v>14400</v>
+        <v>10500</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>960</v>
+        <v>1050</v>
       </c>
       <c r="Q187" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -13884,41 +13884,41 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K188" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L188" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M188" t="n">
-        <v>7500</v>
+        <v>14400</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>625</v>
+        <v>960</v>
       </c>
       <c r="Q188" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
@@ -13956,41 +13956,41 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="K189" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L189" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M189" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="Q189" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -14028,41 +14028,41 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J190" t="n">
         <v>150</v>
       </c>
       <c r="K190" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L190" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M190" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P190" t="n">
         <v>667</v>
       </c>
       <c r="Q190" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -14100,41 +14100,41 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K191" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L191" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M191" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q191" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E192" t="n">
         <v>10</v>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -14181,32 +14181,32 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="K192" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L192" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M192" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q192" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14253,7 +14253,7 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K193" t="n">
         <v>11000</v>
@@ -14266,19 +14266,19 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q193" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44411</v>
+        <v>44273</v>
       </c>
       <c r="E194" t="n">
         <v>10</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K194" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L194" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M194" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="Q194" t="n">
         <v>15</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44236</v>
+        <v>44411</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K195" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="L195" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="M195" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>567</v>
+        <v>933</v>
       </c>
       <c r="Q195" t="n">
         <v>15</v>
@@ -14472,13 +14472,13 @@
         <v>200</v>
       </c>
       <c r="K196" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L196" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M196" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="Q196" t="n">
         <v>15</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E197" t="n">
         <v>10</v>
@@ -14532,7 +14532,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14541,32 +14541,32 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K197" t="n">
         <v>8000</v>
       </c>
       <c r="L197" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M197" t="n">
-        <v>8250</v>
+        <v>8000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>825</v>
+        <v>533</v>
       </c>
       <c r="Q197" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14613,32 +14613,32 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K198" t="n">
         <v>8000</v>
       </c>
       <c r="L198" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M198" t="n">
-        <v>8000</v>
+        <v>8250</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>533</v>
+        <v>825</v>
       </c>
       <c r="Q198" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14681,24 +14681,24 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K199" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L199" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M199" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -14707,10 +14707,10 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>389</v>
+        <v>533</v>
       </c>
       <c r="Q199" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -14753,36 +14753,36 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K200" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L200" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M200" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>600</v>
+        <v>389</v>
       </c>
       <c r="Q200" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44403</v>
+        <v>44235</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K201" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L201" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M201" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14847,11 +14847,11 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q201" t="n">
         <v>15</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14901,32 +14901,32 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="K202" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L202" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M202" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P202" t="n">
         <v>800</v>
       </c>
       <c r="Q202" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14973,32 +14973,32 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="K203" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L203" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M203" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>567</v>
+        <v>800</v>
       </c>
       <c r="Q203" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -15045,32 +15045,32 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K204" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L204" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M204" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>1100</v>
+        <v>567</v>
       </c>
       <c r="Q204" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -15117,32 +15117,32 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K205" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L205" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M205" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="Q205" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K206" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L206" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M206" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="Q206" t="n">
         <v>15</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K207" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L207" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M207" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="Q207" t="n">
         <v>15</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15333,32 +15333,32 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K208" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L208" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M208" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q208" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15405,32 +15405,32 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K209" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L209" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M209" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q209" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15477,32 +15477,32 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="K210" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L210" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M210" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q210" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15549,7 +15549,7 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K211" t="n">
         <v>7000</v>
@@ -15562,19 +15562,19 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q211" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15621,32 +15621,32 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K212" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L212" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M212" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>1100</v>
+        <v>467</v>
       </c>
       <c r="Q212" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -15693,32 +15693,32 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K213" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L213" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M213" t="n">
-        <v>15600</v>
+        <v>11000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1040</v>
+        <v>1100</v>
       </c>
       <c r="Q213" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K214" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="L214" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M214" t="n">
-        <v>10750</v>
+        <v>15600</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>717</v>
+        <v>1040</v>
       </c>
       <c r="Q214" t="n">
         <v>15</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15837,32 +15837,32 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K215" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="L215" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M215" t="n">
-        <v>7556</v>
+        <v>10750</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>756</v>
+        <v>717</v>
       </c>
       <c r="Q215" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15909,32 +15909,32 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K216" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L216" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M216" t="n">
-        <v>6500</v>
+        <v>7556</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>433</v>
+        <v>756</v>
       </c>
       <c r="Q216" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -15972,7 +15972,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15981,32 +15981,32 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="K217" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L217" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M217" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>1000</v>
+        <v>433</v>
       </c>
       <c r="Q217" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -16053,32 +16053,32 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="K218" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L218" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M218" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="Q218" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -16121,24 +16121,24 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K219" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="L219" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M219" t="n">
-        <v>6700</v>
+        <v>13000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -16147,10 +16147,10 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>372</v>
+        <v>867</v>
       </c>
       <c r="Q219" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -16188,41 +16188,41 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K220" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L220" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M220" t="n">
-        <v>11000</v>
+        <v>6700</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>1100</v>
+        <v>372</v>
       </c>
       <c r="Q220" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16269,7 +16269,7 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K221" t="n">
         <v>11000</v>
@@ -16282,19 +16282,19 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q221" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -16341,7 +16341,7 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K222" t="n">
         <v>11000</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44229</v>
+        <v>44274</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -16404,7 +16404,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16413,32 +16413,32 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K223" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L223" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M223" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q223" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -16485,32 +16485,32 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K224" t="n">
         <v>8000</v>
       </c>
       <c r="L224" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M224" t="n">
-        <v>8278</v>
+        <v>8000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>552</v>
+        <v>800</v>
       </c>
       <c r="Q224" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K225" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L225" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M225" t="n">
-        <v>12000</v>
+        <v>8278</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>800</v>
+        <v>552</v>
       </c>
       <c r="Q225" t="n">
         <v>15</v>
@@ -16620,41 +16620,41 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K226" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L226" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M226" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="Q226" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E227" t="n">
         <v>10</v>
@@ -16692,41 +16692,41 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K227" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L227" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M227" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="Q227" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K228" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L228" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M228" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16791,11 +16791,11 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q228" t="n">
         <v>15</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E229" t="n">
         <v>10</v>
@@ -16836,7 +16836,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16845,7 +16845,7 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K229" t="n">
         <v>11000</v>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q229" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16917,32 +16917,32 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K230" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L230" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M230" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q230" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16980,41 +16980,41 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K231" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L231" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M231" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="Q231" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -17052,41 +17052,41 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K232" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L232" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M232" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="Q232" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K234" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L234" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M234" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>433</v>
+        <v>800</v>
       </c>
       <c r="Q234" t="n">
         <v>15</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -17268,7 +17268,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -17277,32 +17277,32 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K235" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L235" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M235" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>800</v>
+        <v>433</v>
       </c>
       <c r="Q235" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17352,29 +17352,29 @@
         <v>50</v>
       </c>
       <c r="K236" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L236" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M236" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q236" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K237" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L237" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M237" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17439,11 +17439,11 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>567</v>
+        <v>733</v>
       </c>
       <c r="Q237" t="n">
         <v>15</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -17484,41 +17484,41 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K238" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L238" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="M238" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>625</v>
+        <v>567</v>
       </c>
       <c r="Q238" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17556,41 +17556,41 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K239" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L239" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M239" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="Q239" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K240" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L240" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M240" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="Q240" t="n">
         <v>15</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K241" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L241" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M241" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17727,11 +17727,11 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q241" t="n">
         <v>15</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17781,32 +17781,32 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K242" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L242" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M242" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Q242" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17853,32 +17853,32 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K243" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L243" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M243" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>767</v>
+        <v>900</v>
       </c>
       <c r="Q243" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K244" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L244" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M244" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>600</v>
+        <v>767</v>
       </c>
       <c r="Q244" t="n">
         <v>15</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -17997,20 +17997,20 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="K245" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L245" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M245" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -18019,10 +18019,10 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="Q245" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18069,32 +18069,32 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K246" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L246" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M246" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>733</v>
+        <v>1200</v>
       </c>
       <c r="Q246" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -18144,13 +18144,13 @@
         <v>200</v>
       </c>
       <c r="K247" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L247" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M247" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>567</v>
+        <v>733</v>
       </c>
       <c r="Q247" t="n">
         <v>15</v>
@@ -18209,24 +18209,24 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J248" t="n">
         <v>200</v>
       </c>
       <c r="K248" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L248" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M248" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,10 +18235,10 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>389</v>
+        <v>567</v>
       </c>
       <c r="Q248" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -18276,41 +18276,41 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K249" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L249" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M249" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>1100</v>
+        <v>389</v>
       </c>
       <c r="Q249" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18357,32 +18357,32 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K250" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L250" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M250" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q250" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18420,41 +18420,41 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="K251" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L251" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M251" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="Q251" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -18492,41 +18492,41 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K252" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L252" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M252" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="Q252" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -18576,13 +18576,13 @@
         <v>100</v>
       </c>
       <c r="K253" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L253" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M253" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18591,11 +18591,11 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>800</v>
+        <v>433</v>
       </c>
       <c r="Q253" t="n">
         <v>15</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18648,29 +18648,29 @@
         <v>100</v>
       </c>
       <c r="K254" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L254" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M254" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q254" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18717,32 +18717,32 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K255" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L255" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M255" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q255" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18789,32 +18789,32 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="K256" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L256" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M256" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q256" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18861,32 +18861,32 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="K257" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L257" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M257" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q257" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E258" t="n">
         <v>10</v>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18933,32 +18933,32 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K258" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L258" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M258" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q258" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -19005,32 +19005,32 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="K259" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L259" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="M259" t="n">
-        <v>13300</v>
+        <v>11000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>887</v>
+        <v>1100</v>
       </c>
       <c r="Q259" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E260" t="n">
         <v>10</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K260" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L260" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="M260" t="n">
-        <v>10000</v>
+        <v>13300</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>667</v>
+        <v>887</v>
       </c>
       <c r="Q260" t="n">
         <v>15</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -19149,32 +19149,32 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K261" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L261" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M261" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="Q261" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -19221,32 +19221,32 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K262" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L262" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M262" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q262" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E263" t="n">
         <v>10</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K263" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L263" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M263" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="Q263" t="n">
         <v>15</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
@@ -19361,24 +19361,24 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K264" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L264" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M264" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>389</v>
+        <v>933</v>
       </c>
       <c r="Q264" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44435</v>
+        <v>44202</v>
       </c>
       <c r="E265" t="n">
         <v>10</v>
@@ -19428,41 +19428,41 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>420</v>
+        <v>150</v>
       </c>
       <c r="K265" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L265" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M265" t="n">
-        <v>10810</v>
+        <v>7000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>1081</v>
+        <v>389</v>
       </c>
       <c r="Q265" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19509,32 +19509,32 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>1150</v>
+        <v>420</v>
       </c>
       <c r="K266" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="L266" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M266" t="n">
-        <v>15043</v>
+        <v>10810</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>1003</v>
+        <v>1081</v>
       </c>
       <c r="Q266" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>500</v>
+        <v>1150</v>
       </c>
       <c r="K267" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="L267" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M267" t="n">
-        <v>10500</v>
+        <v>15043</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19599,11 +19599,11 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>700</v>
+        <v>1003</v>
       </c>
       <c r="Q267" t="n">
         <v>15</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E268" t="n">
         <v>10</v>
@@ -19644,7 +19644,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="K268" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L268" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M268" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>567</v>
+        <v>700</v>
       </c>
       <c r="Q268" t="n">
         <v>15</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44433</v>
+        <v>44242</v>
       </c>
       <c r="E269" t="n">
         <v>10</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K269" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="L269" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M269" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>1000</v>
+        <v>567</v>
       </c>
       <c r="Q269" t="n">
         <v>15</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44159</v>
+        <v>44433</v>
       </c>
       <c r="E270" t="n">
         <v>10</v>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19797,32 +19797,32 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K270" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L270" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M270" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q270" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19869,32 +19869,32 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="K271" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L271" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M271" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q271" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E272" t="n">
         <v>10</v>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19941,32 +19941,32 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="K272" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L272" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M272" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q272" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -20013,32 +20013,32 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K273" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L273" t="n">
         <v>7000</v>
       </c>
       <c r="M273" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>433</v>
+        <v>700</v>
       </c>
       <c r="Q273" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K274" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L274" t="n">
         <v>7000</v>
       </c>
       <c r="M274" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20103,11 +20103,11 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="Q274" t="n">
         <v>15</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E275" t="n">
         <v>10</v>
@@ -20148,41 +20148,41 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K275" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L275" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M275" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>625</v>
+        <v>467</v>
       </c>
       <c r="Q275" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20220,41 +20220,41 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K276" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L276" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M276" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="Q276" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20297,24 +20297,24 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K277" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L277" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M277" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q277" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20364,41 +20364,41 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K278" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L278" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M278" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="Q278" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E279" t="n">
         <v>10</v>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20445,20 +20445,20 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K279" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L279" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M279" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="Q279" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20517,32 +20517,32 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K280" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L280" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M280" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="Q280" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E281" t="n">
         <v>10</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K281" t="n">
         <v>12000</v>
       </c>
       <c r="L281" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M281" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="Q281" t="n">
         <v>15</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E282" t="n">
         <v>10</v>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20661,32 +20661,32 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K282" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L282" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M282" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q282" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20733,32 +20733,32 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K283" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L283" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M283" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q283" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20796,41 +20796,41 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K284" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L284" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M284" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>472</v>
+        <v>800</v>
       </c>
       <c r="Q284" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E285" t="n">
         <v>10</v>
@@ -20868,41 +20868,41 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="K285" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L285" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M285" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>800</v>
+        <v>472</v>
       </c>
       <c r="Q285" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E286" t="n">
         <v>10</v>
@@ -20949,7 +20949,7 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K286" t="n">
         <v>12000</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E287" t="n">
         <v>10</v>
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K287" t="n">
         <v>12000</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E288" t="n">
         <v>10</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K288" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L288" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M288" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q288" t="n">
         <v>15</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E289" t="n">
         <v>10</v>
@@ -21156,7 +21156,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -21165,32 +21165,32 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K289" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L289" t="n">
         <v>11000</v>
       </c>
       <c r="M289" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="Q289" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21237,32 +21237,32 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K290" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L290" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M290" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P290" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q290" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21300,41 +21300,41 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K291" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L291" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M291" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="Q291" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E292" t="n">
         <v>10</v>
@@ -21372,29 +21372,29 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="K292" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L292" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M292" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -21403,10 +21403,10 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>650</v>
+        <v>444</v>
       </c>
       <c r="Q292" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21453,32 +21453,32 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K293" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L293" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M293" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>467</v>
+        <v>650</v>
       </c>
       <c r="Q293" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E294" t="n">
         <v>10</v>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21525,32 +21525,32 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K294" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L294" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M294" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>1100</v>
+        <v>467</v>
       </c>
       <c r="Q294" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21597,7 +21597,7 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K295" t="n">
         <v>11000</v>
@@ -21610,19 +21610,19 @@
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q295" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E296" t="n">
         <v>10</v>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21669,7 +21669,7 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K296" t="n">
         <v>11000</v>
@@ -21682,19 +21682,19 @@
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P296" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q296" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21741,32 +21741,32 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K297" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L297" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M297" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q297" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E298" t="n">
         <v>10</v>
@@ -21813,7 +21813,7 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K298" t="n">
         <v>12000</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E299" t="n">
         <v>10</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K299" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L299" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M299" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q299" t="n">
         <v>15</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E300" t="n">
         <v>10</v>
@@ -21953,24 +21953,24 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K300" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L300" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M300" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q300" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E301" t="n">
         <v>10</v>
@@ -22020,41 +22020,41 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K301" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L301" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M301" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>1100</v>
+        <v>389</v>
       </c>
       <c r="Q301" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22101,7 +22101,7 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="K302" t="n">
         <v>11000</v>
@@ -22114,19 +22114,19 @@
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q302" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E303" t="n">
         <v>10</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="K303" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L303" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M303" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q303" t="n">
         <v>15</v>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K304" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L304" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M304" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22263,11 +22263,11 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P304" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q304" t="n">
         <v>15</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E305" t="n">
         <v>10</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22317,20 +22317,20 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K305" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L305" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M305" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="Q305" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22389,32 +22389,32 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K306" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L306" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M306" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P306" t="n">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="Q306" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E307" t="n">
         <v>10</v>
@@ -22452,7 +22452,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22461,32 +22461,32 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>65</v>
+        <v>400</v>
       </c>
       <c r="K307" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L307" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M307" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P307" t="n">
-        <v>1100</v>
+        <v>967</v>
       </c>
       <c r="Q307" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22533,32 +22533,32 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="K308" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L308" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M308" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P308" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q308" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E309" t="n">
         <v>10</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K309" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L309" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M309" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q309" t="n">
         <v>15</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E310" t="n">
         <v>10</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="K310" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L310" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M310" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q310" t="n">
         <v>15</v>
@@ -22740,41 +22740,41 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K311" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L311" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M311" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P311" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q311" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E312" t="n">
         <v>10</v>
@@ -22812,29 +22812,29 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K312" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L312" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M312" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -22843,10 +22843,10 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q312" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22893,32 +22893,32 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K313" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L313" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M313" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="Q313" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K314" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L314" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M314" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22983,11 +22983,11 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="Q314" t="n">
         <v>15</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E315" t="n">
         <v>10</v>
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -23037,7 +23037,7 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K315" t="n">
         <v>11000</v>
@@ -23050,7 +23050,7 @@
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q315" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23105,24 +23105,24 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K316" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L316" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M316" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>667</v>
+        <v>1100</v>
       </c>
       <c r="Q316" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23172,41 +23172,41 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K317" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L317" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M317" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q317" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23244,41 +23244,41 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K318" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L318" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M318" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="Q318" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E319" t="n">
         <v>10</v>
@@ -23316,41 +23316,41 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K319" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L319" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M319" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="Q319" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E320" t="n">
         <v>10</v>
@@ -23388,7 +23388,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23397,32 +23397,32 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K320" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L320" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M320" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>900</v>
+        <v>433</v>
       </c>
       <c r="Q320" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23469,32 +23469,32 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K321" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L321" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M321" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="Q321" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K322" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L322" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M322" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23559,11 +23559,11 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="Q322" t="n">
         <v>15</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E323" t="n">
         <v>10</v>
@@ -23604,7 +23604,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K323" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L323" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M323" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23631,11 +23631,11 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="Q323" t="n">
         <v>15</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E324" t="n">
         <v>10</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K324" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L324" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M324" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="Q324" t="n">
         <v>15</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E325" t="n">
         <v>10</v>
@@ -23748,7 +23748,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23757,32 +23757,32 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="K325" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L325" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M325" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="Q325" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23829,32 +23829,32 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="K326" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L326" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M326" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="Q326" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E327" t="n">
         <v>10</v>
@@ -23892,7 +23892,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23901,32 +23901,32 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K327" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L327" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M327" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>750</v>
+        <v>967</v>
       </c>
       <c r="Q327" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23973,32 +23973,32 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="K328" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L328" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M328" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>567</v>
+        <v>750</v>
       </c>
       <c r="Q328" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24041,24 +24041,24 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J329" t="n">
         <v>150</v>
       </c>
       <c r="K329" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L329" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M329" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>389</v>
+        <v>567</v>
       </c>
       <c r="Q329" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E330" t="n">
         <v>10</v>
@@ -24113,24 +24113,24 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K330" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L330" t="n">
         <v>7000</v>
       </c>
       <c r="M330" t="n">
-        <v>6750</v>
+        <v>7000</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>450</v>
+        <v>389</v>
       </c>
       <c r="Q330" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E331" t="n">
         <v>10</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K331" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L331" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M331" t="n">
-        <v>11000</v>
+        <v>6750</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>733</v>
+        <v>450</v>
       </c>
       <c r="Q331" t="n">
         <v>15</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E332" t="n">
         <v>10</v>
@@ -24252,7 +24252,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -24261,7 +24261,7 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K332" t="n">
         <v>11000</v>
@@ -24274,19 +24274,19 @@
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P332" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q332" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -24333,32 +24333,32 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="K333" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L333" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M333" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q333" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E334" t="n">
         <v>10</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K334" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L334" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M334" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>633</v>
+        <v>800</v>
       </c>
       <c r="Q334" t="n">
         <v>15</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E335" t="n">
         <v>10</v>
@@ -24468,7 +24468,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -24477,32 +24477,32 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="K335" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L335" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M335" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>1100</v>
+        <v>633</v>
       </c>
       <c r="Q335" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24549,7 +24549,7 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="K336" t="n">
         <v>11000</v>
@@ -24562,19 +24562,19 @@
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q336" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E337" t="n">
         <v>10</v>
@@ -24612,7 +24612,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24621,32 +24621,32 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K337" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L337" t="n">
         <v>11000</v>
       </c>
       <c r="M337" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>1050</v>
+        <v>733</v>
       </c>
       <c r="Q337" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24693,32 +24693,32 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K338" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="L338" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M338" t="n">
-        <v>14750</v>
+        <v>10500</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P338" t="n">
-        <v>983</v>
+        <v>1050</v>
       </c>
       <c r="Q338" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K339" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="L339" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M339" t="n">
-        <v>11000</v>
+        <v>14750</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24783,16 +24783,88 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P339" t="n">
-        <v>733</v>
+        <v>983</v>
       </c>
       <c r="Q339" t="n">
         <v>15</v>
       </c>
       <c r="R339" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>4</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D340" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E340" t="n">
+        <v>10</v>
+      </c>
+      <c r="F340" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J340" t="n">
+        <v>250</v>
+      </c>
+      <c r="K340" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L340" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M340" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P340" t="n">
+        <v>733</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>15</v>
+      </c>
+      <c r="R340" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R340"/>
+  <dimension ref="A1:R343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E149" t="n">
         <v>10</v>
@@ -11076,41 +11076,41 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K149" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L149" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M149" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="Q149" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44330</v>
+        <v>44483</v>
       </c>
       <c r="E150" t="n">
         <v>10</v>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11157,20 +11157,20 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="K150" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L150" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="M150" t="n">
-        <v>11000</v>
+        <v>9200</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>1100</v>
+        <v>613</v>
       </c>
       <c r="Q150" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44330</v>
+        <v>44483</v>
       </c>
       <c r="E151" t="n">
         <v>10</v>
@@ -11220,41 +11220,41 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K151" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L151" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M151" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>800</v>
+        <v>389</v>
       </c>
       <c r="Q151" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E152" t="n">
         <v>10</v>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11304,29 +11304,29 @@
         <v>120</v>
       </c>
       <c r="K152" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L152" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M152" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="Q152" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E153" t="n">
         <v>10</v>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11373,32 +11373,32 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>450</v>
+        <v>90</v>
       </c>
       <c r="K153" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L153" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M153" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q153" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E154" t="n">
         <v>10</v>
@@ -11436,7 +11436,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11448,13 +11448,13 @@
         <v>300</v>
       </c>
       <c r="K154" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L154" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M154" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11463,11 +11463,11 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q154" t="n">
         <v>15</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E155" t="n">
         <v>10</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K155" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L155" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M155" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q155" t="n">
         <v>10</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E156" t="n">
         <v>10</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="K156" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L156" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M156" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q156" t="n">
         <v>15</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44265</v>
+        <v>44463</v>
       </c>
       <c r="E157" t="n">
         <v>10</v>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>27</v>
+        <v>300</v>
       </c>
       <c r="K157" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L157" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M157" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11679,11 +11679,11 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="Q157" t="n">
         <v>15</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44428</v>
+        <v>44322</v>
       </c>
       <c r="E158" t="n">
         <v>10</v>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11733,32 +11733,32 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K158" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L158" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M158" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="Q158" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44224</v>
+        <v>44322</v>
       </c>
       <c r="E159" t="n">
         <v>10</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11805,32 +11805,32 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K159" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L159" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M159" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q159" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E160" t="n">
         <v>10</v>
@@ -11873,24 +11873,24 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>300</v>
+        <v>27</v>
       </c>
       <c r="K160" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L160" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M160" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11899,10 +11899,10 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>389</v>
+        <v>733</v>
       </c>
       <c r="Q160" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44264</v>
+        <v>44428</v>
       </c>
       <c r="E161" t="n">
         <v>10</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K161" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L161" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M161" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="Q161" t="n">
         <v>15</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E162" t="n">
         <v>10</v>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -12021,32 +12021,32 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K162" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L162" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M162" t="n">
-        <v>8750</v>
+        <v>8000</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>583</v>
+        <v>800</v>
       </c>
       <c r="Q162" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44293</v>
+        <v>44224</v>
       </c>
       <c r="E163" t="n">
         <v>10</v>
@@ -12089,24 +12089,24 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="K163" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L163" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M163" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -12115,10 +12115,10 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>733</v>
+        <v>389</v>
       </c>
       <c r="Q163" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44343</v>
+        <v>44264</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K164" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L164" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M164" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q164" t="n">
         <v>15</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44195</v>
+        <v>44315</v>
       </c>
       <c r="E165" t="n">
         <v>10</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K165" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L165" t="n">
         <v>9000</v>
       </c>
       <c r="M165" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="Q165" t="n">
         <v>15</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44209</v>
+        <v>44293</v>
       </c>
       <c r="E166" t="n">
         <v>10</v>
@@ -12305,24 +12305,24 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="K166" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L166" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="M166" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -12331,10 +12331,10 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>361</v>
+        <v>733</v>
       </c>
       <c r="Q166" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E167" t="n">
         <v>10</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K167" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L167" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M167" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="Q167" t="n">
         <v>15</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44421</v>
+        <v>44195</v>
       </c>
       <c r="E168" t="n">
         <v>10</v>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12453,32 +12453,32 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K168" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L168" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M168" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>1100</v>
+        <v>567</v>
       </c>
       <c r="Q168" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44421</v>
+        <v>44209</v>
       </c>
       <c r="E169" t="n">
         <v>10</v>
@@ -12521,24 +12521,24 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K169" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L169" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M169" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>967</v>
+        <v>361</v>
       </c>
       <c r="Q169" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E170" t="n">
         <v>10</v>
@@ -12588,41 +12588,41 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K170" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L170" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M170" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>500</v>
+        <v>933</v>
       </c>
       <c r="Q170" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E171" t="n">
         <v>10</v>
@@ -12669,7 +12669,7 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K171" t="n">
         <v>11000</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E172" t="n">
         <v>10</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K172" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L172" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M172" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="Q172" t="n">
         <v>15</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44232</v>
+        <v>44421</v>
       </c>
       <c r="E173" t="n">
         <v>10</v>
@@ -12804,29 +12804,29 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K173" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L173" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M173" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="Q173" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12885,32 +12885,32 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="K174" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L174" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M174" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>567</v>
+        <v>1100</v>
       </c>
       <c r="Q174" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44316</v>
+        <v>44294</v>
       </c>
       <c r="E175" t="n">
         <v>10</v>
@@ -12948,41 +12948,41 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K175" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L175" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M175" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>625</v>
+        <v>733</v>
       </c>
       <c r="Q175" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -13020,7 +13020,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K176" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L176" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M176" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13047,11 +13047,11 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="Q176" t="n">
         <v>15</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -13092,7 +13092,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -13101,7 +13101,7 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K177" t="n">
         <v>8500</v>
@@ -13119,7 +13119,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P177" t="n">
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -13164,41 +13164,41 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K178" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L178" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M178" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="Q178" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44169</v>
+        <v>44316</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -13236,7 +13236,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13245,32 +13245,32 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K179" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L179" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M179" t="n">
-        <v>6767</v>
+        <v>10000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="Q179" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44169</v>
+        <v>44316</v>
       </c>
       <c r="E180" t="n">
         <v>10</v>
@@ -13308,7 +13308,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K180" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L180" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M180" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>400</v>
+        <v>567</v>
       </c>
       <c r="Q180" t="n">
         <v>15</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K181" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L181" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M181" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="Q181" t="n">
         <v>15</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -13461,20 +13461,20 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K182" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L182" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M182" t="n">
-        <v>11000</v>
+        <v>6767</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -13483,10 +13483,10 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>733</v>
+        <v>677</v>
       </c>
       <c r="Q182" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K183" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L183" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M183" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q183" t="n">
         <v>15</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44467</v>
+        <v>44169</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13605,32 +13605,32 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K184" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L184" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M184" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>900</v>
+        <v>467</v>
       </c>
       <c r="Q184" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44467</v>
+        <v>44410</v>
       </c>
       <c r="E185" t="n">
         <v>10</v>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="K185" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L185" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M185" t="n">
-        <v>12556</v>
+        <v>11000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>837</v>
+        <v>733</v>
       </c>
       <c r="Q185" t="n">
         <v>15</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44467</v>
+        <v>44410</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K186" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L186" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M186" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q186" t="n">
         <v>15</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E187" t="n">
         <v>10</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K187" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L187" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M187" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="Q187" t="n">
         <v>10</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K188" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L188" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M188" t="n">
-        <v>14400</v>
+        <v>12556</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>960</v>
+        <v>837</v>
       </c>
       <c r="Q188" t="n">
         <v>15</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44319</v>
+        <v>44467</v>
       </c>
       <c r="E189" t="n">
         <v>10</v>
@@ -13956,29 +13956,29 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="K189" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L189" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M189" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -13987,10 +13987,10 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="Q189" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -14037,32 +14037,32 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K190" t="n">
         <v>10000</v>
       </c>
       <c r="L190" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M190" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>667</v>
+        <v>1050</v>
       </c>
       <c r="Q190" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44473</v>
+        <v>44427</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -14100,41 +14100,41 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K191" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L191" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M191" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>667</v>
+        <v>960</v>
       </c>
       <c r="Q191" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E192" t="n">
         <v>10</v>
@@ -14172,41 +14172,41 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K192" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L192" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M192" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="Q192" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44273</v>
+        <v>44319</v>
       </c>
       <c r="E193" t="n">
         <v>10</v>
@@ -14244,7 +14244,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14253,32 +14253,32 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="K193" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L193" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M193" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="Q193" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E194" t="n">
         <v>10</v>
@@ -14316,41 +14316,41 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K194" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L194" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M194" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="Q194" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44411</v>
+        <v>44473</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K195" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L195" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M195" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="Q195" t="n">
         <v>15</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14469,32 +14469,32 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K196" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L196" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M196" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>567</v>
+        <v>1100</v>
       </c>
       <c r="Q196" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E197" t="n">
         <v>10</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K197" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L197" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M197" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14559,11 +14559,11 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="Q197" t="n">
         <v>15</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44215</v>
+        <v>44411</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14613,32 +14613,32 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K198" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L198" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="M198" t="n">
-        <v>8250</v>
+        <v>14000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>825</v>
+        <v>933</v>
       </c>
       <c r="Q198" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -14688,13 +14688,13 @@
         <v>200</v>
       </c>
       <c r="K199" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L199" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M199" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="Q199" t="n">
         <v>15</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -14753,36 +14753,36 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K200" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L200" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M200" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>389</v>
+        <v>533</v>
       </c>
       <c r="Q200" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14829,32 +14829,32 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K201" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L201" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M201" t="n">
-        <v>9000</v>
+        <v>8250</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>600</v>
+        <v>825</v>
       </c>
       <c r="Q201" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44403</v>
+        <v>44215</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -14904,13 +14904,13 @@
         <v>200</v>
       </c>
       <c r="K202" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L202" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M202" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="Q202" t="n">
         <v>15</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E203" t="n">
         <v>10</v>
@@ -14964,41 +14964,41 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K203" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L203" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M203" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>800</v>
+        <v>389</v>
       </c>
       <c r="Q203" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K204" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L204" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M204" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="Q204" t="n">
         <v>15</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44413</v>
+        <v>44403</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -15117,32 +15117,32 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K205" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L205" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M205" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q205" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -15189,32 +15189,32 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="K206" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L206" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M206" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>967</v>
+        <v>800</v>
       </c>
       <c r="Q206" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44291</v>
+        <v>44203</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K207" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L207" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M207" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="Q207" t="n">
         <v>15</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15333,32 +15333,32 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K208" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L208" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M208" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Q208" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44469</v>
+        <v>44413</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15405,32 +15405,32 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K209" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L209" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M209" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>900</v>
+        <v>967</v>
       </c>
       <c r="Q209" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K210" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L210" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M210" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q210" t="n">
         <v>15</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44168</v>
+        <v>44426</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15549,32 +15549,32 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K211" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L211" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M211" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q211" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15621,32 +15621,32 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K212" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L212" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M212" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>467</v>
+        <v>900</v>
       </c>
       <c r="Q212" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -15684,7 +15684,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -15693,32 +15693,32 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K213" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L213" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M213" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q213" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -15756,7 +15756,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -15765,32 +15765,32 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K214" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L214" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M214" t="n">
-        <v>15600</v>
+        <v>7000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>1040</v>
+        <v>700</v>
       </c>
       <c r="Q214" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K215" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L215" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M215" t="n">
-        <v>10750</v>
+        <v>7000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>717</v>
+        <v>467</v>
       </c>
       <c r="Q215" t="n">
         <v>15</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K216" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L216" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M216" t="n">
-        <v>7556</v>
+        <v>11000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>756</v>
+        <v>1100</v>
       </c>
       <c r="Q216" t="n">
         <v>10</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K217" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L217" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M217" t="n">
-        <v>6500</v>
+        <v>15600</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>433</v>
+        <v>1040</v>
       </c>
       <c r="Q217" t="n">
         <v>15</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44351</v>
+        <v>44292</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -16053,32 +16053,32 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="K218" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="L218" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M218" t="n">
-        <v>10000</v>
+        <v>10750</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>1000</v>
+        <v>717</v>
       </c>
       <c r="Q218" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -16125,32 +16125,32 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="K219" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L219" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M219" t="n">
-        <v>13000</v>
+        <v>7556</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>867</v>
+        <v>756</v>
       </c>
       <c r="Q219" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -16193,24 +16193,24 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K220" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L220" t="n">
         <v>7000</v>
       </c>
       <c r="M220" t="n">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -16219,10 +16219,10 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>372</v>
+        <v>433</v>
       </c>
       <c r="Q220" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K221" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L221" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M221" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q221" t="n">
         <v>10</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K222" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L222" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M222" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="Q222" t="n">
         <v>15</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44274</v>
+        <v>44214</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -16409,24 +16409,24 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J223" t="n">
         <v>250</v>
       </c>
       <c r="K223" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L223" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M223" t="n">
-        <v>11000</v>
+        <v>6700</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -16435,10 +16435,10 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>733</v>
+        <v>372</v>
       </c>
       <c r="Q223" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44229</v>
+        <v>44280</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K224" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L224" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M224" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q224" t="n">
         <v>10</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44229</v>
+        <v>44280</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="K225" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L225" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M225" t="n">
-        <v>8278</v>
+        <v>11000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>552</v>
+        <v>733</v>
       </c>
       <c r="Q225" t="n">
         <v>15</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44344</v>
+        <v>44274</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K226" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L226" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M226" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q226" t="n">
         <v>15</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E227" t="n">
         <v>10</v>
@@ -16692,16 +16692,16 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K227" t="n">
         <v>8000</v>
@@ -16714,7 +16714,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -16723,10 +16723,10 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="Q227" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44407</v>
+        <v>44229</v>
       </c>
       <c r="E228" t="n">
         <v>10</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K228" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L228" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M228" t="n">
-        <v>12000</v>
+        <v>8278</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16791,11 +16791,11 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>800</v>
+        <v>552</v>
       </c>
       <c r="Q228" t="n">
         <v>15</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E229" t="n">
         <v>10</v>
@@ -16836,7 +16836,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K229" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L229" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M229" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16863,11 +16863,11 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q229" t="n">
         <v>15</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44358</v>
+        <v>44344</v>
       </c>
       <c r="E230" t="n">
         <v>10</v>
@@ -16908,29 +16908,29 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K230" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L230" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M230" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1100</v>
+        <v>444</v>
       </c>
       <c r="Q230" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -16989,7 +16989,7 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K231" t="n">
         <v>12000</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -17057,24 +17057,24 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K232" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L232" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M232" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>444</v>
+        <v>733</v>
       </c>
       <c r="Q232" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17136,29 +17136,29 @@
         <v>100</v>
       </c>
       <c r="K233" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L233" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M233" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q233" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -17205,7 +17205,7 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K234" t="n">
         <v>12000</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44165</v>
+        <v>44358</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -17268,41 +17268,41 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K235" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L235" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M235" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="Q235" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44231</v>
+        <v>44391</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17349,32 +17349,32 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K236" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L236" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M236" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P236" t="n">
         <v>800</v>
       </c>
       <c r="Q236" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K237" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L237" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M237" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q237" t="n">
         <v>15</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K238" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L238" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M238" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17511,11 +17511,11 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>567</v>
+        <v>433</v>
       </c>
       <c r="Q238" t="n">
         <v>15</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -17561,24 +17561,24 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K239" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L239" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M239" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -17587,10 +17587,10 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>625</v>
+        <v>800</v>
       </c>
       <c r="Q239" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K240" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L240" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M240" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="Q240" t="n">
         <v>15</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K241" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="L241" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M241" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17727,11 +17727,11 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="Q241" t="n">
         <v>15</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -17772,41 +17772,41 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="K242" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L242" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M242" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="Q242" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17853,32 +17853,32 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K243" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L243" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M243" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>900</v>
+        <v>667</v>
       </c>
       <c r="Q243" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K244" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L244" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M244" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>767</v>
+        <v>600</v>
       </c>
       <c r="Q244" t="n">
         <v>15</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K245" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L245" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M245" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18015,11 +18015,11 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q245" t="n">
         <v>15</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E246" t="n">
         <v>10</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K246" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L246" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M246" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="Q246" t="n">
         <v>10</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K247" t="n">
         <v>11000</v>
       </c>
       <c r="L247" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M247" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>733</v>
+        <v>767</v>
       </c>
       <c r="Q247" t="n">
         <v>15</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44204</v>
+        <v>44474</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K248" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L248" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M248" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="Q248" t="n">
         <v>15</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -18276,41 +18276,41 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K249" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L249" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M249" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>389</v>
+        <v>1200</v>
       </c>
       <c r="Q249" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E250" t="n">
         <v>10</v>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18357,7 +18357,7 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K250" t="n">
         <v>11000</v>
@@ -18370,19 +18370,19 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q250" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="K251" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L251" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M251" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>800</v>
+        <v>567</v>
       </c>
       <c r="Q251" t="n">
         <v>15</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K252" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L252" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M252" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18519,11 +18519,11 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="Q252" t="n">
         <v>18</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -18564,7 +18564,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18576,29 +18576,29 @@
         <v>100</v>
       </c>
       <c r="K253" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L253" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M253" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>433</v>
+        <v>1100</v>
       </c>
       <c r="Q253" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -18645,7 +18645,7 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K254" t="n">
         <v>12000</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44372</v>
+        <v>44362</v>
       </c>
       <c r="E255" t="n">
         <v>10</v>
@@ -18708,29 +18708,29 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K255" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L255" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M255" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>1100</v>
+        <v>444</v>
       </c>
       <c r="Q255" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K256" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L256" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M256" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18807,11 +18807,11 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>800</v>
+        <v>433</v>
       </c>
       <c r="Q256" t="n">
         <v>15</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E257" t="n">
         <v>10</v>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18861,32 +18861,32 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K257" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L257" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M257" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q257" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E258" t="n">
         <v>10</v>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18933,32 +18933,32 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K258" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L258" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M258" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q258" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44448</v>
+        <v>44372</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -19005,32 +19005,32 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="K259" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L259" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M259" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q259" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E260" t="n">
         <v>10</v>
@@ -19068,7 +19068,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -19077,32 +19077,32 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K260" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L260" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="M260" t="n">
-        <v>13300</v>
+        <v>10000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>887</v>
+        <v>1000</v>
       </c>
       <c r="Q260" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44243</v>
+        <v>44350</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K261" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L261" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M261" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q261" t="n">
         <v>15</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E262" t="n">
         <v>10</v>
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K262" t="n">
         <v>11000</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E263" t="n">
         <v>10</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K263" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L263" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="M263" t="n">
-        <v>12000</v>
+        <v>13300</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>800</v>
+        <v>887</v>
       </c>
       <c r="Q263" t="n">
         <v>15</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44452</v>
+        <v>44243</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K264" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L264" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M264" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="Q264" t="n">
         <v>15</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E265" t="n">
         <v>10</v>
@@ -19428,41 +19428,41 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K265" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L265" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M265" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>389</v>
+        <v>1100</v>
       </c>
       <c r="Q265" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E266" t="n">
         <v>10</v>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19509,32 +19509,32 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="K266" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L266" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M266" t="n">
-        <v>10810</v>
+        <v>12000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>1081</v>
+        <v>800</v>
       </c>
       <c r="Q266" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44435</v>
+        <v>44452</v>
       </c>
       <c r="E267" t="n">
         <v>10</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>1150</v>
+        <v>250</v>
       </c>
       <c r="K267" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L267" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M267" t="n">
-        <v>15043</v>
+        <v>14000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>1003</v>
+        <v>933</v>
       </c>
       <c r="Q267" t="n">
         <v>15</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44435</v>
+        <v>44202</v>
       </c>
       <c r="E268" t="n">
         <v>10</v>
@@ -19644,41 +19644,41 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K268" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L268" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M268" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>700</v>
+        <v>389</v>
       </c>
       <c r="Q268" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E269" t="n">
         <v>10</v>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19725,32 +19725,32 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="K269" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L269" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M269" t="n">
-        <v>8500</v>
+        <v>10810</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>567</v>
+        <v>1081</v>
       </c>
       <c r="Q269" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E270" t="n">
         <v>10</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>100</v>
+        <v>1150</v>
       </c>
       <c r="K270" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="L270" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M270" t="n">
-        <v>15000</v>
+        <v>15043</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="Q270" t="n">
         <v>15</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44159</v>
+        <v>44435</v>
       </c>
       <c r="E271" t="n">
         <v>10</v>
@@ -19860,7 +19860,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19869,20 +19869,20 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="K271" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L271" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M271" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -19894,7 +19894,7 @@
         <v>700</v>
       </c>
       <c r="Q271" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44159</v>
+        <v>44242</v>
       </c>
       <c r="E272" t="n">
         <v>10</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K272" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L272" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M272" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>400</v>
+        <v>567</v>
       </c>
       <c r="Q272" t="n">
         <v>15</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44166</v>
+        <v>44433</v>
       </c>
       <c r="E273" t="n">
         <v>10</v>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -20013,32 +20013,32 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K273" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L273" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M273" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q273" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E274" t="n">
         <v>10</v>
@@ -20076,7 +20076,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -20085,32 +20085,32 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K274" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L274" t="n">
         <v>7000</v>
       </c>
       <c r="M274" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>433</v>
+        <v>700</v>
       </c>
       <c r="Q274" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E275" t="n">
         <v>10</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K275" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L275" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M275" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20175,11 +20175,11 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="Q275" t="n">
         <v>15</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E276" t="n">
         <v>10</v>
@@ -20225,24 +20225,24 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K276" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L276" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M276" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="Q276" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E277" t="n">
         <v>10</v>
@@ -20304,13 +20304,13 @@
         <v>300</v>
       </c>
       <c r="K277" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L277" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M277" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>800</v>
+        <v>433</v>
       </c>
       <c r="Q277" t="n">
         <v>15</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E278" t="n">
         <v>10</v>
@@ -20369,36 +20369,36 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J278" t="n">
         <v>150</v>
       </c>
       <c r="K278" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L278" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M278" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="Q278" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20436,29 +20436,29 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K279" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L279" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M279" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="Q279" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E280" t="n">
         <v>10</v>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20517,32 +20517,32 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K280" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L280" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M280" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q280" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E281" t="n">
         <v>10</v>
@@ -20585,24 +20585,24 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K281" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L281" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M281" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="Q281" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44468</v>
+        <v>44334</v>
       </c>
       <c r="E282" t="n">
         <v>10</v>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K282" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L282" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M282" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20679,11 +20679,11 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q282" t="n">
         <v>15</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E283" t="n">
         <v>10</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K283" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L283" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M283" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q283" t="n">
         <v>10</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E284" t="n">
         <v>10</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K284" t="n">
         <v>12000</v>
       </c>
       <c r="L284" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M284" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="Q284" t="n">
         <v>15</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E285" t="n">
         <v>10</v>
@@ -20868,41 +20868,41 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K285" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L285" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M285" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>472</v>
+        <v>800</v>
       </c>
       <c r="Q285" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E286" t="n">
         <v>10</v>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20949,32 +20949,32 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="K286" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L286" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M286" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q286" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E287" t="n">
         <v>10</v>
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K287" t="n">
         <v>12000</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44363</v>
+        <v>44386</v>
       </c>
       <c r="E288" t="n">
         <v>10</v>
@@ -21084,41 +21084,41 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K288" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L288" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M288" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>800</v>
+        <v>472</v>
       </c>
       <c r="Q288" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44306</v>
+        <v>44384</v>
       </c>
       <c r="E289" t="n">
         <v>10</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="K289" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L289" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M289" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q289" t="n">
         <v>15</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44369</v>
+        <v>44263</v>
       </c>
       <c r="E290" t="n">
         <v>10</v>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21237,32 +21237,32 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K290" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L290" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M290" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P290" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q290" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E291" t="n">
         <v>10</v>
@@ -21309,7 +21309,7 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="K291" t="n">
         <v>12000</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E292" t="n">
         <v>10</v>
@@ -21372,41 +21372,41 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K292" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L292" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M292" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>444</v>
+        <v>700</v>
       </c>
       <c r="Q292" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E293" t="n">
         <v>10</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K293" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L293" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="M293" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="Q293" t="n">
         <v>10</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E294" t="n">
         <v>10</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K294" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L294" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M294" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21543,11 +21543,11 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="Q294" t="n">
         <v>15</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E295" t="n">
         <v>10</v>
@@ -21588,29 +21588,29 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K295" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L295" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M295" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>1100</v>
+        <v>444</v>
       </c>
       <c r="Q295" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E296" t="n">
         <v>10</v>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21669,32 +21669,32 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K296" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L296" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M296" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P296" t="n">
-        <v>733</v>
+        <v>650</v>
       </c>
       <c r="Q296" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E297" t="n">
         <v>10</v>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21741,32 +21741,32 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K297" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L297" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M297" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>1100</v>
+        <v>467</v>
       </c>
       <c r="Q297" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E298" t="n">
         <v>10</v>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21813,32 +21813,32 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K298" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L298" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M298" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q298" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E299" t="n">
         <v>10</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K299" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L299" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M299" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q299" t="n">
         <v>15</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E300" t="n">
         <v>10</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21957,32 +21957,32 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K300" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L300" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M300" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>667</v>
+        <v>1100</v>
       </c>
       <c r="Q300" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44223</v>
+        <v>44357</v>
       </c>
       <c r="E301" t="n">
         <v>10</v>
@@ -22025,24 +22025,24 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K301" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L301" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M301" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -22051,10 +22051,10 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>389</v>
+        <v>800</v>
       </c>
       <c r="Q301" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E302" t="n">
         <v>10</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22101,32 +22101,32 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K302" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L302" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M302" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q302" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E303" t="n">
         <v>10</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K303" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L303" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M303" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="Q303" t="n">
         <v>15</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E304" t="n">
         <v>10</v>
@@ -22241,24 +22241,24 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="K304" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L304" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M304" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>800</v>
+        <v>389</v>
       </c>
       <c r="Q304" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E305" t="n">
         <v>10</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22317,20 +22317,20 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="K305" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L305" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M305" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="Q305" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E306" t="n">
         <v>10</v>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22389,7 +22389,7 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K306" t="n">
         <v>11000</v>
@@ -22402,19 +22402,19 @@
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P306" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="Q306" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E307" t="n">
         <v>10</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K307" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L307" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M307" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>967</v>
+        <v>800</v>
       </c>
       <c r="Q307" t="n">
         <v>15</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E308" t="n">
         <v>10</v>
@@ -22524,7 +22524,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22533,20 +22533,20 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="K308" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L308" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M308" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="Q308" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E309" t="n">
         <v>10</v>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22605,32 +22605,32 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K309" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L309" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M309" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q309" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E310" t="n">
         <v>10</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K310" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L310" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M310" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>600</v>
+        <v>967</v>
       </c>
       <c r="Q310" t="n">
         <v>15</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E311" t="n">
         <v>10</v>
@@ -22740,7 +22740,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22749,32 +22749,32 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>350</v>
+        <v>65</v>
       </c>
       <c r="K311" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L311" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M311" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P311" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q311" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E312" t="n">
         <v>10</v>
@@ -22812,41 +22812,41 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K312" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L312" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M312" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q312" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E313" t="n">
         <v>10</v>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22893,32 +22893,32 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K313" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L313" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M313" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="Q313" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E314" t="n">
         <v>10</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K314" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L314" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M314" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>967</v>
+        <v>800</v>
       </c>
       <c r="Q314" t="n">
         <v>15</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E315" t="n">
         <v>10</v>
@@ -23033,24 +23033,24 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K315" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L315" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M315" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>733</v>
+        <v>500</v>
       </c>
       <c r="Q315" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E316" t="n">
         <v>10</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K316" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L316" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M316" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q316" t="n">
         <v>10</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E317" t="n">
         <v>10</v>
@@ -23172,41 +23172,41 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K317" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L317" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M317" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="Q317" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E318" t="n">
         <v>10</v>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K318" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L318" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M318" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23271,11 +23271,11 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q318" t="n">
         <v>15</v>
@@ -23316,29 +23316,29 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K319" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L319" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M319" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>444</v>
+        <v>1100</v>
       </c>
       <c r="Q319" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E320" t="n">
         <v>10</v>
@@ -23388,41 +23388,41 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K320" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L320" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M320" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>433</v>
+        <v>667</v>
       </c>
       <c r="Q320" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E321" t="n">
         <v>10</v>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23469,32 +23469,32 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K321" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L321" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M321" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Q321" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E322" t="n">
         <v>10</v>
@@ -23532,41 +23532,41 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J322" t="n">
         <v>250</v>
       </c>
       <c r="K322" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L322" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M322" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>867</v>
+        <v>444</v>
       </c>
       <c r="Q322" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E323" t="n">
         <v>10</v>
@@ -23604,7 +23604,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K323" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L323" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M323" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23631,11 +23631,11 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>600</v>
+        <v>433</v>
       </c>
       <c r="Q323" t="n">
         <v>15</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E324" t="n">
         <v>10</v>
@@ -23676,7 +23676,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23685,32 +23685,32 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K324" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L324" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M324" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="Q324" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E325" t="n">
         <v>10</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K325" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L325" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M325" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="Q325" t="n">
         <v>15</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E326" t="n">
         <v>10</v>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23829,20 +23829,20 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="K326" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L326" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M326" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -23851,10 +23851,10 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="Q326" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E327" t="n">
         <v>10</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K327" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L327" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M327" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="Q327" t="n">
         <v>15</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E328" t="n">
         <v>10</v>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23973,32 +23973,32 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K328" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L328" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M328" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="Q328" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E329" t="n">
         <v>10</v>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -24045,32 +24045,32 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="K329" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L329" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M329" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>567</v>
+        <v>1100</v>
       </c>
       <c r="Q329" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E330" t="n">
         <v>10</v>
@@ -24113,24 +24113,24 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K330" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L330" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M330" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>389</v>
+        <v>967</v>
       </c>
       <c r="Q330" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E331" t="n">
         <v>10</v>
@@ -24180,7 +24180,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -24189,32 +24189,32 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="K331" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L331" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M331" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="Q331" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E332" t="n">
         <v>10</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K332" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L332" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M332" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="Q332" t="n">
         <v>15</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44389</v>
+        <v>44201</v>
       </c>
       <c r="E333" t="n">
         <v>10</v>
@@ -24324,41 +24324,41 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="K333" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L333" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M333" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>1100</v>
+        <v>389</v>
       </c>
       <c r="Q333" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E334" t="n">
         <v>10</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K334" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L334" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M334" t="n">
-        <v>12000</v>
+        <v>6750</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="Q334" t="n">
         <v>15</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E335" t="n">
         <v>10</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K335" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L335" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M335" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>633</v>
+        <v>733</v>
       </c>
       <c r="Q335" t="n">
         <v>15</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E336" t="n">
         <v>10</v>
@@ -24549,7 +24549,7 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K336" t="n">
         <v>11000</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E337" t="n">
         <v>10</v>
@@ -24624,13 +24624,13 @@
         <v>150</v>
       </c>
       <c r="K337" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L337" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M337" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q337" t="n">
         <v>15</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E338" t="n">
         <v>10</v>
@@ -24684,7 +24684,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24693,32 +24693,32 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K338" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L338" t="n">
         <v>10000</v>
       </c>
-      <c r="L338" t="n">
-        <v>11000</v>
-      </c>
       <c r="M338" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P338" t="n">
-        <v>1050</v>
+        <v>633</v>
       </c>
       <c r="Q338" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E339" t="n">
         <v>10</v>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24765,32 +24765,32 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="K339" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="L339" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M339" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P339" t="n">
-        <v>983</v>
+        <v>1100</v>
       </c>
       <c r="Q339" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E340" t="n">
         <v>10</v>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K340" t="n">
         <v>11000</v>
@@ -24855,7 +24855,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P340" t="n">
@@ -24865,6 +24865,222 @@
         <v>15</v>
       </c>
       <c r="R340" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>4</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D341" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E341" t="n">
+        <v>10</v>
+      </c>
+      <c r="F341" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J341" t="n">
+        <v>160</v>
+      </c>
+      <c r="K341" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L341" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M341" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P341" t="n">
+        <v>1050</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>10</v>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>4</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D342" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E342" t="n">
+        <v>10</v>
+      </c>
+      <c r="F342" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J342" t="n">
+        <v>400</v>
+      </c>
+      <c r="K342" t="n">
+        <v>14500</v>
+      </c>
+      <c r="L342" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M342" t="n">
+        <v>14750</v>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P342" t="n">
+        <v>983</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>15</v>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>4</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D343" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E343" t="n">
+        <v>10</v>
+      </c>
+      <c r="F343" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J343" t="n">
+        <v>250</v>
+      </c>
+      <c r="K343" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L343" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M343" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P343" t="n">
+        <v>733</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>15</v>
+      </c>
+      <c r="R343" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Feria Lagunitas de Puerto Montt - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R343"/>
+  <dimension ref="A1:R345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44447</v>
+        <v>44484</v>
       </c>
       <c r="E170" t="n">
         <v>10</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K170" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L170" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M170" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12615,11 +12615,11 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="Q170" t="n">
         <v>15</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44421</v>
+        <v>44484</v>
       </c>
       <c r="E171" t="n">
         <v>10</v>
@@ -12660,29 +12660,29 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K171" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L171" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M171" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12691,10 +12691,10 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>1100</v>
+        <v>417</v>
       </c>
       <c r="Q171" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E172" t="n">
         <v>10</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K172" t="n">
         <v>14000</v>
       </c>
       <c r="L172" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M172" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>967</v>
+        <v>933</v>
       </c>
       <c r="Q172" t="n">
         <v>15</v>
@@ -12804,29 +12804,29 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K173" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L173" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M173" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="Q173" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12885,32 +12885,32 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="K174" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L174" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M174" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>1100</v>
+        <v>967</v>
       </c>
       <c r="Q174" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E175" t="n">
         <v>10</v>
@@ -12948,41 +12948,41 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K175" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L175" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M175" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>733</v>
+        <v>500</v>
       </c>
       <c r="Q175" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -13029,20 +13029,20 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K176" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L176" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M176" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -13051,10 +13051,10 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>533</v>
+        <v>1100</v>
       </c>
       <c r="Q176" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K177" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L177" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M177" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>567</v>
+        <v>733</v>
       </c>
       <c r="Q177" t="n">
         <v>15</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -13169,24 +13169,24 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K178" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L178" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M178" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -13195,10 +13195,10 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>625</v>
+        <v>533</v>
       </c>
       <c r="Q178" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K179" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L179" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M179" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13263,11 +13263,11 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>667</v>
+        <v>567</v>
       </c>
       <c r="Q179" t="n">
         <v>15</v>
@@ -13308,29 +13308,29 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K180" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L180" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M180" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -13339,10 +13339,10 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="Q180" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K181" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L181" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M181" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q181" t="n">
         <v>15</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44169</v>
+        <v>44316</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13464,17 +13464,17 @@
         <v>150</v>
       </c>
       <c r="K182" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L182" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M182" t="n">
-        <v>6767</v>
+        <v>8500</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -13483,10 +13483,10 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>677</v>
+        <v>567</v>
       </c>
       <c r="Q182" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K183" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L183" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M183" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q183" t="n">
         <v>15</v>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13605,32 +13605,32 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K184" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L184" t="n">
         <v>7000</v>
       </c>
       <c r="M184" t="n">
-        <v>7000</v>
+        <v>6767</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>467</v>
+        <v>677</v>
       </c>
       <c r="Q184" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E185" t="n">
         <v>10</v>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K185" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L185" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M185" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>733</v>
+        <v>400</v>
       </c>
       <c r="Q185" t="n">
         <v>15</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -13752,13 +13752,13 @@
         <v>200</v>
       </c>
       <c r="K186" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L186" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M186" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="Q186" t="n">
         <v>15</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44467</v>
+        <v>44410</v>
       </c>
       <c r="E187" t="n">
         <v>10</v>
@@ -13821,20 +13821,20 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K187" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L187" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M187" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -13843,10 +13843,10 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>900</v>
+        <v>733</v>
       </c>
       <c r="Q187" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44467</v>
+        <v>44410</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="K188" t="n">
         <v>12000</v>
       </c>
       <c r="L188" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M188" t="n">
-        <v>12556</v>
+        <v>12000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>837</v>
+        <v>800</v>
       </c>
       <c r="Q188" t="n">
         <v>15</v>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13965,7 +13965,7 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K189" t="n">
         <v>9000</v>
@@ -13978,7 +13978,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -13987,10 +13987,10 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="Q189" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -14037,32 +14037,32 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K190" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L190" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M190" t="n">
-        <v>10500</v>
+        <v>12556</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>1050</v>
+        <v>837</v>
       </c>
       <c r="Q190" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K191" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L191" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M191" t="n">
-        <v>14400</v>
+        <v>9000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="Q191" t="n">
         <v>15</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E192" t="n">
         <v>10</v>
@@ -14177,24 +14177,24 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K192" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L192" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M192" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -14203,10 +14203,10 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>625</v>
+        <v>1050</v>
       </c>
       <c r="Q192" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E193" t="n">
         <v>10</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K193" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L193" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M193" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>667</v>
+        <v>960</v>
       </c>
       <c r="Q193" t="n">
         <v>15</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E194" t="n">
         <v>10</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="K194" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L194" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M194" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="Q194" t="n">
         <v>12</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K195" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L195" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M195" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q195" t="n">
         <v>15</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -14465,36 +14465,36 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="K196" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L196" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M196" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="Q196" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E197" t="n">
         <v>10</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K197" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L197" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M197" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q197" t="n">
         <v>15</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44411</v>
+        <v>44273</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14613,32 +14613,32 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="K198" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L198" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M198" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>933</v>
+        <v>1100</v>
       </c>
       <c r="Q198" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K199" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L199" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M199" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>567</v>
+        <v>733</v>
       </c>
       <c r="Q199" t="n">
         <v>15</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44236</v>
+        <v>44411</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K200" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L200" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M200" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14775,11 +14775,11 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>533</v>
+        <v>933</v>
       </c>
       <c r="Q200" t="n">
         <v>15</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14829,32 +14829,32 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K201" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L201" t="n">
         <v>8500</v>
       </c>
       <c r="M201" t="n">
-        <v>8250</v>
+        <v>8500</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>825</v>
+        <v>567</v>
       </c>
       <c r="Q201" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -14919,7 +14919,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P202" t="n">
@@ -14964,41 +14964,41 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K203" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L203" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M203" t="n">
-        <v>7000</v>
+        <v>8250</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>389</v>
+        <v>825</v>
       </c>
       <c r="Q203" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K204" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L204" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M204" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="Q204" t="n">
         <v>15</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44403</v>
+        <v>44215</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -15113,24 +15113,24 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K205" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L205" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M205" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -15139,10 +15139,10 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>800</v>
+        <v>389</v>
       </c>
       <c r="Q205" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -15189,32 +15189,32 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K206" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L206" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M206" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q206" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -15264,13 +15264,13 @@
         <v>200</v>
       </c>
       <c r="K207" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L207" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M207" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>567</v>
+        <v>800</v>
       </c>
       <c r="Q207" t="n">
         <v>15</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K208" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L208" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M208" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q208" t="n">
         <v>10</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K209" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="L209" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M209" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>967</v>
+        <v>567</v>
       </c>
       <c r="Q209" t="n">
         <v>15</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15477,7 +15477,7 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K210" t="n">
         <v>11000</v>
@@ -15490,19 +15490,19 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q210" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K211" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L211" t="n">
         <v>15000</v>
       </c>
       <c r="M211" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="Q211" t="n">
         <v>15</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15621,32 +15621,32 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K212" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L212" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M212" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>900</v>
+        <v>733</v>
       </c>
       <c r="Q212" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K213" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L213" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M213" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q213" t="n">
         <v>15</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K214" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L214" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M214" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q214" t="n">
         <v>10</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K215" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L215" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M215" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="Q215" t="n">
         <v>15</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K216" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L216" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M216" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="Q216" t="n">
         <v>10</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -15984,13 +15984,13 @@
         <v>250</v>
       </c>
       <c r="K217" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L217" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M217" t="n">
-        <v>15600</v>
+        <v>7000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -15999,11 +15999,11 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>1040</v>
+        <v>467</v>
       </c>
       <c r="Q217" t="n">
         <v>15</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -16053,32 +16053,32 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K218" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="L218" t="n">
         <v>11000</v>
       </c>
       <c r="M218" t="n">
-        <v>10750</v>
+        <v>11000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>717</v>
+        <v>1100</v>
       </c>
       <c r="Q218" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -16125,32 +16125,32 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="K219" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L219" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M219" t="n">
-        <v>7556</v>
+        <v>15600</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>756</v>
+        <v>1040</v>
       </c>
       <c r="Q219" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -16200,13 +16200,13 @@
         <v>300</v>
       </c>
       <c r="K220" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="L220" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M220" t="n">
-        <v>6500</v>
+        <v>10750</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>433</v>
+        <v>717</v>
       </c>
       <c r="Q220" t="n">
         <v>15</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K221" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L221" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M221" t="n">
-        <v>10000</v>
+        <v>7556</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1000</v>
+        <v>756</v>
       </c>
       <c r="Q221" t="n">
         <v>10</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="K222" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L222" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M222" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>867</v>
+        <v>433</v>
       </c>
       <c r="Q222" t="n">
         <v>15</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -16404,41 +16404,41 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="K223" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L223" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M223" t="n">
-        <v>6700</v>
+        <v>10000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>372</v>
+        <v>1000</v>
       </c>
       <c r="Q223" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -16476,7 +16476,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -16485,32 +16485,32 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="K224" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L224" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M224" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>1100</v>
+        <v>867</v>
       </c>
       <c r="Q224" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -16553,24 +16553,24 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K225" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L225" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M225" t="n">
-        <v>11000</v>
+        <v>6700</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -16579,10 +16579,10 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>733</v>
+        <v>372</v>
       </c>
       <c r="Q225" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16629,7 +16629,7 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K226" t="n">
         <v>11000</v>
@@ -16642,19 +16642,19 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="Q226" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44229</v>
+        <v>44280</v>
       </c>
       <c r="E227" t="n">
         <v>10</v>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16701,32 +16701,32 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K227" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L227" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M227" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q227" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44229</v>
+        <v>44274</v>
       </c>
       <c r="E228" t="n">
         <v>10</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K228" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L228" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M228" t="n">
-        <v>8278</v>
+        <v>11000</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16791,11 +16791,11 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>552</v>
+        <v>733</v>
       </c>
       <c r="Q228" t="n">
         <v>15</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E229" t="n">
         <v>10</v>
@@ -16836,7 +16836,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16845,32 +16845,32 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K229" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L229" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M229" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P229" t="n">
         <v>800</v>
       </c>
       <c r="Q229" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E230" t="n">
         <v>10</v>
@@ -16908,41 +16908,41 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K230" t="n">
         <v>8000</v>
       </c>
       <c r="L230" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M230" t="n">
-        <v>8000</v>
+        <v>8278</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>444</v>
+        <v>552</v>
       </c>
       <c r="Q230" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -16989,7 +16989,7 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K231" t="n">
         <v>12000</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -17057,24 +17057,24 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K232" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L232" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M232" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>733</v>
+        <v>444</v>
       </c>
       <c r="Q232" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17133,32 +17133,32 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K233" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L233" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M233" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q233" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -17196,7 +17196,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K234" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L234" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M234" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q234" t="n">
         <v>15</v>
@@ -17268,29 +17268,29 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K235" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L235" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M235" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -17299,10 +17299,10 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>444</v>
+        <v>1100</v>
       </c>
       <c r="Q235" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -17349,7 +17349,7 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K236" t="n">
         <v>12000</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -17412,41 +17412,41 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K237" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L237" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M237" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="Q237" t="n">
-   